--- a/T1/Datos.xlsx
+++ b/T1/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristian Muñoz\Dropbox\mis documentos oct 2018\Curso Mercados Energeticos\Curso CC\Tareas\2022\Tarea 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Eco&amp;Med\Tareas_Economed\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F80F257-C7A1-45CB-AA5C-859F541C156C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59CB9A6-A84E-4A35-A64F-9929FF716794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centrales" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="146">
   <si>
     <t>Potencia</t>
   </si>
@@ -494,6 +497,30 @@
   <si>
     <t>$/MMBTU</t>
   </si>
+  <si>
+    <t>Factor Conv</t>
+  </si>
+  <si>
+    <t>MMBtu/MWh</t>
+  </si>
+  <si>
+    <t>Eq. Energética</t>
+  </si>
+  <si>
+    <t>Costos Var</t>
+  </si>
+  <si>
+    <t>Combustibles</t>
+  </si>
+  <si>
+    <t>2016 ($/MWh)</t>
+  </si>
+  <si>
+    <t>2030 ($/MWh)</t>
+  </si>
+  <si>
+    <t>Mg=tonelada</t>
+  </si>
 </sst>
 </file>
 
@@ -505,7 +532,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -543,16 +570,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -569,12 +608,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -609,9 +657,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -635,7 +680,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -653,15 +698,18 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,9 +729,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -721,9 +769,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,26 +804,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -808,26 +839,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1004,26 +1018,35 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A3:K65540"/>
+  <dimension ref="A2:O65540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="K3" s="18">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,8 +1062,14 @@
       <c r="H4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J4" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1050,9 +1079,18 @@
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
+      <c r="I5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1064,17 +1102,34 @@
       <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="O7" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1092,8 +1147,14 @@
       <c r="H8" s="8">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -1111,8 +1172,14 @@
       <c r="H9" s="8">
         <v>44.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="N9" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1131,8 +1198,26 @@
       <c r="G10" s="9">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="8">
+        <f>$K$3/(E10*1000)</f>
+        <v>9.0744680851063837</v>
+      </c>
+      <c r="J10" s="8">
+        <f>I10*$O$8</f>
+        <v>22.686170212765958</v>
+      </c>
+      <c r="K10" s="8">
+        <f>J10*(1+0.1)^(2030-2016)</f>
+        <v>86.150693629389608</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -1151,8 +1236,20 @@
       <c r="G11" s="9">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="8">
+        <f t="shared" ref="I11:I25" si="0">$K$3/(E11*1000)</f>
+        <v>9.7485714285714291</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" ref="J11:J12" si="1">I11*$O$8</f>
+        <v>24.371428571428574</v>
+      </c>
+      <c r="K11" s="8">
+        <f>J11*(1+0.1)^(2030-2016)</f>
+        <v>92.55045944185855</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -1171,8 +1268,20 @@
       <c r="G12" s="9">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="1"/>
+        <v>22.447368421052634</v>
+      </c>
+      <c r="K12" s="8">
+        <f>J12*(1+0.1)^(2030-2016)</f>
+        <v>85.243844222764452</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1191,8 +1300,20 @@
       <c r="G13" s="9">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="8">
+        <f t="shared" si="0"/>
+        <v>7.5154185022026434</v>
+      </c>
+      <c r="J13" s="8">
+        <f>I13*O10</f>
+        <v>60.123348017621147</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" ref="K11:K25" si="2">J13*(1+0.1)^(2030-2016)</f>
+        <v>228.31831404158936</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -1211,8 +1332,20 @@
       <c r="G14" s="9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="8">
+        <f t="shared" si="0"/>
+        <v>12.185714285714285</v>
+      </c>
+      <c r="J14" s="8">
+        <f>$O$9*I14</f>
+        <v>158.41428571428571</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="2"/>
+        <v>601.57798637208055</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1231,8 +1364,20 @@
       <c r="G15" s="9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="8">
+        <f t="shared" si="0"/>
+        <v>10.185074626865672</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" ref="J15:J25" si="3">$O$9*I15</f>
+        <v>132.40597014925373</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="2"/>
+        <v>502.81145129606733</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -1251,8 +1396,20 @@
       <c r="G16" s="9">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="8">
+        <f t="shared" si="0"/>
+        <v>9.5307262569832396</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="3"/>
+        <v>123.89944134078212</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="2"/>
+        <v>470.50792230218588</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -1271,8 +1428,20 @@
       <c r="G17" s="9">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="8">
+        <f t="shared" si="0"/>
+        <v>15.438914027149321</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="3"/>
+        <v>200.70588235294119</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="2"/>
+        <v>762.18025422707046</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -1291,8 +1460,20 @@
       <c r="G18" s="9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="8">
+        <f t="shared" si="0"/>
+        <v>11.15032679738562</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="3"/>
+        <v>144.95424836601308</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="2"/>
+        <v>550.46351694177304</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -1311,8 +1492,20 @@
       <c r="G19" s="9">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="8">
+        <f t="shared" si="0"/>
+        <v>8.3832923832923836</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="3"/>
+        <v>108.98280098280098</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="2"/>
+        <v>413.86200536654189</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -1331,8 +1524,20 @@
       <c r="G20" s="9">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="8">
+        <f t="shared" si="0"/>
+        <v>16.725490196078432</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="3"/>
+        <v>217.43137254901961</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="2"/>
+        <v>825.69527541265961</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -1351,8 +1556,20 @@
       <c r="G21" s="9">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="8">
+        <f t="shared" si="0"/>
+        <v>12.185714285714285</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="3"/>
+        <v>158.41428571428571</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="2"/>
+        <v>601.57798637208055</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -1371,8 +1588,20 @@
       <c r="G22" s="9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="8">
+        <f t="shared" si="0"/>
+        <v>12.273381294964029</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="3"/>
+        <v>159.55395683453239</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="2"/>
+        <v>605.90588555461352</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -1391,8 +1620,20 @@
       <c r="G23" s="9">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="8">
+        <f t="shared" si="0"/>
+        <v>9.5041782729805018</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="3"/>
+        <v>123.55431754874652</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="2"/>
+        <v>469.19731527627454</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -1411,8 +1652,20 @@
       <c r="G24" s="9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="8">
+        <f t="shared" si="0"/>
+        <v>11.527027027027026</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="3"/>
+        <v>149.85135135135135</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="2"/>
+        <v>569.06025737899517</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>20</v>
       </c>
@@ -1431,8 +1684,20 @@
       <c r="G25" s="9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="8">
+        <f t="shared" si="0"/>
+        <v>9.4515235457063707</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="3"/>
+        <v>122.86980609418282</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="2"/>
+        <v>466.59788416671063</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -1446,8 +1711,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="27" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="26" t="s">
         <v>92</v>
       </c>
       <c r="C27" t="s">
@@ -1463,8 +1728,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="27" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C28" t="s">
@@ -1481,7 +1746,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>63</v>
       </c>
@@ -1498,22 +1763,22 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>12</v>
       </c>
@@ -1522,7 +1787,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>15</v>
       </c>
@@ -1531,7 +1796,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -1540,7 +1805,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -1549,7 +1814,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>29</v>
       </c>
@@ -1558,7 +1823,7 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -1567,8 +1832,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="27" t="s">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="26" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="7">
@@ -1576,11 +1841,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="27"/>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="26"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>6</v>
       </c>
@@ -1589,48 +1854,57 @@
         <v>12707</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="28" t="s">
+      <c r="K44" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D45" s="18" t="s">
+      <c r="M44" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I45" s="18" t="s">
+      <c r="I45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="18" t="s">
+      <c r="J45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K45" s="30" t="s">
+      <c r="K45" s="29" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="29" t="s">
+      <c r="L45" t="s">
+        <v>138</v>
+      </c>
+      <c r="M45" s="37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="28" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="23" t="s">
         <v>87</v>
       </c>
       <c r="E46" s="6" t="s">
@@ -1639,7 +1913,7 @@
       <c r="F46" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="23" t="s">
         <v>10</v>
       </c>
       <c r="H46" s="6" t="s">
@@ -1654,8 +1928,14 @@
       <c r="K46" s="6">
         <v>2030</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M46" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>15</v>
       </c>
@@ -1684,8 +1964,16 @@
         <v>0.88</v>
       </c>
       <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <f>$K$3/(H47*1000)</f>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="M47">
+        <f>L47*$O$8</f>
+        <v>22.447368421052634</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>15</v>
       </c>
@@ -1714,8 +2002,16 @@
         <v>0.88</v>
       </c>
       <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <f t="shared" ref="L48:L54" si="4">$K$3/(H48*1000)</f>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ref="M48:M52" si="5">L48*$O$8</f>
+        <v>22.447368421052634</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>15</v>
       </c>
@@ -1744,8 +2040,16 @@
         <v>0.88</v>
       </c>
       <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>22.447368421052634</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>15</v>
       </c>
@@ -1774,8 +2078,16 @@
         <v>0.88</v>
       </c>
       <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>22.447368421052634</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>15</v>
       </c>
@@ -1804,8 +2116,16 @@
         <v>0.88</v>
       </c>
       <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>22.447368421052634</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>15</v>
       </c>
@@ -1834,8 +2154,29 @@
         <v>0.88</v>
       </c>
       <c r="K52" s="3"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>22.447368421052634</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>19</v>
       </c>
@@ -1864,17 +2205,34 @@
         <v>0.93</v>
       </c>
       <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>7.5822222222222226</v>
+      </c>
+      <c r="M54">
+        <f>L54*O10</f>
+        <v>60.657777777777781</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="27" t="s">
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C56" t="s">
@@ -1895,15 +2253,15 @@
       <c r="J56" s="9">
         <v>0.6</v>
       </c>
-      <c r="K56" s="28" t="s">
+      <c r="K56" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K57" s="28"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="27" t="s">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K57" s="27"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="26" t="s">
         <v>93</v>
       </c>
       <c r="C58" t="s">
@@ -1927,12 +2285,12 @@
       <c r="J58" s="9">
         <v>0.35</v>
       </c>
-      <c r="K58" s="28" t="s">
+      <c r="K58" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="27" t="s">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C59" t="s">
@@ -1956,10 +2314,10 @@
       <c r="J59" s="9">
         <v>0.3</v>
       </c>
-      <c r="K59" s="28"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="27" t="s">
+      <c r="K59" s="27"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="26" t="s">
         <v>97</v>
       </c>
       <c r="C60" t="s">
@@ -1983,12 +2341,12 @@
       <c r="J60" s="9">
         <v>0.35</v>
       </c>
-      <c r="K60" s="28" t="s">
+      <c r="K60" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="27" t="s">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="26" t="s">
         <v>98</v>
       </c>
       <c r="C61" t="s">
@@ -2012,9 +2370,9 @@
       <c r="J61" s="9">
         <v>0.3</v>
       </c>
-      <c r="K61" s="28"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="27"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>40</v>
       </c>
@@ -2039,11 +2397,11 @@
       <c r="J62" s="9">
         <v>0.8</v>
       </c>
-      <c r="K62" s="28" t="s">
+      <c r="K62" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>41</v>
       </c>
@@ -2068,14 +2426,14 @@
       <c r="J63" s="9">
         <v>0.6</v>
       </c>
-      <c r="K63" s="28" t="s">
+      <c r="K63" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>20</v>
       </c>
@@ -2092,7 +2450,7 @@
         <v>0.1</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" ref="G65:G70" si="0">+G47</f>
+        <f t="shared" ref="G65:G70" si="6">+G47</f>
         <v>10</v>
       </c>
       <c r="H65" s="10">
@@ -2104,8 +2462,16 @@
       <c r="J65" s="9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <f t="shared" ref="L65:L70" si="7">$K$3/(H65*1000)</f>
+        <v>11.373333333333333</v>
+      </c>
+      <c r="M65">
+        <f>L65*$O$9</f>
+        <v>147.85333333333332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>20</v>
       </c>
@@ -2122,7 +2488,7 @@
         <v>0.1</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H66" s="10">
@@ -2134,8 +2500,16 @@
       <c r="J66" s="9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <f t="shared" si="7"/>
+        <v>11.373333333333333</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ref="M66:M70" si="8">L66*$O$9</f>
+        <v>147.85333333333332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>20</v>
       </c>
@@ -2152,7 +2526,7 @@
         <v>0.1</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
       <c r="H67" s="10">
@@ -2164,8 +2538,16 @@
       <c r="J67" s="9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <f t="shared" si="7"/>
+        <v>11.373333333333333</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="8"/>
+        <v>147.85333333333332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>20</v>
       </c>
@@ -2182,7 +2564,7 @@
         <v>0.1</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
       <c r="H68" s="10">
@@ -2194,8 +2576,16 @@
       <c r="J68" s="9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <f t="shared" si="7"/>
+        <v>11.373333333333333</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="8"/>
+        <v>147.85333333333332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>20</v>
       </c>
@@ -2212,7 +2602,7 @@
         <v>0.1</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H69" s="10">
@@ -2224,8 +2614,16 @@
       <c r="J69" s="9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <f t="shared" si="7"/>
+        <v>11.373333333333333</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="8"/>
+        <v>147.85333333333332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>20</v>
       </c>
@@ -2242,7 +2640,7 @@
         <v>0.1</v>
       </c>
       <c r="G70" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H70" s="10">
@@ -2254,28 +2652,36 @@
       <c r="J70" s="9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <f t="shared" si="7"/>
+        <v>11.373333333333333</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="8"/>
+        <v>147.85333333333332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E71" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="27" t="s">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65540" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="65540" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K65540" s="12" t="s">
         <v>37</v>
       </c>
@@ -2295,23 +2701,23 @@
   </sheetPr>
   <dimension ref="A2:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" style="13" customWidth="1"/>
-    <col min="8" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="13" customWidth="1"/>
+    <col min="8" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>59</v>
       </c>
@@ -2328,7 +2734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="6" t="s">
         <v>52</v>
@@ -2343,7 +2749,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
@@ -2362,7 +2768,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>54</v>
       </c>
@@ -2378,10 +2784,13 @@
       <c r="F8" s="15">
         <v>2164.705882352941</v>
       </c>
+      <c r="H8" t="s">
+        <v>145</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>55</v>
       </c>
@@ -2400,7 +2809,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>56</v>
       </c>
@@ -2419,14 +2828,14 @@
       <c r="I10" s="13"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>0.18087999999999999</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>1.4280000000000001E-2</v>
       </c>
       <c r="E11" s="15">
@@ -2438,14 +2847,14 @@
       <c r="I11" s="13"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>0.18087999999999999</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>1.4280000000000001E-2</v>
       </c>
       <c r="E12" s="15">
@@ -2457,126 +2866,126 @@
       <c r="I12" s="13"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <f>9.12*1000000</f>
         <v>9120000</v>
       </c>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>6500</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>9341</v>
       </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>845</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>0.67300000000000004</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>75</v>
       </c>
@@ -2590,7 +2999,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>75</v>
       </c>
@@ -2605,7 +3014,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>84</v>
       </c>
@@ -2620,7 +3029,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>85</v>
       </c>
@@ -2635,7 +3044,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>79</v>
       </c>
@@ -2649,54 +3058,54 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="25" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="24" t="s">
         <v>89</v>
       </c>
       <c r="D37">
         <v>1000000</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
     </row>
   </sheetData>
@@ -2714,13 +3123,13 @@
   </sheetPr>
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
@@ -2731,7 +3140,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
         <v>48</v>
@@ -2743,7 +3152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>44</v>
       </c>
@@ -2758,7 +3167,7 @@
         <v>9307.2000000000007</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -2773,7 +3182,7 @@
         <v>24770.831999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -2788,10 +3197,10 @@
         <v>16266.384</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>+SUM(C4:C6)</f>
         <v>8760</v>
@@ -2801,21 +3210,21 @@
         <v>50344.415999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="23">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="22">
         <v>2017</v>
       </c>
       <c r="C13">
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="23">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="22">
         <v>2018</v>
       </c>
       <c r="C14">
@@ -2823,8 +3232,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="23">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="22">
         <v>2019</v>
       </c>
       <c r="C15">
@@ -2832,8 +3241,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="23">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="22">
         <v>2020</v>
       </c>
       <c r="C16">
@@ -2841,8 +3250,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="23">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="22">
         <v>2021</v>
       </c>
       <c r="C17">
@@ -2850,8 +3259,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="23">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="22">
         <v>2022</v>
       </c>
       <c r="C18">
@@ -2859,8 +3268,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="23">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="22">
         <v>2023</v>
       </c>
       <c r="C19">
@@ -2868,8 +3277,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="23">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="22">
         <v>2024</v>
       </c>
       <c r="C20">
@@ -2877,8 +3286,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="23">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="22">
         <v>2025</v>
       </c>
       <c r="C21">
@@ -2886,8 +3295,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="23">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="22">
         <v>2026</v>
       </c>
       <c r="C22">
@@ -2895,8 +3304,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="23">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="22">
         <v>2027</v>
       </c>
       <c r="C23">
@@ -2904,8 +3313,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="23">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="22">
         <v>2028</v>
       </c>
       <c r="C24">
@@ -2913,8 +3322,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="23">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="22">
         <v>2029</v>
       </c>
       <c r="C25">
@@ -2922,8 +3331,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="23">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="22">
         <v>2030</v>
       </c>
     </row>
@@ -2942,23 +3351,23 @@
   </sheetPr>
   <dimension ref="B4:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="28" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -2966,15 +3375,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="27" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
         <v>136</v>
       </c>
       <c r="C8" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -2982,8 +3391,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="27" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2998,532 +3407,532 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:K90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>526.84727859553038</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <v>210.73891143821214</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="34">
         <v>105.36945571910607</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="34">
         <v>50</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>526.84727859553038</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>210.73891143821214</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="34">
         <v>105.36945571910607</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <v>50</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>526.84727859553038</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>210.73891143821214</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="34">
         <v>105.36945571910607</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>50</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>526.84727859553038</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>210.73891143821214</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="34">
         <v>105.36945571910607</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="34">
         <v>50</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>1580.541835786591</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="34">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="34">
         <v>50</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>1580.541835786591</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <v>50</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <v>1580.541835786591</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="34">
         <v>50</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="7">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>1580.541835786591</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="34">
         <v>50</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="34">
         <v>526.84727859553038</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>210.73891143821214</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>105.36945571910607</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="34">
         <v>50</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="7">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>1580.541835786591</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="34">
         <v>50</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>526.84727859553038</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>210.73891143821214</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="34">
         <v>105.36945571910607</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="34">
         <v>50</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="34">
         <v>526.84727859553038</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <v>210.73891143821214</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="34">
         <v>105.36945571910607</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="34">
         <v>50</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>526.84727859553038</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <v>210.73891143821214</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="34">
         <v>105.36945571910607</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="34">
         <v>50</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="32" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="32" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="27" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="13"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="13"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="13"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="13"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="13"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="13"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="13"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="13"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="13"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="13"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="13"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="13"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="13"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="13"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="13"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="13"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="13"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="13"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="13"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="13"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="13"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="13"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="13"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="13"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="13"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="13"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="13"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="13"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="13"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="13"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="13"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="13"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="13"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="13"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="13"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="13"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="13"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="13"/>
     </row>
   </sheetData>
@@ -3535,37 +3944,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3"/>
@@ -3574,14 +3983,14 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>112</v>
       </c>
       <c r="C5" s="9">
         <v>0.7</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <v>41.094087730451371</v>
       </c>
       <c r="E5" s="2">
@@ -3590,8 +3999,8 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -3600,14 +4009,14 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>113</v>
       </c>
       <c r="C6" s="9">
         <v>0.9</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <v>42.147782287642428</v>
       </c>
       <c r="E6" s="2">
@@ -3619,14 +4028,14 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="9">
         <v>0.95</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>63.221673431463643</v>
       </c>
       <c r="E7" s="2">
@@ -3638,7 +4047,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D8" s="7"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3646,7 +4055,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>115</v>
       </c>
@@ -3657,29 +4066,29 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="3"/>
@@ -3687,14 +4096,14 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="9">
         <v>0.9</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <v>115.90640129101668</v>
       </c>
       <c r="E12" s="2">
@@ -3705,14 +4114,14 @@
       <c r="H12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>117</v>
       </c>
       <c r="C13" s="9">
         <v>0.98</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>158.05418357865912</v>
       </c>
       <c r="E13" s="2">
@@ -3723,14 +4132,14 @@
       <c r="H13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>118</v>
       </c>
       <c r="C14" s="9">
         <v>0.99</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>273.96058486967581</v>
       </c>
       <c r="E14" s="2">
@@ -3741,14 +4150,14 @@
       <c r="H14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>119</v>
       </c>
@@ -3758,28 +4167,28 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="26" t="s">
         <v>132</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="3"/>
@@ -3788,14 +4197,14 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="9">
         <v>0.6</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <v>210.73891143821214</v>
       </c>
       <c r="E19" s="2">
@@ -3807,14 +4216,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>121</v>
       </c>
       <c r="C20" s="9">
         <v>0.9</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <v>263.42363929776519</v>
       </c>
       <c r="E20" s="2">
@@ -3826,14 +4235,14 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>122</v>
       </c>
       <c r="C21" s="9">
         <v>0.95</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>316.10836715731824</v>
       </c>
       <c r="E21" s="2">
@@ -3845,7 +4254,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3853,7 +4262,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3861,7 +4270,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>123</v>
       </c>
@@ -3872,32 +4281,32 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="27" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="40" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="27" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="27" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="6" t="s">
         <v>50</v>
@@ -3909,7 +4318,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>73</v>
       </c>
@@ -3919,68 +4328,69 @@
       <c r="D34" s="3">
         <v>0.95</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>127</v>
       </c>
       <c r="C35">
         <v>0.95</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="33" t="s">
         <v>126</v>
       </c>
       <c r="E35" s="15">
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>71</v>
       </c>
       <c r="C36">
         <v>0.95</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F44" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/T1/Datos.xlsx
+++ b/T1/Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Eco&amp;Med\Tareas_Economed\T1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Econo_Med\Tareas_Economed\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59CB9A6-A84E-4A35-A64F-9929FF716794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A7F723-40D0-4FCC-BBFD-55FAECE14CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centrales" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="148">
   <si>
     <t>Potencia</t>
   </si>
@@ -338,9 +338,6 @@
   </si>
   <si>
     <t>Solar FV 1</t>
-  </si>
-  <si>
-    <t>Hidroelectricidad convencional</t>
   </si>
   <si>
     <t>Tecnología</t>
@@ -520,6 +517,15 @@
   </si>
   <si>
     <t>Mg=tonelada</t>
+  </si>
+  <si>
+    <t>no hay limite</t>
+  </si>
+  <si>
+    <t>ojo: $/kw</t>
+  </si>
+  <si>
+    <t>pasar a MW</t>
   </si>
 </sst>
 </file>
@@ -622,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -699,9 +705,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1020,25 +1023,25 @@
   </sheetPr>
   <dimension ref="A2:O65540"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1062,14 +1065,14 @@
       <c r="H4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J4" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1080,18 +1083,18 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1112,24 +1115,24 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J6" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
       <c r="O7" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -1173,13 +1176,13 @@
         <v>44.5</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O9" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>92.55045944185855</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>85.243844222764452</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1309,11 +1312,11 @@
         <v>60.123348017621147</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" ref="K11:K25" si="2">J13*(1+0.1)^(2030-2016)</f>
+        <f t="shared" ref="K13:K25" si="2">J13*(1+0.1)^(2030-2016)</f>
         <v>228.31831404158936</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>601.57798637208055</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>502.81145129606733</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>470.50792230218588</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>762.18025422707046</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>550.46351694177304</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>413.86200536654189</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>825.69527541265961</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>601.57798637208055</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>605.90588555461352</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>469.19731527627454</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>569.06025737899517</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>20</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>466.59788416671063</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="26" t="s">
         <v>92</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="26" t="s">
         <v>99</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>63</v>
       </c>
@@ -1763,22 +1766,22 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>12</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>15</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>29</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="26" t="s">
         <v>39</v>
       </c>
@@ -1841,11 +1844,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="26"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>6</v>
       </c>
@@ -1854,18 +1857,18 @@
         <v>12707</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="M44" s="37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="M44" s="36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D45" s="3" t="s">
         <v>34</v>
       </c>
@@ -1888,18 +1891,18 @@
         <v>36</v>
       </c>
       <c r="K45" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s">
-        <v>138</v>
-      </c>
-      <c r="M45" s="37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>7</v>
@@ -1929,13 +1932,13 @@
         <v>2030</v>
       </c>
       <c r="L46" t="s">
-        <v>139</v>
-      </c>
-      <c r="M46" s="36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>15</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>22.447368421052634</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>15</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>22.447368421052634</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>15</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>22.447368421052634</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>15</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>22.447368421052634</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>15</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>22.447368421052634</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>15</v>
       </c>
@@ -2163,20 +2166,20 @@
         <v>22.447368421052634</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>19</v>
       </c>
@@ -2214,26 +2217,26 @@
         <v>60.657777777777781</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="39" t="s">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="26" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
         <v>38</v>
@@ -2257,10 +2260,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K57" s="27"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="26" t="s">
         <v>93</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="26" t="s">
         <v>94</v>
       </c>
@@ -2314,9 +2317,11 @@
       <c r="J59" s="9">
         <v>0.3</v>
       </c>
-      <c r="K59" s="27"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K59" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="26" t="s">
         <v>97</v>
       </c>
@@ -2345,7 +2350,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="26" t="s">
         <v>98</v>
       </c>
@@ -2370,9 +2375,11 @@
       <c r="J61" s="9">
         <v>0.3</v>
       </c>
-      <c r="K61" s="27"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K61" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>40</v>
       </c>
@@ -2401,7 +2408,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>41</v>
       </c>
@@ -2430,10 +2437,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>20</v>
       </c>
@@ -2471,7 +2478,7 @@
         <v>147.85333333333332</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>20</v>
       </c>
@@ -2509,7 +2516,7 @@
         <v>147.85333333333332</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>20</v>
       </c>
@@ -2547,7 +2554,7 @@
         <v>147.85333333333332</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>20</v>
       </c>
@@ -2585,7 +2592,7 @@
         <v>147.85333333333332</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>20</v>
       </c>
@@ -2623,7 +2630,7 @@
         <v>147.85333333333332</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>20</v>
       </c>
@@ -2661,27 +2668,31 @@
         <v>147.85333333333332</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E71" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B73" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="D73" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" s="39"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65540" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="65540" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K65540" s="12" t="s">
         <v>37</v>
       </c>
@@ -2705,19 +2716,19 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" style="13" customWidth="1"/>
-    <col min="8" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="13" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>59</v>
       </c>
@@ -2734,7 +2745,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
       <c r="C5" s="6" t="s">
         <v>52</v>
@@ -2749,7 +2760,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
@@ -2768,7 +2779,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>54</v>
       </c>
@@ -2785,12 +2796,12 @@
         <v>2164.705882352941</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>55</v>
       </c>
@@ -2809,7 +2820,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>56</v>
       </c>
@@ -2828,7 +2839,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>57</v>
       </c>
@@ -2847,7 +2858,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>58</v>
       </c>
@@ -2866,29 +2877,29 @@
       <c r="I12" s="13"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="21" t="s">
         <v>72</v>
@@ -2900,7 +2911,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
         <v>71</v>
       </c>
@@ -2910,7 +2921,7 @@
       </c>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>73</v>
       </c>
@@ -2919,7 +2930,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>43</v>
       </c>
@@ -2928,29 +2939,29 @@
       </c>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="21" t="s">
         <v>77</v>
@@ -2959,7 +2970,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="13" t="s">
         <v>71</v>
       </c>
@@ -2970,7 +2981,7 @@
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
         <v>43</v>
       </c>
@@ -2980,12 +2991,12 @@
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>75</v>
       </c>
@@ -2999,7 +3010,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>75</v>
       </c>
@@ -3014,7 +3025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>84</v>
       </c>
@@ -3029,7 +3040,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>85</v>
       </c>
@@ -3044,7 +3055,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>79</v>
       </c>
@@ -3058,7 +3069,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="24" t="s">
         <v>89</v>
       </c>
@@ -3069,43 +3080,43 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
     </row>
   </sheetData>
@@ -3127,9 +3138,9 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
@@ -3140,7 +3151,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
         <v>48</v>
@@ -3152,7 +3163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>44</v>
       </c>
@@ -3167,7 +3178,7 @@
         <v>9307.2000000000007</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -3182,7 +3193,7 @@
         <v>24770.831999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -3197,10 +3208,10 @@
         <v>16266.384</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C8">
         <f>+SUM(C4:C6)</f>
         <v>8760</v>
@@ -3210,12 +3221,12 @@
         <v>50344.415999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="22">
         <v>2017</v>
       </c>
@@ -3223,7 +3234,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="22">
         <v>2018</v>
       </c>
@@ -3232,7 +3243,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="22">
         <v>2019</v>
       </c>
@@ -3241,7 +3252,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="22">
         <v>2020</v>
       </c>
@@ -3250,7 +3261,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="22">
         <v>2021</v>
       </c>
@@ -3259,7 +3270,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="22">
         <v>2022</v>
       </c>
@@ -3268,7 +3279,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="22">
         <v>2023</v>
       </c>
@@ -3277,7 +3288,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="22">
         <v>2024</v>
       </c>
@@ -3286,7 +3297,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="22">
         <v>2025</v>
       </c>
@@ -3295,7 +3306,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="22">
         <v>2026</v>
       </c>
@@ -3304,7 +3315,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="22">
         <v>2027</v>
       </c>
@@ -3313,7 +3324,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="22">
         <v>2028</v>
       </c>
@@ -3322,7 +3333,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="22">
         <v>2029</v>
       </c>
@@ -3331,7 +3342,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="22">
         <v>2030</v>
       </c>
@@ -3355,19 +3366,19 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -3375,15 +3386,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -3391,9 +3402,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3411,19 +3422,19 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="3" t="s">
         <v>50</v>
@@ -3435,25 +3446,25 @@
         <v>69</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
       <c r="C5" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3473,7 +3484,7 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -3493,7 +3504,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -3513,7 +3524,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -3533,7 +3544,7 @@
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -3553,7 +3564,7 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -3573,7 +3584,7 @@
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -3593,7 +3604,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -3613,7 +3624,7 @@
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -3633,7 +3644,7 @@
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -3653,7 +3664,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -3673,7 +3684,7 @@
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -3693,7 +3704,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -3713,226 +3724,226 @@
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="13"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="13"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="13"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="13"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="13"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="13"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="13"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" s="13"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
     </row>
   </sheetData>
@@ -3944,35 +3955,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D3" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>10</v>
@@ -3983,9 +3994,9 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="9">
         <v>0.7</v>
@@ -4009,9 +4020,9 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="9">
         <v>0.9</v>
@@ -4028,9 +4039,9 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="9">
         <v>0.95</v>
@@ -4047,7 +4058,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D8" s="7"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -4055,9 +4066,9 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -4066,27 +4077,27 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>131</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>132</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>10</v>
@@ -4096,9 +4107,9 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="9">
         <v>0.9</v>
@@ -4114,9 +4125,9 @@
       <c r="H12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="9">
         <v>0.98</v>
@@ -4132,9 +4143,9 @@
       <c r="H13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="9">
         <v>0.99</v>
@@ -4150,16 +4161,16 @@
       <c r="H14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D15" s="7"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="3"/>
@@ -4167,26 +4178,26 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>131</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>132</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>10</v>
@@ -4197,9 +4208,9 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="9">
         <v>0.6</v>
@@ -4216,9 +4227,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="9">
         <v>0.9</v>
@@ -4235,9 +4246,9 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="9">
         <v>0.95</v>
@@ -4254,7 +4265,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -4262,7 +4273,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -4270,9 +4281,9 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4281,32 +4292,32 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="C33" s="6" t="s">
         <v>50</v>
@@ -4318,7 +4329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>73</v>
       </c>
@@ -4329,24 +4340,24 @@
         <v>0.95</v>
       </c>
       <c r="E34" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>127</v>
       </c>
       <c r="C35">
         <v>0.95</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" s="15">
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>71</v>
       </c>
@@ -4354,39 +4365,39 @@
         <v>0.95</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F44" s="3"/>
     </row>
   </sheetData>

--- a/T1/Datos.xlsx
+++ b/T1/Datos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Econo_Med\Tareas_Economed\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A7F723-40D0-4FCC-BBFD-55FAECE14CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A96DD0-AB87-402A-ADB1-4BB0DC48B6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="733" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centrales" sheetId="1" r:id="rId1"/>
-    <sheet name="Factores emisión" sheetId="4" r:id="rId2"/>
+    <sheet name="Combustibles" sheetId="3" r:id="rId2"/>
     <sheet name="Demanda" sheetId="2" r:id="rId3"/>
-    <sheet name="Combustibles" sheetId="3" r:id="rId4"/>
+    <sheet name="Factores emisión" sheetId="4" r:id="rId4"/>
     <sheet name="Daño ambiental" sheetId="5" r:id="rId5"/>
     <sheet name="Abatimiento" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="148">
   <si>
     <t>Potencia</t>
   </si>
@@ -1023,7 +1023,7 @@
   </sheetPr>
   <dimension ref="A2:O65540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
@@ -2706,656 +2706,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A2:J57"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.85546875" style="13" customWidth="1"/>
-    <col min="8" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="14"/>
-      <c r="C5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="15">
-        <v>44.607999999999997</v>
-      </c>
-      <c r="D7" s="15">
-        <v>22.8</v>
-      </c>
-      <c r="E7" s="15">
-        <v>16.5</v>
-      </c>
-      <c r="F7" s="15">
-        <v>2385.294117647059</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="15">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D8" s="15">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E8" s="15">
-        <v>3.6</v>
-      </c>
-      <c r="F8" s="15">
-        <v>2164.705882352941</v>
-      </c>
-      <c r="H8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.28369156485987873</v>
-      </c>
-      <c r="D9" s="15">
-        <v>23.078308801351135</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1.4184578242993937</v>
-      </c>
-      <c r="F9" s="15">
-        <v>3163.160948187648</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0.28369156485987873</v>
-      </c>
-      <c r="D10" s="15">
-        <v>23.078308801351135</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1.4184578242993937</v>
-      </c>
-      <c r="F10" s="15">
-        <v>3163.160948187648</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.18087999999999999</v>
-      </c>
-      <c r="D11" s="25">
-        <v>1.4280000000000001E-2</v>
-      </c>
-      <c r="E11" s="15">
-        <v>5.593</v>
-      </c>
-      <c r="F11" s="15">
-        <v>2856</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="25">
-        <v>0.18087999999999999</v>
-      </c>
-      <c r="D12" s="25">
-        <v>1.4280000000000001E-2</v>
-      </c>
-      <c r="E12" s="15">
-        <v>5.593</v>
-      </c>
-      <c r="F12" s="15">
-        <v>2856</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="19">
-        <f>9.12*1000000</f>
-        <v>9120000</v>
-      </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="19">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="19">
-        <v>9341</v>
-      </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
-      <c r="C25" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="18">
-        <v>845</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="20">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32">
-        <v>0.25183</v>
-      </c>
-      <c r="E32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33">
-        <f>2.9283*10^-4</f>
-        <v>2.9283E-4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34">
-        <f>+D33/0.25183</f>
-        <v>1.1628082436564349E-3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="7">
-        <f>1/D34</f>
-        <v>859.98702318751498</v>
-      </c>
-      <c r="E35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36">
-        <v>1000</v>
-      </c>
-      <c r="E36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37">
-        <v>1000000</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B2:E26"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4">
-        <v>1200</v>
-      </c>
-      <c r="D4" s="7">
-        <v>7756</v>
-      </c>
-      <c r="E4" s="7">
-        <f>+C4*D4/1000</f>
-        <v>9307.2000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5">
-        <v>4152</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5966</v>
-      </c>
-      <c r="E5" s="7">
-        <f>+C5*D5/1000</f>
-        <v>24770.831999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6">
-        <v>3408</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4773</v>
-      </c>
-      <c r="E6" s="7">
-        <f>+C6*D6/1000</f>
-        <v>16266.384</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C8">
-        <f>+SUM(C4:C6)</f>
-        <v>8760</v>
-      </c>
-      <c r="E8" s="7">
-        <f>+SUM(E4:E6)</f>
-        <v>50344.415999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="22">
-        <v>2017</v>
-      </c>
-      <c r="C13">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="22">
-        <v>2018</v>
-      </c>
-      <c r="C14">
-        <f>+C13</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="22">
-        <v>2019</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:C25" si="0">+C14</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="22">
-        <v>2020</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="22">
-        <v>2021</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="22">
-        <v>2022</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="22">
-        <v>2023</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="22">
-        <v>2024</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="22">
-        <v>2025</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="22">
-        <v>2026</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="22">
-        <v>2027</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="22">
-        <v>2028</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="22">
-        <v>2029</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="22">
-        <v>2030</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3414,12 +2764,675 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:F26"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7756</v>
+      </c>
+      <c r="E4" s="7">
+        <f>+C4*D4/1000</f>
+        <v>9307.2000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>4152</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5966</v>
+      </c>
+      <c r="E5" s="7">
+        <f>+C5*D5/1000</f>
+        <v>24770.831999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>3408</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4773</v>
+      </c>
+      <c r="E6" s="7">
+        <f>+C6*D6/1000</f>
+        <v>16266.384</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f>+SUM(C4:C6)</f>
+        <v>8760</v>
+      </c>
+      <c r="E8" s="7">
+        <f>+SUM(E4:E6)</f>
+        <v>50344.415999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="22">
+        <v>2017</v>
+      </c>
+      <c r="C13">
+        <v>0.02</v>
+      </c>
+      <c r="D13">
+        <f>E4*(1+C13)</f>
+        <v>9493.344000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="22">
+        <v>2018</v>
+      </c>
+      <c r="C14">
+        <f>+C13</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="22">
+        <v>2019</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C25" si="0">+C14</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="22">
+        <v>2020</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="22">
+        <v>2021</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="22">
+        <v>2022</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="22">
+        <v>2023</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="22">
+        <v>2025</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="22">
+        <v>2026</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="22">
+        <v>2027</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="22">
+        <v>2028</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="22">
+        <v>2029</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="22">
+        <v>2030</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A2:J57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" style="13" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="14"/>
+      <c r="C5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="15">
+        <v>44.607999999999997</v>
+      </c>
+      <c r="D7" s="15">
+        <v>22.8</v>
+      </c>
+      <c r="E7" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="F7" s="15">
+        <v>2385.294117647059</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D8" s="15">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E8" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2164.705882352941</v>
+      </c>
+      <c r="H8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.28369156485987873</v>
+      </c>
+      <c r="D9" s="15">
+        <v>23.078308801351135</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1.4184578242993937</v>
+      </c>
+      <c r="F9" s="15">
+        <v>3163.160948187648</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.28369156485987873</v>
+      </c>
+      <c r="D10" s="15">
+        <v>23.078308801351135</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1.4184578242993937</v>
+      </c>
+      <c r="F10" s="15">
+        <v>3163.160948187648</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.18087999999999999</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1.4280000000000001E-2</v>
+      </c>
+      <c r="E11" s="15">
+        <v>5.593</v>
+      </c>
+      <c r="F11" s="15">
+        <v>2856</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.18087999999999999</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1.4280000000000001E-2</v>
+      </c>
+      <c r="E12" s="15">
+        <v>5.593</v>
+      </c>
+      <c r="F12" s="15">
+        <v>2856</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="19">
+        <f>9.12*1000000</f>
+        <v>9120000</v>
+      </c>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="19">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="19">
+        <v>9341</v>
+      </c>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="18">
+        <v>845</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="20">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32">
+        <v>0.25183</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <f>2.9283*10^-4</f>
+        <v>2.9283E-4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34">
+        <f>+D33/0.25183</f>
+        <v>1.1628082436564349E-3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="7">
+        <f>1/D34</f>
+        <v>859.98702318751498</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36">
+        <v>1000</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37">
+        <v>1000000</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:K90"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3955,8 +3968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/T1/Datos.xlsx
+++ b/T1/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Econo_Med\Tareas_Economed\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A96DD0-AB87-402A-ADB1-4BB0DC48B6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A56D935-00B9-43F0-90FA-80EA2C84B0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="733" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="733" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centrales" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="156">
   <si>
     <t>Potencia</t>
   </si>
@@ -526,6 +526,30 @@
   </si>
   <si>
     <t>pasar a MW</t>
+  </si>
+  <si>
+    <t>Caja Mágica</t>
+  </si>
+  <si>
+    <t>Entran GWh</t>
+  </si>
+  <si>
+    <t>Salen Ton</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>cc-gnl</t>
+  </si>
+  <si>
+    <t>GWh -&gt; KWh</t>
+  </si>
+  <si>
+    <t>1Millon</t>
+  </si>
+  <si>
+    <t>carbon</t>
   </si>
 </sst>
 </file>
@@ -597,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -623,12 +647,222 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -713,6 +947,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3012,14 +3273,15 @@
   </sheetPr>
   <dimension ref="A2:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.85546875" style="13" customWidth="1"/>
-    <col min="8" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3060,7 +3322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
@@ -3099,7 +3361,9 @@
         <v>144</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="54" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
@@ -3118,9 +3382,11 @@
         <v>3163.160948187648</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="55">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>56</v>
       </c>
@@ -3137,7 +3403,9 @@
         <v>3163.160948187648</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="56" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
@@ -3177,7 +3445,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="15"/>
@@ -3187,10 +3455,21 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H14" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>70</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
@@ -3198,8 +3477,18 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="50">
+        <v>1</v>
+      </c>
+      <c r="I16" s="51">
+        <f>H16*J9*D35*(1/C18)*C26*(1/1000)</f>
+        <v>79.680815196650229</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="21" t="s">
         <v>72</v>
@@ -3210,8 +3499,19 @@
       <c r="E17" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="48"/>
+      <c r="G17" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="42">
+        <v>1</v>
+      </c>
+      <c r="I17" s="45">
+        <f>H17*J9*D35*(1/C20)*C27*(1/1000)</f>
+        <v>61.960311166384507</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>71</v>
       </c>
@@ -3220,8 +3520,18 @@
         <v>9120000</v>
       </c>
       <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="46">
+        <v>1</v>
+      </c>
+      <c r="I18" s="47">
+        <f>H18*J9*D35*(1/D19)*(1/1000)</f>
+        <v>132.3056958750023</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>73</v>
       </c>
@@ -3229,8 +3539,9 @@
       <c r="D19" s="19">
         <v>6500</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>43</v>
       </c>
@@ -3239,29 +3550,29 @@
       </c>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="21" t="s">
         <v>77</v>
@@ -3270,7 +3581,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="13" t="s">
         <v>71</v>
       </c>
@@ -3281,7 +3592,7 @@
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
         <v>43</v>
       </c>
@@ -3291,12 +3602,12 @@
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>75</v>
       </c>
@@ -3420,6 +3731,9 @@
       <c r="A57" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H14:I14"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3969,7 +4283,7 @@
   <dimension ref="B2:Q44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/T1/Datos.xlsx
+++ b/T1/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Econo_Med\Tareas_Economed\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A56D935-00B9-43F0-90FA-80EA2C84B0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A8675-86C6-41A8-8B56-DC957F924E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="733" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="733" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centrales" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Factores emisión" sheetId="4" r:id="rId4"/>
     <sheet name="Daño ambiental" sheetId="5" r:id="rId5"/>
     <sheet name="Abatimiento" sheetId="6" r:id="rId6"/>
+    <sheet name="centrales_ex_ED_CS" sheetId="7" r:id="rId7"/>
+    <sheet name="centrales_n_ED_CS" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="217">
   <si>
     <t>Potencia</t>
   </si>
@@ -513,9 +515,6 @@
     <t>2016 ($/MWh)</t>
   </si>
   <si>
-    <t>2030 ($/MWh)</t>
-  </si>
-  <si>
     <t>Mg=tonelada</t>
   </si>
   <si>
@@ -550,6 +549,192 @@
   </si>
   <si>
     <t>carbon</t>
+  </si>
+  <si>
+    <t>planta_n</t>
+  </si>
+  <si>
+    <t>tecnologia</t>
+  </si>
+  <si>
+    <t>ubicacion</t>
+  </si>
+  <si>
+    <t>potencia_neta_mw</t>
+  </si>
+  <si>
+    <t>eficiencia</t>
+  </si>
+  <si>
+    <t>costo_variable_nc</t>
+  </si>
+  <si>
+    <t>disponibilidad</t>
+  </si>
+  <si>
+    <t>costo_variable_t</t>
+  </si>
+  <si>
+    <t>costo_var_comb_16_usd_mwh</t>
+  </si>
+  <si>
+    <t>ED_MP_kg_ton</t>
+  </si>
+  <si>
+    <t>ED_SOx_kg_ton</t>
+  </si>
+  <si>
+    <t>ED_NOx_kg_ton</t>
+  </si>
+  <si>
+    <t>ED_CO2_kg_ton</t>
+  </si>
+  <si>
+    <t>CS_MP_USD_ton</t>
+  </si>
+  <si>
+    <t>CS_SOx_USD_ton</t>
+  </si>
+  <si>
+    <t>CS_NOx_USD_ton</t>
+  </si>
+  <si>
+    <t>CS_CO2_USD_ton</t>
+  </si>
+  <si>
+    <t>planta_1</t>
+  </si>
+  <si>
+    <t>biomasa</t>
+  </si>
+  <si>
+    <t>itahue</t>
+  </si>
+  <si>
+    <t>planta_2</t>
+  </si>
+  <si>
+    <t>charrua</t>
+  </si>
+  <si>
+    <t>planta_3</t>
+  </si>
+  <si>
+    <t>huasco</t>
+  </si>
+  <si>
+    <t>planta_4</t>
+  </si>
+  <si>
+    <t>quillota</t>
+  </si>
+  <si>
+    <t>planta_5</t>
+  </si>
+  <si>
+    <t>coronel</t>
+  </si>
+  <si>
+    <t>planta_6</t>
+  </si>
+  <si>
+    <t>planta_7</t>
+  </si>
+  <si>
+    <t>petroleo_diesel</t>
+  </si>
+  <si>
+    <t>diego_de_almagro</t>
+  </si>
+  <si>
+    <t>planta_8</t>
+  </si>
+  <si>
+    <t>cardones</t>
+  </si>
+  <si>
+    <t>planta_9</t>
+  </si>
+  <si>
+    <t>los_vilos</t>
+  </si>
+  <si>
+    <t>planta_10</t>
+  </si>
+  <si>
+    <t>planta_11</t>
+  </si>
+  <si>
+    <t>pan_de_azucar</t>
+  </si>
+  <si>
+    <t>planta_12</t>
+  </si>
+  <si>
+    <t>planta_13</t>
+  </si>
+  <si>
+    <t>valparaiso</t>
+  </si>
+  <si>
+    <t>planta_14</t>
+  </si>
+  <si>
+    <t>planta_15</t>
+  </si>
+  <si>
+    <t>planta_16</t>
+  </si>
+  <si>
+    <t>planta_17</t>
+  </si>
+  <si>
+    <t>valdivia</t>
+  </si>
+  <si>
+    <t>planta_18</t>
+  </si>
+  <si>
+    <t>puerto_montt</t>
+  </si>
+  <si>
+    <t>planta_19</t>
+  </si>
+  <si>
+    <t>hidro</t>
+  </si>
+  <si>
+    <t>planta_20</t>
+  </si>
+  <si>
+    <t>eolica</t>
+  </si>
+  <si>
+    <t>planta_21</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>inversion_usd_kW_neto</t>
+  </si>
+  <si>
+    <t>vida_util_anos</t>
+  </si>
+  <si>
+    <t>tasa_descuento</t>
+  </si>
+  <si>
+    <t>linea_peaje_usd_MWh</t>
+  </si>
+  <si>
+    <t>cvnc_usd_MWh</t>
+  </si>
+  <si>
+    <t>maxima_restriccion_2030_MW</t>
+  </si>
+  <si>
+    <t>geotermia</t>
   </si>
 </sst>
 </file>
@@ -562,7 +747,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -606,6 +791,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -621,7 +811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -857,12 +1047,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -949,19 +1154,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -974,6 +1172,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1284,8 +1492,8 @@
   </sheetPr>
   <dimension ref="A2:O65540"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1295,6 +1503,7 @@
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
@@ -1329,9 +1538,7 @@
       <c r="J4" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="36" t="s">
-        <v>140</v>
-      </c>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
@@ -1349,9 +1556,7 @@
       <c r="J5" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="36" t="s">
-        <v>141</v>
-      </c>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
@@ -1381,9 +1586,7 @@
       <c r="J6" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="27" t="s">
-        <v>143</v>
-      </c>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I7" s="37"/>
@@ -1470,10 +1673,7 @@
         <f>I10*$O$8</f>
         <v>22.686170212765958</v>
       </c>
-      <c r="K10" s="8">
-        <f>J10*(1+0.1)^(2030-2016)</f>
-        <v>86.150693629389608</v>
-      </c>
+      <c r="K10" s="8"/>
       <c r="N10" t="s">
         <v>43</v>
       </c>
@@ -1508,10 +1708,7 @@
         <f t="shared" ref="J11:J12" si="1">I11*$O$8</f>
         <v>24.371428571428574</v>
       </c>
-      <c r="K11" s="8">
-        <f>J11*(1+0.1)^(2030-2016)</f>
-        <v>92.55045944185855</v>
-      </c>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -1540,10 +1737,7 @@
         <f t="shared" si="1"/>
         <v>22.447368421052634</v>
       </c>
-      <c r="K12" s="8">
-        <f>J12*(1+0.1)^(2030-2016)</f>
-        <v>85.243844222764452</v>
-      </c>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
@@ -1572,10 +1766,7 @@
         <f>I13*O10</f>
         <v>60.123348017621147</v>
       </c>
-      <c r="K13" s="8">
-        <f t="shared" ref="K13:K25" si="2">J13*(1+0.1)^(2030-2016)</f>
-        <v>228.31831404158936</v>
-      </c>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -1604,10 +1795,7 @@
         <f>$O$9*I14</f>
         <v>158.41428571428571</v>
       </c>
-      <c r="K14" s="8">
-        <f t="shared" si="2"/>
-        <v>601.57798637208055</v>
-      </c>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -1633,13 +1821,10 @@
         <v>10.185074626865672</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" ref="J15:J25" si="3">$O$9*I15</f>
+        <f t="shared" ref="J15:J25" si="2">$O$9*I15</f>
         <v>132.40597014925373</v>
       </c>
-      <c r="K15" s="8">
-        <f t="shared" si="2"/>
-        <v>502.81145129606733</v>
-      </c>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -1665,13 +1850,10 @@
         <v>9.5307262569832396</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>123.89944134078212</v>
       </c>
-      <c r="K16" s="8">
-        <f t="shared" si="2"/>
-        <v>470.50792230218588</v>
-      </c>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -1697,13 +1879,10 @@
         <v>15.438914027149321</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200.70588235294119</v>
       </c>
-      <c r="K17" s="8">
-        <f t="shared" si="2"/>
-        <v>762.18025422707046</v>
-      </c>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
@@ -1729,13 +1908,10 @@
         <v>11.15032679738562</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>144.95424836601308</v>
       </c>
-      <c r="K18" s="8">
-        <f t="shared" si="2"/>
-        <v>550.46351694177304</v>
-      </c>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
@@ -1761,13 +1937,10 @@
         <v>8.3832923832923836</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>108.98280098280098</v>
       </c>
-      <c r="K19" s="8">
-        <f t="shared" si="2"/>
-        <v>413.86200536654189</v>
-      </c>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -1793,13 +1966,10 @@
         <v>16.725490196078432</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>217.43137254901961</v>
       </c>
-      <c r="K20" s="8">
-        <f t="shared" si="2"/>
-        <v>825.69527541265961</v>
-      </c>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -1825,13 +1995,10 @@
         <v>12.185714285714285</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>158.41428571428571</v>
       </c>
-      <c r="K21" s="8">
-        <f t="shared" si="2"/>
-        <v>601.57798637208055</v>
-      </c>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
@@ -1857,13 +2024,10 @@
         <v>12.273381294964029</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>159.55395683453239</v>
       </c>
-      <c r="K22" s="8">
-        <f t="shared" si="2"/>
-        <v>605.90588555461352</v>
-      </c>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
@@ -1889,13 +2053,10 @@
         <v>9.5041782729805018</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>123.55431754874652</v>
       </c>
-      <c r="K23" s="8">
-        <f t="shared" si="2"/>
-        <v>469.19731527627454</v>
-      </c>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
@@ -1921,13 +2082,10 @@
         <v>11.527027027027026</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>149.85135135135135</v>
       </c>
-      <c r="K24" s="8">
-        <f t="shared" si="2"/>
-        <v>569.06025737899517</v>
-      </c>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
@@ -1953,13 +2111,10 @@
         <v>9.4515235457063707</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>122.86980609418282</v>
       </c>
-      <c r="K25" s="8">
-        <f t="shared" si="2"/>
-        <v>466.59788416671063</v>
-      </c>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -2267,11 +2422,11 @@
       </c>
       <c r="K48" s="3"/>
       <c r="L48">
-        <f t="shared" ref="L48:L54" si="4">$K$3/(H48*1000)</f>
+        <f t="shared" ref="L48:L54" si="3">$K$3/(H48*1000)</f>
         <v>8.9789473684210535</v>
       </c>
       <c r="M48">
-        <f t="shared" ref="M48:M52" si="5">L48*$O$8</f>
+        <f t="shared" ref="M48:M52" si="4">L48*$O$8</f>
         <v>22.447368421052634</v>
       </c>
     </row>
@@ -2305,11 +2460,11 @@
       </c>
       <c r="K49" s="3"/>
       <c r="L49">
+        <f t="shared" si="3"/>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="4"/>
-        <v>8.9789473684210535</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="5"/>
         <v>22.447368421052634</v>
       </c>
     </row>
@@ -2343,11 +2498,11 @@
       </c>
       <c r="K50" s="3"/>
       <c r="L50">
+        <f t="shared" si="3"/>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="4"/>
-        <v>8.9789473684210535</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="5"/>
         <v>22.447368421052634</v>
       </c>
     </row>
@@ -2381,11 +2536,11 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51">
+        <f t="shared" si="3"/>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="4"/>
-        <v>8.9789473684210535</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="5"/>
         <v>22.447368421052634</v>
       </c>
     </row>
@@ -2419,11 +2574,11 @@
       </c>
       <c r="K52" s="3"/>
       <c r="L52">
+        <f t="shared" si="3"/>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="4"/>
-        <v>8.9789473684210535</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="5"/>
         <v>22.447368421052634</v>
       </c>
     </row>
@@ -2470,7 +2625,7 @@
       </c>
       <c r="K54" s="3"/>
       <c r="L54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.5822222222222226</v>
       </c>
       <c r="M54">
@@ -2579,7 +2734,7 @@
         <v>0.3</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
@@ -2637,7 +2792,7 @@
         <v>0.3</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.2">
@@ -2718,7 +2873,7 @@
         <v>0.1</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" ref="G65:G70" si="6">+G47</f>
+        <f t="shared" ref="G65:G70" si="5">+G47</f>
         <v>10</v>
       </c>
       <c r="H65" s="10">
@@ -2731,7 +2886,7 @@
         <v>0.8</v>
       </c>
       <c r="L65">
-        <f t="shared" ref="L65:L70" si="7">$K$3/(H65*1000)</f>
+        <f t="shared" ref="L65:L70" si="6">$K$3/(H65*1000)</f>
         <v>11.373333333333333</v>
       </c>
       <c r="M65">
@@ -2756,7 +2911,7 @@
         <v>0.1</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H66" s="10">
@@ -2769,11 +2924,11 @@
         <v>0.8</v>
       </c>
       <c r="L66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11.373333333333333</v>
       </c>
       <c r="M66">
-        <f t="shared" ref="M66:M70" si="8">L66*$O$9</f>
+        <f t="shared" ref="M66:M70" si="7">L66*$O$9</f>
         <v>147.85333333333332</v>
       </c>
     </row>
@@ -2794,7 +2949,7 @@
         <v>0.1</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="H67" s="10">
@@ -2807,11 +2962,11 @@
         <v>0.8</v>
       </c>
       <c r="L67">
+        <f t="shared" si="6"/>
+        <v>11.373333333333333</v>
+      </c>
+      <c r="M67">
         <f t="shared" si="7"/>
-        <v>11.373333333333333</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="8"/>
         <v>147.85333333333332</v>
       </c>
     </row>
@@ -2832,7 +2987,7 @@
         <v>0.1</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="H68" s="10">
@@ -2845,11 +3000,11 @@
         <v>0.8</v>
       </c>
       <c r="L68">
+        <f t="shared" si="6"/>
+        <v>11.373333333333333</v>
+      </c>
+      <c r="M68">
         <f t="shared" si="7"/>
-        <v>11.373333333333333</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="8"/>
         <v>147.85333333333332</v>
       </c>
     </row>
@@ -2870,7 +3025,7 @@
         <v>0.1</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H69" s="10">
@@ -2883,11 +3038,11 @@
         <v>0.8</v>
       </c>
       <c r="L69">
+        <f t="shared" si="6"/>
+        <v>11.373333333333333</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="7"/>
-        <v>11.373333333333333</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="8"/>
         <v>147.85333333333332</v>
       </c>
     </row>
@@ -2908,7 +3063,7 @@
         <v>0.1</v>
       </c>
       <c r="G70" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H70" s="10">
@@ -2921,11 +3076,11 @@
         <v>0.8</v>
       </c>
       <c r="L70">
+        <f t="shared" si="6"/>
+        <v>11.373333333333333</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="7"/>
-        <v>11.373333333333333</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="8"/>
         <v>147.85333333333332</v>
       </c>
     </row>
@@ -2936,7 +3091,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -2944,7 +3099,7 @@
         <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E73" s="39"/>
     </row>
@@ -3273,7 +3428,7 @@
   </sheetPr>
   <dimension ref="A2:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -3358,11 +3513,11 @@
         <v>2164.705882352941</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="54" t="s">
-        <v>153</v>
+      <c r="J8" s="51" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -3382,7 +3537,7 @@
         <v>3163.160948187648</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="55">
+      <c r="J9" s="52">
         <v>1000000</v>
       </c>
     </row>
@@ -3403,8 +3558,8 @@
         <v>3163.160948187648</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="56" t="s">
-        <v>154</v>
+      <c r="J10" s="53" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -3455,10 +3610,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="H14" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" s="44"/>
+      <c r="H14" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="55"/>
     </row>
     <row r="15" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
@@ -3466,10 +3621,10 @@
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="43" t="s">
         <v>149</v>
-      </c>
-      <c r="I15" s="45" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
@@ -3477,13 +3632,13 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="50">
+      <c r="G16" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="47">
         <v>1</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="48">
         <f>H16*J9*D35*(1/C18)*C26*(1/1000)</f>
         <v>79.680815196650229</v>
       </c>
@@ -3499,14 +3654,13 @@
       <c r="E17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="52" t="s">
-        <v>152</v>
+      <c r="G17" s="49" t="s">
+        <v>151</v>
       </c>
       <c r="H17" s="42">
         <v>1</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="43">
         <f>H17*J9*D35*(1/C20)*C27*(1/1000)</f>
         <v>61.960311166384507</v>
       </c>
@@ -3520,13 +3674,13 @@
         <v>9120000</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="G18" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="46">
+      <c r="G18" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="44">
         <v>1</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="45">
         <f>H18*J9*D35*(1/D19)*(1/1000)</f>
         <v>132.3056958750023</v>
       </c>
@@ -3539,7 +3693,6 @@
       <c r="D19" s="19">
         <v>6500</v>
       </c>
-      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
@@ -3745,7 +3898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:K90"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -4731,4 +4884,2365 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D231E8EB-4760-4F68-B59A-2454AA3B35F3}">
+  <dimension ref="B3:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="R3" s="56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="57">
+        <v>60</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="57">
+        <v>48.7</v>
+      </c>
+      <c r="J4" s="57">
+        <v>0</v>
+      </c>
+      <c r="K4" s="57">
+        <v>0</v>
+      </c>
+      <c r="L4" s="57">
+        <v>0</v>
+      </c>
+      <c r="M4" s="57">
+        <v>0</v>
+      </c>
+      <c r="N4" s="57">
+        <v>0</v>
+      </c>
+      <c r="O4" s="57">
+        <v>527</v>
+      </c>
+      <c r="P4" s="57">
+        <v>211</v>
+      </c>
+      <c r="Q4" s="57">
+        <v>105</v>
+      </c>
+      <c r="R4" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="57">
+        <v>204</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="57">
+        <v>44.5</v>
+      </c>
+      <c r="J5" s="57">
+        <v>0</v>
+      </c>
+      <c r="K5" s="57">
+        <v>0</v>
+      </c>
+      <c r="L5" s="57">
+        <v>0</v>
+      </c>
+      <c r="M5" s="57">
+        <v>0</v>
+      </c>
+      <c r="N5" s="57">
+        <v>0</v>
+      </c>
+      <c r="O5" s="57">
+        <v>527</v>
+      </c>
+      <c r="P5" s="57">
+        <v>211</v>
+      </c>
+      <c r="Q5" s="57">
+        <v>105</v>
+      </c>
+      <c r="R5" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="57">
+        <v>575</v>
+      </c>
+      <c r="F6" s="57">
+        <v>0.376</v>
+      </c>
+      <c r="G6" s="57">
+        <v>1.9</v>
+      </c>
+      <c r="H6" s="57">
+        <v>0.88</v>
+      </c>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57">
+        <v>22.7</v>
+      </c>
+      <c r="K6" s="57">
+        <v>44.61</v>
+      </c>
+      <c r="L6" s="57">
+        <v>22.8</v>
+      </c>
+      <c r="M6" s="57">
+        <v>16.5</v>
+      </c>
+      <c r="N6" s="57">
+        <v>2385.29</v>
+      </c>
+      <c r="O6" s="57">
+        <v>527</v>
+      </c>
+      <c r="P6" s="57">
+        <v>211</v>
+      </c>
+      <c r="Q6" s="57">
+        <v>105</v>
+      </c>
+      <c r="R6" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="57">
+        <v>812</v>
+      </c>
+      <c r="F7" s="57">
+        <v>0.35</v>
+      </c>
+      <c r="G7" s="57">
+        <v>3.1</v>
+      </c>
+      <c r="H7" s="57">
+        <v>0.88</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
+        <v>24.4</v>
+      </c>
+      <c r="K7" s="57">
+        <v>44.61</v>
+      </c>
+      <c r="L7" s="57">
+        <v>22.8</v>
+      </c>
+      <c r="M7" s="57">
+        <v>16.5</v>
+      </c>
+      <c r="N7" s="57">
+        <v>2385.29</v>
+      </c>
+      <c r="O7" s="57">
+        <v>3161</v>
+      </c>
+      <c r="P7" s="57">
+        <v>1581</v>
+      </c>
+      <c r="Q7" s="57">
+        <v>2107</v>
+      </c>
+      <c r="R7" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="57">
+        <v>806</v>
+      </c>
+      <c r="F8" s="57">
+        <v>0.38</v>
+      </c>
+      <c r="G8" s="57">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H8" s="57">
+        <v>0.87</v>
+      </c>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57">
+        <v>22.4</v>
+      </c>
+      <c r="K8" s="57">
+        <v>44.61</v>
+      </c>
+      <c r="L8" s="57">
+        <v>22.8</v>
+      </c>
+      <c r="M8" s="57">
+        <v>16.5</v>
+      </c>
+      <c r="N8" s="57">
+        <v>2385.29</v>
+      </c>
+      <c r="O8" s="57">
+        <v>3161</v>
+      </c>
+      <c r="P8" s="57">
+        <v>1581</v>
+      </c>
+      <c r="Q8" s="57">
+        <v>2107</v>
+      </c>
+      <c r="R8" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="57">
+        <v>731</v>
+      </c>
+      <c r="F9" s="57">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="G9" s="57">
+        <v>3.4</v>
+      </c>
+      <c r="H9" s="57">
+        <v>0.93</v>
+      </c>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57">
+        <v>60.1</v>
+      </c>
+      <c r="K9" s="57">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="L9" s="57">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M9" s="57">
+        <v>5.59</v>
+      </c>
+      <c r="N9" s="57">
+        <v>2856</v>
+      </c>
+      <c r="O9" s="57">
+        <v>3161</v>
+      </c>
+      <c r="P9" s="57">
+        <v>1581</v>
+      </c>
+      <c r="Q9" s="57">
+        <v>2107</v>
+      </c>
+      <c r="R9" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="57">
+        <v>439</v>
+      </c>
+      <c r="F10" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G10" s="57">
+        <v>11.5</v>
+      </c>
+      <c r="H10" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57">
+        <v>158.4</v>
+      </c>
+      <c r="K10" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L10" s="57">
+        <v>23.08</v>
+      </c>
+      <c r="M10" s="57">
+        <v>1.42</v>
+      </c>
+      <c r="N10" s="57">
+        <v>3163.16</v>
+      </c>
+      <c r="O10" s="57">
+        <v>527</v>
+      </c>
+      <c r="P10" s="57">
+        <v>211</v>
+      </c>
+      <c r="Q10" s="57">
+        <v>105</v>
+      </c>
+      <c r="R10" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="57">
+        <v>169</v>
+      </c>
+      <c r="F11" s="57">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G11" s="57">
+        <v>16.5</v>
+      </c>
+      <c r="H11" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57">
+        <v>132.4</v>
+      </c>
+      <c r="K11" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L11" s="57">
+        <v>23.08</v>
+      </c>
+      <c r="M11" s="57">
+        <v>1.42</v>
+      </c>
+      <c r="N11" s="57">
+        <v>3163.16</v>
+      </c>
+      <c r="O11" s="57">
+        <v>527</v>
+      </c>
+      <c r="P11" s="57">
+        <v>211</v>
+      </c>
+      <c r="Q11" s="57">
+        <v>105</v>
+      </c>
+      <c r="R11" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="57">
+        <v>203</v>
+      </c>
+      <c r="F12" s="57">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G12" s="57">
+        <v>12.5</v>
+      </c>
+      <c r="H12" s="57">
+        <v>0.44</v>
+      </c>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57">
+        <v>123.9</v>
+      </c>
+      <c r="K12" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L12" s="57">
+        <v>23.08</v>
+      </c>
+      <c r="M12" s="57">
+        <v>1.42</v>
+      </c>
+      <c r="N12" s="57">
+        <v>3163.16</v>
+      </c>
+      <c r="O12" s="57">
+        <v>3161</v>
+      </c>
+      <c r="P12" s="57">
+        <v>1581</v>
+      </c>
+      <c r="Q12" s="57">
+        <v>2107</v>
+      </c>
+      <c r="R12" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="57">
+        <v>58</v>
+      </c>
+      <c r="F13" s="57">
+        <v>0.221</v>
+      </c>
+      <c r="G13" s="57">
+        <v>11.6</v>
+      </c>
+      <c r="H13" s="57">
+        <v>0.61</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57">
+        <v>200.7</v>
+      </c>
+      <c r="K13" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L13" s="57">
+        <v>23.08</v>
+      </c>
+      <c r="M13" s="57">
+        <v>1.42</v>
+      </c>
+      <c r="N13" s="57">
+        <v>3163.16</v>
+      </c>
+      <c r="O13" s="57">
+        <v>527</v>
+      </c>
+      <c r="P13" s="57">
+        <v>211</v>
+      </c>
+      <c r="Q13" s="57">
+        <v>105</v>
+      </c>
+      <c r="R13" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="57">
+        <v>97</v>
+      </c>
+      <c r="F14" s="57">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G14" s="57">
+        <v>24</v>
+      </c>
+      <c r="H14" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57">
+        <v>145</v>
+      </c>
+      <c r="K14" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L14" s="57">
+        <v>23.08</v>
+      </c>
+      <c r="M14" s="57">
+        <v>1.42</v>
+      </c>
+      <c r="N14" s="57">
+        <v>3163.16</v>
+      </c>
+      <c r="O14" s="57">
+        <v>527</v>
+      </c>
+      <c r="P14" s="57">
+        <v>211</v>
+      </c>
+      <c r="Q14" s="57">
+        <v>105</v>
+      </c>
+      <c r="R14" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="57">
+        <v>700</v>
+      </c>
+      <c r="F15" s="57">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="G15" s="57">
+        <v>5.9</v>
+      </c>
+      <c r="H15" s="57">
+        <v>0.92</v>
+      </c>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57">
+        <v>109</v>
+      </c>
+      <c r="K15" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L15" s="57">
+        <v>23.08</v>
+      </c>
+      <c r="M15" s="57">
+        <v>1.42</v>
+      </c>
+      <c r="N15" s="57">
+        <v>3163.16</v>
+      </c>
+      <c r="O15" s="57">
+        <v>3161</v>
+      </c>
+      <c r="P15" s="57">
+        <v>1581</v>
+      </c>
+      <c r="Q15" s="57">
+        <v>2107</v>
+      </c>
+      <c r="R15" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="57">
+        <v>71</v>
+      </c>
+      <c r="F16" s="57">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="G16" s="57">
+        <v>6.1</v>
+      </c>
+      <c r="H16" s="57">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57">
+        <v>217.4</v>
+      </c>
+      <c r="K16" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L16" s="57">
+        <v>23.08</v>
+      </c>
+      <c r="M16" s="57">
+        <v>1.42</v>
+      </c>
+      <c r="N16" s="57">
+        <v>3163.16</v>
+      </c>
+      <c r="O16" s="57">
+        <v>3161</v>
+      </c>
+      <c r="P16" s="57">
+        <v>1581</v>
+      </c>
+      <c r="Q16" s="57">
+        <v>2107</v>
+      </c>
+      <c r="R16" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="57">
+        <v>368</v>
+      </c>
+      <c r="F17" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G17" s="57">
+        <v>3.7</v>
+      </c>
+      <c r="H17" s="57">
+        <v>0.91</v>
+      </c>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57">
+        <v>158.4</v>
+      </c>
+      <c r="K17" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L17" s="57">
+        <v>23.08</v>
+      </c>
+      <c r="M17" s="57">
+        <v>1.42</v>
+      </c>
+      <c r="N17" s="57">
+        <v>3163.16</v>
+      </c>
+      <c r="O17" s="57">
+        <v>3161</v>
+      </c>
+      <c r="P17" s="57">
+        <v>1581</v>
+      </c>
+      <c r="Q17" s="57">
+        <v>2107</v>
+      </c>
+      <c r="R17" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="57">
+        <v>134</v>
+      </c>
+      <c r="F18" s="57">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G18" s="57">
+        <v>14.6</v>
+      </c>
+      <c r="H18" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57">
+        <v>159.6</v>
+      </c>
+      <c r="K18" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L18" s="57">
+        <v>23.08</v>
+      </c>
+      <c r="M18" s="57">
+        <v>1.42</v>
+      </c>
+      <c r="N18" s="57">
+        <v>3163.16</v>
+      </c>
+      <c r="O18" s="57">
+        <v>527</v>
+      </c>
+      <c r="P18" s="57">
+        <v>211</v>
+      </c>
+      <c r="Q18" s="57">
+        <v>105</v>
+      </c>
+      <c r="R18" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="57">
+        <v>1043</v>
+      </c>
+      <c r="F19" s="57">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="G19" s="57">
+        <v>8.6</v>
+      </c>
+      <c r="H19" s="57">
+        <v>0.92</v>
+      </c>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57">
+        <v>123.6</v>
+      </c>
+      <c r="K19" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L19" s="57">
+        <v>23.08</v>
+      </c>
+      <c r="M19" s="57">
+        <v>1.42</v>
+      </c>
+      <c r="N19" s="57">
+        <v>3163.16</v>
+      </c>
+      <c r="O19" s="57">
+        <v>527</v>
+      </c>
+      <c r="P19" s="57">
+        <v>211</v>
+      </c>
+      <c r="Q19" s="57">
+        <v>105</v>
+      </c>
+      <c r="R19" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="57">
+        <v>135</v>
+      </c>
+      <c r="F20" s="57">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G20" s="57">
+        <v>3.6</v>
+      </c>
+      <c r="H20" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57">
+        <v>149.9</v>
+      </c>
+      <c r="K20" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L20" s="57">
+        <v>23.08</v>
+      </c>
+      <c r="M20" s="57">
+        <v>1.42</v>
+      </c>
+      <c r="N20" s="57">
+        <v>3163.16</v>
+      </c>
+      <c r="O20" s="57">
+        <v>527</v>
+      </c>
+      <c r="P20" s="57">
+        <v>211</v>
+      </c>
+      <c r="Q20" s="57">
+        <v>105</v>
+      </c>
+      <c r="R20" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="57">
+        <v>139</v>
+      </c>
+      <c r="F21" s="57">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G21" s="57">
+        <v>21</v>
+      </c>
+      <c r="H21" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57">
+        <v>122.9</v>
+      </c>
+      <c r="K21" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L21" s="57">
+        <v>23.08</v>
+      </c>
+      <c r="M21" s="57">
+        <v>1.42</v>
+      </c>
+      <c r="N21" s="57">
+        <v>3163.16</v>
+      </c>
+      <c r="O21" s="57">
+        <v>527</v>
+      </c>
+      <c r="P21" s="57">
+        <v>211</v>
+      </c>
+      <c r="Q21" s="57">
+        <v>105</v>
+      </c>
+      <c r="R21" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="57">
+        <v>5571</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57">
+        <v>0</v>
+      </c>
+      <c r="L22" s="57">
+        <v>0</v>
+      </c>
+      <c r="M22" s="57">
+        <v>0</v>
+      </c>
+      <c r="N22" s="57">
+        <v>0</v>
+      </c>
+      <c r="O22" s="57">
+        <v>527</v>
+      </c>
+      <c r="P22" s="57">
+        <v>211</v>
+      </c>
+      <c r="Q22" s="57">
+        <v>105</v>
+      </c>
+      <c r="R22" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="57">
+        <v>192</v>
+      </c>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57">
+        <v>10</v>
+      </c>
+      <c r="H23" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57">
+        <v>0</v>
+      </c>
+      <c r="L23" s="57">
+        <v>0</v>
+      </c>
+      <c r="M23" s="57">
+        <v>0</v>
+      </c>
+      <c r="N23" s="57">
+        <v>0</v>
+      </c>
+      <c r="O23" s="57">
+        <v>3161</v>
+      </c>
+      <c r="P23" s="57">
+        <v>1581</v>
+      </c>
+      <c r="Q23" s="57">
+        <v>2107</v>
+      </c>
+      <c r="R23" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="57">
+        <v>200</v>
+      </c>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57">
+        <v>10</v>
+      </c>
+      <c r="H24" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57">
+        <v>0</v>
+      </c>
+      <c r="L24" s="57">
+        <v>0</v>
+      </c>
+      <c r="M24" s="57">
+        <v>0</v>
+      </c>
+      <c r="N24" s="57">
+        <v>0</v>
+      </c>
+      <c r="O24" s="57">
+        <v>527</v>
+      </c>
+      <c r="P24" s="57">
+        <v>211</v>
+      </c>
+      <c r="Q24" s="57">
+        <v>105</v>
+      </c>
+      <c r="R24" s="57">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA9779-DDC7-491D-BAB4-82C721E83E69}">
+  <dimension ref="B3:U23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="T3" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4">
+        <v>2300</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>0.38</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0.88</v>
+      </c>
+      <c r="M4">
+        <v>22.44736842</v>
+      </c>
+      <c r="N4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="P4">
+        <v>3.6</v>
+      </c>
+      <c r="Q4">
+        <v>2164.71</v>
+      </c>
+      <c r="R4">
+        <v>527</v>
+      </c>
+      <c r="S4">
+        <v>211</v>
+      </c>
+      <c r="T4">
+        <v>105</v>
+      </c>
+      <c r="U4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5">
+        <v>2300</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>0.38</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0.88</v>
+      </c>
+      <c r="M5">
+        <v>22.44736842</v>
+      </c>
+      <c r="N5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="P5">
+        <v>3.6</v>
+      </c>
+      <c r="Q5">
+        <v>2164.71</v>
+      </c>
+      <c r="R5">
+        <v>527</v>
+      </c>
+      <c r="S5">
+        <v>211</v>
+      </c>
+      <c r="T5">
+        <v>105</v>
+      </c>
+      <c r="U5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <v>2300</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>0.3</v>
+      </c>
+      <c r="I6">
+        <v>0.38</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0.88</v>
+      </c>
+      <c r="M6">
+        <v>22.44736842</v>
+      </c>
+      <c r="N6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="P6">
+        <v>3.6</v>
+      </c>
+      <c r="Q6">
+        <v>2164.71</v>
+      </c>
+      <c r="R6">
+        <v>3161</v>
+      </c>
+      <c r="S6">
+        <v>1581</v>
+      </c>
+      <c r="T6">
+        <v>2107</v>
+      </c>
+      <c r="U6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>2300</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0.3</v>
+      </c>
+      <c r="I7">
+        <v>0.38</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0.88</v>
+      </c>
+      <c r="M7">
+        <v>22.44736842</v>
+      </c>
+      <c r="N7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O7">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="P7">
+        <v>3.6</v>
+      </c>
+      <c r="Q7">
+        <v>2164.71</v>
+      </c>
+      <c r="R7">
+        <v>3161</v>
+      </c>
+      <c r="S7">
+        <v>1581</v>
+      </c>
+      <c r="T7">
+        <v>2107</v>
+      </c>
+      <c r="U7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8">
+        <v>2300</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>0.38</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0.88</v>
+      </c>
+      <c r="M8">
+        <v>22.44736842</v>
+      </c>
+      <c r="N8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O8">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="P8">
+        <v>3.6</v>
+      </c>
+      <c r="Q8">
+        <v>2164.71</v>
+      </c>
+      <c r="R8">
+        <v>3161</v>
+      </c>
+      <c r="S8">
+        <v>1581</v>
+      </c>
+      <c r="T8">
+        <v>2107</v>
+      </c>
+      <c r="U8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9">
+        <v>2300</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>0.38</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0.88</v>
+      </c>
+      <c r="M9">
+        <v>22.44736842</v>
+      </c>
+      <c r="N9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O9">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="P9">
+        <v>3.6</v>
+      </c>
+      <c r="Q9">
+        <v>2164.71</v>
+      </c>
+      <c r="R9">
+        <v>527</v>
+      </c>
+      <c r="S9">
+        <v>211</v>
+      </c>
+      <c r="T9">
+        <v>105</v>
+      </c>
+      <c r="U9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>0.3</v>
+      </c>
+      <c r="I10">
+        <v>0.45</v>
+      </c>
+      <c r="J10">
+        <v>3.4</v>
+      </c>
+      <c r="K10">
+        <v>0.93</v>
+      </c>
+      <c r="M10">
+        <v>60.657777780000004</v>
+      </c>
+      <c r="N10">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="O10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P10">
+        <v>5.59</v>
+      </c>
+      <c r="Q10">
+        <v>2856</v>
+      </c>
+      <c r="R10">
+        <v>3161</v>
+      </c>
+      <c r="S10">
+        <v>1581</v>
+      </c>
+      <c r="T10">
+        <v>2107</v>
+      </c>
+      <c r="U10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11">
+        <v>3000</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.6</v>
+      </c>
+      <c r="L11">
+        <v>1500</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>527</v>
+      </c>
+      <c r="S11">
+        <v>211</v>
+      </c>
+      <c r="T11">
+        <v>105</v>
+      </c>
+      <c r="U11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12">
+        <v>1800</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>0.35</v>
+      </c>
+      <c r="L12">
+        <v>500</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>527</v>
+      </c>
+      <c r="S12">
+        <v>211</v>
+      </c>
+      <c r="T12">
+        <v>105</v>
+      </c>
+      <c r="U12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13">
+        <v>1800</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>0.3</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>527</v>
+      </c>
+      <c r="S13">
+        <v>211</v>
+      </c>
+      <c r="T13">
+        <v>105</v>
+      </c>
+      <c r="U13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14">
+        <v>1500</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>0.35</v>
+      </c>
+      <c r="L14">
+        <v>500</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>527</v>
+      </c>
+      <c r="S14">
+        <v>211</v>
+      </c>
+      <c r="T14">
+        <v>105</v>
+      </c>
+      <c r="U14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15">
+        <v>1500</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>0.3</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>527</v>
+      </c>
+      <c r="S15">
+        <v>211</v>
+      </c>
+      <c r="T15">
+        <v>105</v>
+      </c>
+      <c r="U15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16">
+        <v>4000</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>0.8</v>
+      </c>
+      <c r="L16">
+        <v>200</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>527</v>
+      </c>
+      <c r="S16">
+        <v>211</v>
+      </c>
+      <c r="T16">
+        <v>105</v>
+      </c>
+      <c r="U16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17">
+        <v>3000</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.6</v>
+      </c>
+      <c r="L17">
+        <v>500</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>527</v>
+      </c>
+      <c r="S17">
+        <v>211</v>
+      </c>
+      <c r="T17">
+        <v>105</v>
+      </c>
+      <c r="U17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18">
+        <v>700</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>0.3</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>0.8</v>
+      </c>
+      <c r="M18">
+        <v>147.8533333</v>
+      </c>
+      <c r="N18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O18">
+        <v>23.08</v>
+      </c>
+      <c r="P18">
+        <v>1.42</v>
+      </c>
+      <c r="Q18">
+        <v>3163.16</v>
+      </c>
+      <c r="R18">
+        <v>527</v>
+      </c>
+      <c r="S18">
+        <v>211</v>
+      </c>
+      <c r="T18">
+        <v>105</v>
+      </c>
+      <c r="U18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19">
+        <v>700</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>0.3</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <v>0.8</v>
+      </c>
+      <c r="M19">
+        <v>147.8533333</v>
+      </c>
+      <c r="N19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O19">
+        <v>23.08</v>
+      </c>
+      <c r="P19">
+        <v>1.42</v>
+      </c>
+      <c r="Q19">
+        <v>3163.16</v>
+      </c>
+      <c r="R19">
+        <v>527</v>
+      </c>
+      <c r="S19">
+        <v>211</v>
+      </c>
+      <c r="T19">
+        <v>105</v>
+      </c>
+      <c r="U19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20">
+        <v>700</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.3</v>
+      </c>
+      <c r="I20">
+        <v>0.3</v>
+      </c>
+      <c r="J20">
+        <v>12</v>
+      </c>
+      <c r="K20">
+        <v>0.8</v>
+      </c>
+      <c r="M20">
+        <v>147.8533333</v>
+      </c>
+      <c r="N20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O20">
+        <v>23.08</v>
+      </c>
+      <c r="P20">
+        <v>1.42</v>
+      </c>
+      <c r="Q20">
+        <v>3163.16</v>
+      </c>
+      <c r="R20">
+        <v>3161</v>
+      </c>
+      <c r="S20">
+        <v>1581</v>
+      </c>
+      <c r="T20">
+        <v>2107</v>
+      </c>
+      <c r="U20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>700</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.3</v>
+      </c>
+      <c r="I21">
+        <v>0.3</v>
+      </c>
+      <c r="J21">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <v>0.8</v>
+      </c>
+      <c r="M21">
+        <v>147.8533333</v>
+      </c>
+      <c r="N21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O21">
+        <v>23.08</v>
+      </c>
+      <c r="P21">
+        <v>1.42</v>
+      </c>
+      <c r="Q21">
+        <v>3163.16</v>
+      </c>
+      <c r="R21">
+        <v>3161</v>
+      </c>
+      <c r="S21">
+        <v>1581</v>
+      </c>
+      <c r="T21">
+        <v>2107</v>
+      </c>
+      <c r="U21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22">
+        <v>700</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>0.3</v>
+      </c>
+      <c r="J22">
+        <v>12</v>
+      </c>
+      <c r="K22">
+        <v>0.8</v>
+      </c>
+      <c r="M22">
+        <v>147.8533333</v>
+      </c>
+      <c r="N22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O22">
+        <v>23.08</v>
+      </c>
+      <c r="P22">
+        <v>1.42</v>
+      </c>
+      <c r="Q22">
+        <v>3163.16</v>
+      </c>
+      <c r="R22">
+        <v>3161</v>
+      </c>
+      <c r="S22">
+        <v>1581</v>
+      </c>
+      <c r="T22">
+        <v>2107</v>
+      </c>
+      <c r="U22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23">
+        <v>700</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>0.3</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>0.8</v>
+      </c>
+      <c r="M23">
+        <v>147.8533333</v>
+      </c>
+      <c r="N23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O23">
+        <v>23.08</v>
+      </c>
+      <c r="P23">
+        <v>1.42</v>
+      </c>
+      <c r="Q23">
+        <v>3163.16</v>
+      </c>
+      <c r="R23">
+        <v>527</v>
+      </c>
+      <c r="S23">
+        <v>211</v>
+      </c>
+      <c r="T23">
+        <v>105</v>
+      </c>
+      <c r="U23">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/T1/Datos.xlsx
+++ b/T1/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Econo_Med\Tareas_Economed\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A8675-86C6-41A8-8B56-DC957F924E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C99AF2E-4529-496A-9DC2-E49BF42E53F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="733" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="733" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centrales" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Abatimiento" sheetId="6" r:id="rId6"/>
     <sheet name="centrales_ex_ED_CS" sheetId="7" r:id="rId7"/>
     <sheet name="centrales_n_ED_CS" sheetId="8" r:id="rId8"/>
+    <sheet name="Combinaciones" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="232">
   <si>
     <t>Potencia</t>
   </si>
@@ -735,6 +736,51 @@
   </si>
   <si>
     <t>geotermia</t>
+  </si>
+  <si>
+    <t>Combinaciones</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Sox</t>
+  </si>
+  <si>
+    <t>Nox</t>
+  </si>
+  <si>
+    <t>nox-1</t>
+  </si>
+  <si>
+    <t>nox-2</t>
+  </si>
+  <si>
+    <t>nox-3</t>
+  </si>
+  <si>
+    <t>sox-1</t>
+  </si>
+  <si>
+    <t>sox-2</t>
+  </si>
+  <si>
+    <t>sox-3</t>
+  </si>
+  <si>
+    <t>mp-1</t>
+  </si>
+  <si>
+    <t>mp-2</t>
+  </si>
+  <si>
+    <t>mp-3</t>
+  </si>
+  <si>
+    <t>Costo Variable Total</t>
+  </si>
+  <si>
+    <t>costos vasriables totales</t>
   </si>
 </sst>
 </file>
@@ -797,7 +843,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,8 +856,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1062,12 +1114,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1087,7 +1176,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1101,7 +1189,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1172,16 +1259,44 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1492,8 +1607,8 @@
   </sheetPr>
   <dimension ref="A2:O65540"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1501,25 +1616,27 @@
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="16">
         <v>3412</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1535,12 +1652,12 @@
       <c r="H4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="36"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1553,13 +1670,15 @@
       <c r="I5" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="36"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
+      <c r="K5" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1571,47 +1690,58 @@
       <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="21" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="21" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="O7" s="27" t="s">
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="O7" s="25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="61">
+        <v>1</v>
+      </c>
+      <c r="B8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="63">
         <v>60</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64">
         <v>0.9</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="64">
+        <v>48.7</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="64">
+        <f>J8+H8+F8</f>
         <v>48.7</v>
       </c>
       <c r="N8" t="s">
@@ -1621,59 +1751,75 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="61">
+        <v>2</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="63">
         <v>204</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64">
         <v>0.9</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="64">
         <v>44.5</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="64">
+        <f t="shared" ref="K9:K29" si="0">J9+H9+F9</f>
+        <v>44.5</v>
+      </c>
+      <c r="N9" s="24" t="s">
         <v>135</v>
       </c>
       <c r="O9" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="61">
+        <v>3</v>
+      </c>
+      <c r="B10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="63">
         <v>575</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="65">
         <v>0.376</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="64">
         <v>1.9</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="66">
         <v>0.88</v>
       </c>
-      <c r="I10" s="8">
+      <c r="H10" s="62"/>
+      <c r="I10" s="64">
         <f>$K$3/(E10*1000)</f>
         <v>9.0744680851063837</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="64">
         <f>I10*$O$8</f>
         <v>22.686170212765958</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="64">
+        <f t="shared" si="0"/>
+        <v>24.586170212765957</v>
+      </c>
       <c r="N10" t="s">
         <v>43</v>
       </c>
@@ -1681,523 +1827,672 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="61">
+        <v>4</v>
+      </c>
+      <c r="B11" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="63">
         <v>812</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="65">
         <v>0.35</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="64">
         <v>3.1</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="66">
         <v>0.88</v>
       </c>
-      <c r="I11" s="8">
-        <f t="shared" ref="I11:I25" si="0">$K$3/(E11*1000)</f>
+      <c r="H11" s="62"/>
+      <c r="I11" s="64">
+        <f t="shared" ref="I11:I25" si="1">$K$3/(E11*1000)</f>
         <v>9.7485714285714291</v>
       </c>
-      <c r="J11" s="8">
-        <f t="shared" ref="J11:J12" si="1">I11*$O$8</f>
+      <c r="J11" s="64">
+        <f t="shared" ref="J11:J12" si="2">I11*$O$8</f>
         <v>24.371428571428574</v>
       </c>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="K11" s="64">
+        <f t="shared" si="0"/>
+        <v>27.471428571428575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="61">
+        <v>5</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="63">
         <v>806</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="65">
         <v>0.38</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="64">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="66">
         <v>0.87</v>
       </c>
-      <c r="I12" s="8">
+      <c r="H12" s="62"/>
+      <c r="I12" s="64">
+        <f t="shared" si="1"/>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="J12" s="64">
+        <f t="shared" si="2"/>
+        <v>22.447368421052634</v>
+      </c>
+      <c r="K12" s="64">
         <f t="shared" si="0"/>
-        <v>8.9789473684210535</v>
-      </c>
-      <c r="J12" s="8">
+        <v>26.547368421052632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="61">
+        <v>6</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="63">
+        <v>731</v>
+      </c>
+      <c r="E13" s="65">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="F13" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="G13" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="H13" s="62"/>
+      <c r="I13" s="64">
         <f t="shared" si="1"/>
-        <v>22.447368421052634</v>
-      </c>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="7">
-        <v>731</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3.4</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
         <v>7.5154185022026434</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="64">
         <f>I13*O10</f>
         <v>60.123348017621147</v>
       </c>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="K13" s="64">
+        <f t="shared" si="0"/>
+        <v>63.523348017621146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="61">
+        <v>7</v>
+      </c>
+      <c r="B14" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="63">
         <v>439</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="65">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="64">
         <v>11.5</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="66">
         <v>0.9</v>
       </c>
-      <c r="I14" s="8">
-        <f t="shared" si="0"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="64">
+        <f t="shared" si="1"/>
         <v>12.185714285714285</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="64">
         <f>$O$9*I14</f>
         <v>158.41428571428571</v>
       </c>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="K14" s="64">
+        <f t="shared" si="0"/>
+        <v>169.91428571428571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="61">
+        <v>8</v>
+      </c>
+      <c r="B15" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="63">
         <v>169</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="65">
         <v>0.33500000000000002</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="64">
         <v>16.5</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="66">
         <v>0.9</v>
       </c>
-      <c r="I15" s="8">
+      <c r="H15" s="62"/>
+      <c r="I15" s="64">
+        <f t="shared" si="1"/>
+        <v>10.185074626865672</v>
+      </c>
+      <c r="J15" s="64">
+        <f t="shared" ref="J15:J25" si="3">$O$9*I15</f>
+        <v>132.40597014925373</v>
+      </c>
+      <c r="K15" s="64">
         <f t="shared" si="0"/>
-        <v>10.185074626865672</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" ref="J15:J25" si="2">$O$9*I15</f>
-        <v>132.40597014925373</v>
-      </c>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+        <v>148.90597014925373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="61">
+        <v>9</v>
+      </c>
+      <c r="B16" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="63">
         <v>203</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="65">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="64">
         <v>12.5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="66">
         <v>0.44</v>
       </c>
-      <c r="I16" s="8">
+      <c r="H16" s="62"/>
+      <c r="I16" s="64">
+        <f t="shared" si="1"/>
+        <v>9.5307262569832396</v>
+      </c>
+      <c r="J16" s="64">
+        <f t="shared" si="3"/>
+        <v>123.89944134078212</v>
+      </c>
+      <c r="K16" s="64">
         <f t="shared" si="0"/>
-        <v>9.5307262569832396</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="2"/>
-        <v>123.89944134078212</v>
-      </c>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+        <v>136.39944134078212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="61">
+        <v>10</v>
+      </c>
+      <c r="B17" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="63">
         <v>58</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="65">
         <v>0.221</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="64">
         <v>11.6</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="66">
         <v>0.61</v>
       </c>
-      <c r="I17" s="8">
+      <c r="H17" s="62"/>
+      <c r="I17" s="64">
+        <f t="shared" si="1"/>
+        <v>15.438914027149321</v>
+      </c>
+      <c r="J17" s="64">
+        <f t="shared" si="3"/>
+        <v>200.70588235294119</v>
+      </c>
+      <c r="K17" s="64">
         <f t="shared" si="0"/>
-        <v>15.438914027149321</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="2"/>
-        <v>200.70588235294119</v>
-      </c>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+        <v>212.30588235294118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="61">
+        <v>11</v>
+      </c>
+      <c r="B18" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="63">
         <v>97</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="65">
         <v>0.30599999999999999</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="64">
         <v>24</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="66">
         <v>0.9</v>
       </c>
-      <c r="I18" s="8">
+      <c r="H18" s="62"/>
+      <c r="I18" s="64">
+        <f t="shared" si="1"/>
+        <v>11.15032679738562</v>
+      </c>
+      <c r="J18" s="64">
+        <f t="shared" si="3"/>
+        <v>144.95424836601308</v>
+      </c>
+      <c r="K18" s="64">
         <f t="shared" si="0"/>
-        <v>11.15032679738562</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="2"/>
-        <v>144.95424836601308</v>
-      </c>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+        <v>168.95424836601308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="61">
+        <v>12</v>
+      </c>
+      <c r="B19" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="63">
         <v>700</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="65">
         <v>0.40699999999999997</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="64">
         <v>5.9</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="66">
         <v>0.92</v>
       </c>
-      <c r="I19" s="8">
+      <c r="H19" s="62"/>
+      <c r="I19" s="64">
+        <f t="shared" si="1"/>
+        <v>8.3832923832923836</v>
+      </c>
+      <c r="J19" s="64">
+        <f t="shared" si="3"/>
+        <v>108.98280098280098</v>
+      </c>
+      <c r="K19" s="64">
         <f t="shared" si="0"/>
-        <v>8.3832923832923836</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="2"/>
-        <v>108.98280098280098</v>
-      </c>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+        <v>114.88280098280099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="61">
+        <v>13</v>
+      </c>
+      <c r="B20" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="63">
         <v>71</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="65">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="64">
         <v>6.1</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="66">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I20" s="8">
+      <c r="H20" s="62"/>
+      <c r="I20" s="64">
+        <f t="shared" si="1"/>
+        <v>16.725490196078432</v>
+      </c>
+      <c r="J20" s="64">
+        <f t="shared" si="3"/>
+        <v>217.43137254901961</v>
+      </c>
+      <c r="K20" s="64">
         <f t="shared" si="0"/>
-        <v>16.725490196078432</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="2"/>
-        <v>217.43137254901961</v>
-      </c>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+        <v>223.53137254901961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="61">
+        <v>14</v>
+      </c>
+      <c r="B21" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="63">
         <v>368</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="65">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="64">
         <v>3.7</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="66">
         <v>0.91</v>
       </c>
-      <c r="I21" s="8">
+      <c r="H21" s="62"/>
+      <c r="I21" s="64">
+        <f t="shared" si="1"/>
+        <v>12.185714285714285</v>
+      </c>
+      <c r="J21" s="64">
+        <f t="shared" si="3"/>
+        <v>158.41428571428571</v>
+      </c>
+      <c r="K21" s="64">
         <f t="shared" si="0"/>
-        <v>12.185714285714285</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="2"/>
-        <v>158.41428571428571</v>
-      </c>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+        <v>162.1142857142857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="61">
+        <v>15</v>
+      </c>
+      <c r="B22" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="63">
         <v>134</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="65">
         <v>0.27800000000000002</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="64">
         <v>14.6</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="66">
         <v>0.9</v>
       </c>
-      <c r="I22" s="8">
+      <c r="H22" s="62"/>
+      <c r="I22" s="64">
+        <f t="shared" si="1"/>
+        <v>12.273381294964029</v>
+      </c>
+      <c r="J22" s="64">
+        <f t="shared" si="3"/>
+        <v>159.55395683453239</v>
+      </c>
+      <c r="K22" s="64">
         <f t="shared" si="0"/>
-        <v>12.273381294964029</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="2"/>
-        <v>159.55395683453239</v>
-      </c>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+        <v>174.15395683453238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="61">
+        <v>16</v>
+      </c>
+      <c r="B23" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="63">
         <v>1043</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="65">
         <v>0.35899999999999999</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="64">
         <v>8.6</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="66">
         <v>0.92</v>
       </c>
-      <c r="I23" s="8">
+      <c r="H23" s="62"/>
+      <c r="I23" s="64">
+        <f t="shared" si="1"/>
+        <v>9.5041782729805018</v>
+      </c>
+      <c r="J23" s="64">
+        <f t="shared" si="3"/>
+        <v>123.55431754874652</v>
+      </c>
+      <c r="K23" s="64">
         <f t="shared" si="0"/>
-        <v>9.5041782729805018</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="2"/>
-        <v>123.55431754874652</v>
-      </c>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+        <v>132.15431754874652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="61">
+        <v>17</v>
+      </c>
+      <c r="B24" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="63">
         <v>135</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="65">
         <v>0.29599999999999999</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="64">
         <v>3.6</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="66">
         <v>0.9</v>
       </c>
-      <c r="I24" s="8">
+      <c r="H24" s="62"/>
+      <c r="I24" s="64">
+        <f t="shared" si="1"/>
+        <v>11.527027027027026</v>
+      </c>
+      <c r="J24" s="64">
+        <f t="shared" si="3"/>
+        <v>149.85135135135135</v>
+      </c>
+      <c r="K24" s="64">
         <f t="shared" si="0"/>
-        <v>11.527027027027026</v>
-      </c>
-      <c r="J24" s="8">
-        <f t="shared" si="2"/>
-        <v>149.85135135135135</v>
-      </c>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+        <v>153.45135135135135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="61">
+        <v>18</v>
+      </c>
+      <c r="B25" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="63">
         <v>139</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="65">
         <v>0.36099999999999999</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="64">
         <v>21</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="66">
         <v>0.9</v>
       </c>
-      <c r="I25" s="8">
+      <c r="H25" s="62"/>
+      <c r="I25" s="64">
+        <f t="shared" si="1"/>
+        <v>9.4515235457063707</v>
+      </c>
+      <c r="J25" s="64">
+        <f t="shared" si="3"/>
+        <v>122.86980609418282</v>
+      </c>
+      <c r="K25" s="64">
         <f t="shared" si="0"/>
-        <v>9.4515235457063707</v>
-      </c>
-      <c r="J25" s="8">
-        <f t="shared" si="2"/>
-        <v>122.86980609418282</v>
-      </c>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+        <v>143.86980609418282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="53">
+        <v>19</v>
+      </c>
+      <c r="B26" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="63">
         <v>5571</v>
       </c>
-      <c r="G26" s="9">
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="66">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="26" t="s">
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="53">
+        <v>20</v>
+      </c>
+      <c r="B27" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="63">
         <v>192</v>
       </c>
-      <c r="F27" s="8">
+      <c r="E27" s="62"/>
+      <c r="F27" s="64">
         <v>10</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="62">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="26" t="s">
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="64">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="53">
+        <v>21</v>
+      </c>
+      <c r="B28" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="63">
         <v>200</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="8">
+      <c r="E28" s="65"/>
+      <c r="F28" s="64">
         <v>10</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="62">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="64">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="53">
+        <v>22</v>
+      </c>
+      <c r="B29" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="66">
         <v>1</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="66">
         <v>500</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I29" s="62"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="64">
+        <f>H29</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>12</v>
       </c>
@@ -2206,7 +2501,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>15</v>
       </c>
@@ -2215,7 +2510,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -2224,7 +2519,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -2233,7 +2528,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>29</v>
       </c>
@@ -2242,7 +2537,7 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -2251,8 +2546,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="26" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="7">
@@ -2260,11 +2555,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="26"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="24"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>6</v>
       </c>
@@ -2273,18 +2568,18 @@
         <v>12707</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="27" t="s">
+      <c r="K44" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="M44" s="36" t="s">
+      <c r="M44" s="34" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D45" s="3" t="s">
         <v>34</v>
       </c>
@@ -2306,24 +2601,27 @@
       <c r="J45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K45" s="29" t="s">
+      <c r="K45" s="27" t="s">
         <v>103</v>
       </c>
       <c r="L45" t="s">
         <v>137</v>
       </c>
-      <c r="M45" s="36" t="s">
+      <c r="M45" s="34" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="28" t="s">
+      <c r="N45" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="21" t="s">
         <v>87</v>
       </c>
       <c r="E46" s="6" t="s">
@@ -2332,7 +2630,7 @@
       <c r="F46" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="21" t="s">
         <v>10</v>
       </c>
       <c r="H46" s="6" t="s">
@@ -2350,589 +2648,742 @@
       <c r="L46" t="s">
         <v>138</v>
       </c>
-      <c r="M46" s="27" t="s">
+      <c r="M46" s="25" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+      <c r="N46" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="36">
+        <v>1</v>
+      </c>
+      <c r="B47" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="62">
         <v>2300</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="62">
         <v>30</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="69">
         <v>0.1</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="64">
         <v>10</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="69">
         <v>0.38</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="64">
         <v>2</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="66">
         <v>0.88</v>
       </c>
-      <c r="K47" s="3"/>
-      <c r="L47">
+      <c r="K47" s="70"/>
+      <c r="L47" s="62">
         <f>$K$3/(H47*1000)</f>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="62">
         <f>L47*$O$8</f>
         <v>22.447368421052634</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+      <c r="N47" s="64">
+        <f>M47+I47+G47</f>
+        <v>34.44736842105263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="36">
+        <v>2</v>
+      </c>
+      <c r="B48" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="62">
         <v>2300</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="62">
         <v>30</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="69">
         <v>0.1</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="64">
         <v>5</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="69">
         <v>0.38</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="64">
         <v>2</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="66">
         <v>0.88</v>
       </c>
-      <c r="K48" s="3"/>
-      <c r="L48">
-        <f t="shared" ref="L48:L54" si="3">$K$3/(H48*1000)</f>
+      <c r="K48" s="70"/>
+      <c r="L48" s="62">
+        <f t="shared" ref="L48:L54" si="4">$K$3/(H48*1000)</f>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M48">
-        <f t="shared" ref="M48:M52" si="4">L48*$O$8</f>
+      <c r="M48" s="62">
+        <f t="shared" ref="M48:M52" si="5">L48*$O$8</f>
         <v>22.447368421052634</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+      <c r="N48" s="64">
+        <f t="shared" ref="N48:N52" si="6">M48+I48+G48</f>
+        <v>29.447368421052634</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="36">
+        <v>3</v>
+      </c>
+      <c r="B49" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="62">
         <v>2300</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="62">
         <v>30</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="69">
         <v>0.1</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="64">
         <v>0.3</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="69">
         <v>0.38</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="64">
         <v>2</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="66">
         <v>0.88</v>
       </c>
-      <c r="K49" s="3"/>
-      <c r="L49">
-        <f t="shared" si="3"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="62">
+        <f t="shared" si="4"/>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="62">
+        <f t="shared" si="5"/>
+        <v>22.447368421052634</v>
+      </c>
+      <c r="N49" s="64">
+        <f t="shared" si="6"/>
+        <v>24.747368421052634</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="36">
+        <v>4</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="62">
+        <v>2300</v>
+      </c>
+      <c r="E50" s="62">
+        <v>30</v>
+      </c>
+      <c r="F50" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="G50" s="64">
+        <v>0.3</v>
+      </c>
+      <c r="H50" s="69">
+        <v>0.38</v>
+      </c>
+      <c r="I50" s="64">
+        <v>2</v>
+      </c>
+      <c r="J50" s="66">
+        <v>0.88</v>
+      </c>
+      <c r="K50" s="70"/>
+      <c r="L50" s="62">
         <f t="shared" si="4"/>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="M50" s="62">
+        <f t="shared" si="5"/>
         <v>22.447368421052634</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+      <c r="N50" s="64">
+        <f t="shared" si="6"/>
+        <v>24.747368421052634</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="36">
+        <v>5</v>
+      </c>
+      <c r="B51" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50">
+      <c r="C51" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="62">
         <v>2300</v>
       </c>
-      <c r="E50">
+      <c r="E51" s="62">
         <v>30</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F51" s="69">
         <v>0.1</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G51" s="64">
+        <v>3</v>
+      </c>
+      <c r="H51" s="69">
+        <v>0.38</v>
+      </c>
+      <c r="I51" s="64">
+        <v>2</v>
+      </c>
+      <c r="J51" s="66">
+        <v>0.88</v>
+      </c>
+      <c r="K51" s="70"/>
+      <c r="L51" s="62">
+        <f t="shared" si="4"/>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="M51" s="62">
+        <f t="shared" si="5"/>
+        <v>22.447368421052634</v>
+      </c>
+      <c r="N51" s="64">
+        <f t="shared" si="6"/>
+        <v>27.447368421052634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="36">
+        <v>6</v>
+      </c>
+      <c r="B52" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="62">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="62">
+        <v>30</v>
+      </c>
+      <c r="F52" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="G52" s="64">
+        <v>5</v>
+      </c>
+      <c r="H52" s="69">
+        <v>0.38</v>
+      </c>
+      <c r="I52" s="64">
+        <v>2</v>
+      </c>
+      <c r="J52" s="66">
+        <v>0.88</v>
+      </c>
+      <c r="K52" s="70"/>
+      <c r="L52" s="62">
+        <f t="shared" si="4"/>
+        <v>8.9789473684210535</v>
+      </c>
+      <c r="M52" s="62">
+        <f t="shared" si="5"/>
+        <v>22.447368421052634</v>
+      </c>
+      <c r="N52" s="64">
+        <f t="shared" si="6"/>
+        <v>29.447368421052634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="36">
+        <v>7</v>
+      </c>
+      <c r="B54" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="62">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="62">
+        <v>25</v>
+      </c>
+      <c r="F54" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="G54" s="64">
         <v>0.3</v>
       </c>
-      <c r="H50" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="I50" s="8">
-        <v>2</v>
-      </c>
-      <c r="J50" s="9">
-        <v>0.88</v>
-      </c>
-      <c r="K50" s="3"/>
-      <c r="L50">
-        <f t="shared" si="3"/>
-        <v>8.9789473684210535</v>
-      </c>
-      <c r="M50">
+      <c r="H54" s="69">
+        <v>0.45</v>
+      </c>
+      <c r="I54" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="J54" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="K54" s="70"/>
+      <c r="L54" s="62">
         <f t="shared" si="4"/>
-        <v>22.447368421052634</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51">
-        <v>2300</v>
-      </c>
-      <c r="E51">
-        <v>30</v>
-      </c>
-      <c r="F51" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="8">
-        <v>3</v>
-      </c>
-      <c r="H51" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="I51" s="8">
-        <v>2</v>
-      </c>
-      <c r="J51" s="9">
-        <v>0.88</v>
-      </c>
-      <c r="K51" s="3"/>
-      <c r="L51">
-        <f t="shared" si="3"/>
-        <v>8.9789473684210535</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="4"/>
-        <v>22.447368421052634</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52">
-        <v>2300</v>
-      </c>
-      <c r="E52">
-        <v>30</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G52" s="8">
-        <v>5</v>
-      </c>
-      <c r="H52" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="I52" s="8">
-        <v>2</v>
-      </c>
-      <c r="J52" s="9">
-        <v>0.88</v>
-      </c>
-      <c r="K52" s="3"/>
-      <c r="L52">
-        <f t="shared" si="3"/>
-        <v>8.9789473684210535</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="4"/>
-        <v>22.447368421052634</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54">
-        <v>1000</v>
-      </c>
-      <c r="E54">
-        <v>25</v>
-      </c>
-      <c r="F54" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G54" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="H54" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="I54" s="8">
-        <v>3.4</v>
-      </c>
-      <c r="J54" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="K54" s="3"/>
-      <c r="L54">
-        <f t="shared" si="3"/>
         <v>7.5822222222222226</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="62">
         <f>L54*O10</f>
         <v>60.657777777777781</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B55" s="38" t="s">
+      <c r="N54" s="64">
+        <f>M54+I54+G54</f>
+        <v>64.357777777777784</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B56" s="26" t="s">
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="36">
+        <v>8</v>
+      </c>
+      <c r="B56" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="62">
         <v>3000</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="62">
         <v>40</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="69">
         <v>0.1</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="64">
         <v>10</v>
       </c>
-      <c r="J56" s="9">
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="66">
         <v>0.6</v>
       </c>
-      <c r="K56" s="27" t="s">
+      <c r="K56" s="71" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K57" s="27"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B58" s="26" t="s">
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="64">
+        <f>G56</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="36"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="36">
+        <v>9</v>
+      </c>
+      <c r="B58" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="62">
         <v>1800</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="62">
         <v>20</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="69">
         <v>0.1</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="64">
         <v>5</v>
       </c>
-      <c r="I58" s="8">
+      <c r="H58" s="62"/>
+      <c r="I58" s="64">
         <v>8</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="66">
         <v>0.35</v>
       </c>
-      <c r="K58" s="27" t="s">
+      <c r="K58" s="71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B59" s="26" t="s">
+      <c r="L58" s="62"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="64">
+        <f>I58+G58+M58</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="36">
+        <v>10</v>
+      </c>
+      <c r="B59" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="62">
         <v>1800</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="62">
         <v>20</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="69">
         <v>0.1</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="64">
         <v>5</v>
       </c>
-      <c r="I59" s="8">
+      <c r="H59" s="62"/>
+      <c r="I59" s="64">
         <v>8</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="66">
         <v>0.3</v>
       </c>
-      <c r="K59" s="27" t="s">
+      <c r="K59" s="71" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B60" s="26" t="s">
+      <c r="L59" s="62"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="64">
+        <f t="shared" ref="N59:N70" si="7">I59+G59+M59</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="36">
+        <v>11</v>
+      </c>
+      <c r="B60" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="62">
         <v>1500</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="62">
         <v>20</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="69">
         <v>0.1</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="64">
         <v>5</v>
       </c>
-      <c r="I60" s="8">
+      <c r="H60" s="62"/>
+      <c r="I60" s="64">
         <v>10</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60" s="66">
         <v>0.35</v>
       </c>
-      <c r="K60" s="27" t="s">
+      <c r="K60" s="71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B61" s="26" t="s">
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="64">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="36">
+        <v>12</v>
+      </c>
+      <c r="B61" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="62">
         <v>1500</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="62">
         <v>20</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="69">
         <v>0.1</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="64">
         <v>5</v>
       </c>
-      <c r="I61" s="8">
+      <c r="H61" s="62"/>
+      <c r="I61" s="64">
         <v>10</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="66">
         <v>0.3</v>
       </c>
-      <c r="K61" s="27" t="s">
+      <c r="K61" s="71" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="64">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="36">
+        <v>13</v>
+      </c>
+      <c r="B62" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="62">
         <v>4000</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="62">
         <v>20</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="69">
         <v>0.1</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="64">
         <v>20</v>
       </c>
-      <c r="I62">
+      <c r="H62" s="62"/>
+      <c r="I62" s="62">
         <v>20</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="66">
         <v>0.8</v>
       </c>
-      <c r="K62" s="27" t="s">
+      <c r="K62" s="71" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="64">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="36">
+        <v>14</v>
+      </c>
+      <c r="B63" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="62">
         <v>3000</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="62">
         <v>40</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="69">
         <v>0.1</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="64">
         <v>20</v>
       </c>
-      <c r="I63">
+      <c r="H63" s="62"/>
+      <c r="I63" s="62">
         <v>0</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="66">
         <v>0.6</v>
       </c>
-      <c r="K63" s="27" t="s">
+      <c r="K63" s="71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="64">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J64" s="9"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+      <c r="N64" s="8"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>15</v>
+      </c>
+      <c r="B65" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="62">
         <v>700</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="62">
         <v>20</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="69">
         <v>0.1</v>
       </c>
-      <c r="G65" s="8">
-        <f t="shared" ref="G65:G70" si="5">+G47</f>
+      <c r="G65" s="64">
+        <f t="shared" ref="G65:G70" si="8">+G47</f>
         <v>10</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="69">
         <v>0.3</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="62">
         <v>12</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="66">
         <v>0.8</v>
       </c>
-      <c r="L65">
-        <f t="shared" ref="L65:L70" si="6">$K$3/(H65*1000)</f>
+      <c r="K65" s="62"/>
+      <c r="L65" s="62">
+        <f t="shared" ref="L65:L70" si="9">$K$3/(H65*1000)</f>
         <v>11.373333333333333</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="62">
         <f>L65*$O$9</f>
         <v>147.85333333333332</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+      <c r="N65" s="64">
+        <f t="shared" si="7"/>
+        <v>169.85333333333332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="62">
         <v>700</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="62">
         <v>20</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="69">
         <v>0.1</v>
       </c>
-      <c r="G66" s="8">
-        <f t="shared" si="5"/>
+      <c r="G66" s="64">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="69">
         <v>0.3</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="62">
         <v>12</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J66" s="66">
         <v>0.8</v>
       </c>
-      <c r="L66">
-        <f t="shared" si="6"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="62">
+        <f t="shared" si="9"/>
         <v>11.373333333333333</v>
       </c>
-      <c r="M66">
-        <f t="shared" ref="M66:M70" si="7">L66*$O$9</f>
+      <c r="M66" s="62">
+        <f t="shared" ref="M66:M70" si="10">L66*$O$9</f>
         <v>147.85333333333332</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="64">
+        <f t="shared" si="7"/>
+        <v>164.85333333333332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>17</v>
+      </c>
       <c r="B67" t="s">
         <v>20</v>
       </c>
@@ -2949,7 +3400,7 @@
         <v>0.1</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="H67" s="10">
@@ -2962,15 +3413,22 @@
         <v>0.8</v>
       </c>
       <c r="L67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.373333333333333</v>
       </c>
       <c r="M67">
+        <f t="shared" si="10"/>
+        <v>147.85333333333332</v>
+      </c>
+      <c r="N67" s="8">
         <f t="shared" si="7"/>
-        <v>147.85333333333332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>160.15333333333334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>18</v>
+      </c>
       <c r="B68" t="s">
         <v>20</v>
       </c>
@@ -2987,7 +3445,7 @@
         <v>0.1</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="H68" s="10">
@@ -3000,15 +3458,22 @@
         <v>0.8</v>
       </c>
       <c r="L68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.373333333333333</v>
       </c>
       <c r="M68">
+        <f t="shared" si="10"/>
+        <v>147.85333333333332</v>
+      </c>
+      <c r="N68" s="8">
         <f t="shared" si="7"/>
-        <v>147.85333333333332</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <v>160.15333333333334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>19</v>
+      </c>
       <c r="B69" t="s">
         <v>20</v>
       </c>
@@ -3025,7 +3490,7 @@
         <v>0.1</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H69" s="10">
@@ -3038,15 +3503,22 @@
         <v>0.8</v>
       </c>
       <c r="L69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.373333333333333</v>
       </c>
       <c r="M69">
+        <f t="shared" si="10"/>
+        <v>147.85333333333332</v>
+      </c>
+      <c r="N69" s="8">
         <f t="shared" si="7"/>
-        <v>147.85333333333332</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+        <v>162.85333333333332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>20</v>
+      </c>
       <c r="B70" t="s">
         <v>20</v>
       </c>
@@ -3063,7 +3535,7 @@
         <v>0.1</v>
       </c>
       <c r="G70" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H70" s="10">
@@ -3076,40 +3548,44 @@
         <v>0.8</v>
       </c>
       <c r="L70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.373333333333333</v>
       </c>
       <c r="M70">
+        <f t="shared" si="10"/>
+        <v>147.85333333333332</v>
+      </c>
+      <c r="N70" s="8">
         <f t="shared" si="7"/>
-        <v>147.85333333333332</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+        <v>164.85333333333332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E71" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B73" s="26" t="s">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B73" s="24" t="s">
         <v>101</v>
       </c>
       <c r="D73" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="39"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E73" s="37"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="65540" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K65540" s="12" t="s">
+      <c r="K65540" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3140,7 +3616,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3153,7 +3629,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="8">
@@ -3169,7 +3645,7 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3289,7 +3765,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="22">
+      <c r="B13" s="20">
         <v>2017</v>
       </c>
       <c r="C13">
@@ -3301,7 +3777,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="22">
+      <c r="B14" s="20">
         <v>2018</v>
       </c>
       <c r="C14">
@@ -3310,7 +3786,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="22">
+      <c r="B15" s="20">
         <v>2019</v>
       </c>
       <c r="C15">
@@ -3319,7 +3795,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="22">
+      <c r="B16" s="20">
         <v>2020</v>
       </c>
       <c r="C16">
@@ -3328,7 +3804,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="22">
+      <c r="B17" s="20">
         <v>2021</v>
       </c>
       <c r="C17">
@@ -3337,7 +3813,7 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <v>2022</v>
       </c>
       <c r="C18">
@@ -3346,7 +3822,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="22">
+      <c r="B19" s="20">
         <v>2023</v>
       </c>
       <c r="C19">
@@ -3355,7 +3831,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="22">
+      <c r="B20" s="20">
         <v>2024</v>
       </c>
       <c r="C20">
@@ -3364,7 +3840,7 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="22">
+      <c r="B21" s="20">
         <v>2025</v>
       </c>
       <c r="C21">
@@ -3373,7 +3849,7 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="22">
+      <c r="B22" s="20">
         <v>2026</v>
       </c>
       <c r="C22">
@@ -3382,7 +3858,7 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <v>2027</v>
       </c>
       <c r="C23">
@@ -3391,7 +3867,7 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <v>2028</v>
       </c>
       <c r="C24">
@@ -3400,7 +3876,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="22">
+      <c r="B25" s="20">
         <v>2029</v>
       </c>
       <c r="C25">
@@ -3409,7 +3885,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="22">
+      <c r="B26" s="20">
         <v>2030</v>
       </c>
     </row>
@@ -3428,25 +3904,25 @@
   </sheetPr>
   <dimension ref="A2:J57"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="12" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3463,7 +3939,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
         <v>52</v>
       </c>
@@ -3478,133 +3954,133 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>44.607999999999997</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>22.8</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>16.5</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>2385.294117647059</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>18.600000000000001</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>3.6</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>2164.705882352941</v>
       </c>
       <c r="H8" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="51" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="49" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>0.28369156485987873</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>23.078308801351135</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>1.4184578242993937</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>3163.160948187648</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="52">
+      <c r="I9" s="12"/>
+      <c r="J9" s="50">
         <v>1000000</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>0.28369156485987873</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>23.078308801351135</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>1.4184578242993937</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>3163.160948187648</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="53" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="51" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="23">
         <v>0.18087999999999999</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="23">
         <v>1.4280000000000001E-2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>5.593</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>2856</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="15"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="23">
         <v>0.18087999999999999</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="23">
         <v>1.4280000000000001E-2</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>5.593</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>2856</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="15"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
@@ -3616,147 +4092,147 @@
       <c r="I14" s="55"/>
     </row>
     <row r="15" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="40" t="s">
+      <c r="G15" s="39"/>
+      <c r="H15" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="41" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="46" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="45">
         <v>1</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="46">
         <f>H16*J9*D35*(1/C18)*C26*(1/1000)</f>
         <v>79.680815196650229</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="40">
         <v>1</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="41">
         <f>H17*J9*D35*(1/C20)*C27*(1/1000)</f>
         <v>61.960311166384507</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <f>9.12*1000000</f>
         <v>9120000</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="G18" s="50" t="s">
+      <c r="D18" s="17"/>
+      <c r="G18" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="42">
         <v>1</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="43">
         <f>H18*J9*D35*(1/D19)*(1/1000)</f>
         <v>132.3056958750023</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="19">
+      <c r="D19" s="17">
         <v>6500</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>9341</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="16">
         <v>845</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="18">
         <v>0.67300000000000004</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3834,54 +4310,54 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D37">
         <v>1000000</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
+      <c r="A45" s="12"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
+      <c r="A46" s="12"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
+      <c r="A47" s="12"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
+      <c r="A48" s="12"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
+      <c r="A49" s="12"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
+      <c r="A50" s="12"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
+      <c r="A51" s="12"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
+      <c r="A52" s="12"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
+      <c r="A53" s="12"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
+      <c r="A54" s="12"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
+      <c r="A55" s="12"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
+      <c r="A56" s="12"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
+      <c r="A57" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3905,17 +4381,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
@@ -3925,22 +4401,22 @@
       <c r="E4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="14"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="28" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3948,81 +4424,81 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="32">
         <v>526.84727859553038</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>210.73891143821214</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="32">
         <v>105.36945571910607</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="32">
         <v>50</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="32">
         <v>526.84727859553038</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="32">
         <v>210.73891143821214</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="32">
         <v>105.36945571910607</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="32">
         <v>50</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="32">
         <v>526.84727859553038</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>210.73891143821214</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="32">
         <v>105.36945571910607</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="32">
         <v>50</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="32">
         <v>526.84727859553038</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>210.73891143821214</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="32">
         <v>105.36945571910607</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="32">
         <v>50</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -4031,18 +4507,18 @@
       <c r="C10" s="7">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>1580.541835786591</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="32">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="32">
         <v>50</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -4051,18 +4527,18 @@
       <c r="C11" s="7">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="32">
         <v>1580.541835786591</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="32">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="32">
         <v>50</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -4071,18 +4547,18 @@
       <c r="C12" s="7">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>1580.541835786591</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="32">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="32">
         <v>50</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
@@ -4091,38 +4567,38 @@
       <c r="C13" s="7">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="32">
         <v>1580.541835786591</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="32">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="32">
         <v>50</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="32">
         <v>526.84727859553038</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="32">
         <v>210.73891143821214</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="32">
         <v>105.36945571910607</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="32">
         <v>50</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -4131,300 +4607,300 @@
       <c r="C15" s="7">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="32">
         <v>1580.541835786591</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="32">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="32">
         <v>50</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="32">
         <v>526.84727859553038</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="32">
         <v>210.73891143821214</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="32">
         <v>105.36945571910607</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="32">
         <v>50</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="32">
         <v>526.84727859553038</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="32">
         <v>210.73891143821214</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="32">
         <v>105.36945571910607</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="32">
         <v>50</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="32">
         <v>526.84727859553038</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="32">
         <v>210.73891143821214</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="32">
         <v>105.36945571910607</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="32">
         <v>50</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="24" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
+      <c r="B28" s="12"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
+      <c r="B29" s="12"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="13"/>
+      <c r="B30" s="12"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="13"/>
+      <c r="B31" s="12"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
+      <c r="B32" s="12"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
+      <c r="B33" s="12"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
+      <c r="B34" s="12"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="13"/>
+      <c r="B35" s="12"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="13"/>
+      <c r="B36" s="12"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="13"/>
+      <c r="B37" s="12"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="13"/>
+      <c r="B38" s="12"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="13"/>
+      <c r="B39" s="12"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="13"/>
+      <c r="B40" s="12"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
+      <c r="B41" s="12"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="13"/>
+      <c r="B42" s="12"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="13"/>
+      <c r="B43" s="12"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="13"/>
+      <c r="B44" s="12"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="13"/>
+      <c r="B45" s="12"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="13"/>
+      <c r="B46" s="12"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="13"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="13"/>
+      <c r="B48" s="12"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="13"/>
+      <c r="B49" s="12"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="13"/>
+      <c r="B50" s="12"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="13"/>
+      <c r="B51" s="12"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="13"/>
+      <c r="B52" s="12"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="13"/>
+      <c r="B53" s="12"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="13"/>
+      <c r="B54" s="12"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="13"/>
+      <c r="B55" s="12"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="13"/>
+      <c r="B56" s="12"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="13"/>
+      <c r="B57" s="12"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="13"/>
+      <c r="B58" s="12"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="13"/>
+      <c r="B59" s="12"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="13"/>
+      <c r="B60" s="12"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="13"/>
+      <c r="B61" s="12"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="13"/>
+      <c r="B62" s="12"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="13"/>
+      <c r="B63" s="12"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="13"/>
+      <c r="B64" s="12"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="13"/>
+      <c r="B65" s="12"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="13"/>
+      <c r="B66" s="12"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="13"/>
+      <c r="B67" s="12"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="13"/>
+      <c r="B68" s="12"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="13"/>
+      <c r="B69" s="12"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="13"/>
+      <c r="B70" s="12"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="13"/>
+      <c r="B71" s="12"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="13"/>
+      <c r="B72" s="12"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="13"/>
+      <c r="B73" s="12"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="13"/>
+      <c r="B74" s="12"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="13"/>
+      <c r="B75" s="12"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="13"/>
+      <c r="B76" s="12"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="13"/>
+      <c r="B77" s="12"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="13"/>
+      <c r="B78" s="12"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="13"/>
+      <c r="B79" s="12"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="13"/>
+      <c r="B80" s="12"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="13"/>
+      <c r="B81" s="12"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="13"/>
+      <c r="B82" s="12"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="13"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="13"/>
+      <c r="B84" s="12"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="13"/>
+      <c r="B85" s="12"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="13"/>
+      <c r="B86" s="12"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="13"/>
+      <c r="B87" s="12"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="13"/>
+      <c r="B88" s="12"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="13"/>
+      <c r="B89" s="12"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="13"/>
+      <c r="B90" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4435,8 +4911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4450,10 +4926,10 @@
       <c r="C3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4462,10 +4938,10 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3"/>
@@ -4481,7 +4957,7 @@
       <c r="C5" s="9">
         <v>0.7</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="32">
         <v>41.094087730451371</v>
       </c>
       <c r="E5" s="2">
@@ -4490,8 +4966,8 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -4507,7 +4983,7 @@
       <c r="C6" s="9">
         <v>0.9</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>42.147782287642428</v>
       </c>
       <c r="E6" s="2">
@@ -4526,7 +5002,7 @@
       <c r="C7" s="9">
         <v>0.95</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="32">
         <v>63.221673431463643</v>
       </c>
       <c r="E7" s="2">
@@ -4561,10 +5037,10 @@
       <c r="C10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="24" t="s">
         <v>131</v>
       </c>
       <c r="G10" s="3"/>
@@ -4576,10 +5052,10 @@
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="3"/>
@@ -4594,7 +5070,7 @@
       <c r="C12" s="9">
         <v>0.9</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>115.90640129101668</v>
       </c>
       <c r="E12" s="2">
@@ -4612,7 +5088,7 @@
       <c r="C13" s="9">
         <v>0.98</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="32">
         <v>158.05418357865912</v>
       </c>
       <c r="E13" s="2">
@@ -4630,7 +5106,7 @@
       <c r="C14" s="9">
         <v>0.99</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="32">
         <v>273.96058486967581</v>
       </c>
       <c r="E14" s="2">
@@ -4662,10 +5138,10 @@
       <c r="C17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="24" t="s">
         <v>131</v>
       </c>
       <c r="G17" s="3"/>
@@ -4676,10 +5152,10 @@
       <c r="C18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="3"/>
@@ -4695,7 +5171,7 @@
       <c r="C19" s="9">
         <v>0.6</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="32">
         <v>210.73891143821214</v>
       </c>
       <c r="E19" s="2">
@@ -4714,7 +5190,7 @@
       <c r="C20" s="9">
         <v>0.9</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="32">
         <v>263.42363929776519</v>
       </c>
       <c r="E20" s="2">
@@ -4733,7 +5209,7 @@
       <c r="C21" s="9">
         <v>0.95</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="32">
         <v>316.10836715731824</v>
       </c>
       <c r="E21" s="2">
@@ -4778,17 +5254,17 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="24" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="24" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4819,7 +5295,7 @@
       <c r="D34" s="3">
         <v>0.95</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="31" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4830,10 +5306,10 @@
       <c r="C35">
         <v>0.95</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="14">
         <v>0.9</v>
       </c>
     </row>
@@ -4844,10 +5320,10 @@
       <c r="C36">
         <v>0.95</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="31" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4907,1108 +5383,1108 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="R3" s="56" t="s">
+      <c r="R3" s="52" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="53">
         <v>60</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53">
         <v>0.9</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="53">
         <v>48.7</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="53">
         <v>0</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="53">
         <v>0</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="53">
         <v>0</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="53">
         <v>0</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="53">
         <v>0</v>
       </c>
-      <c r="O4" s="57">
+      <c r="O4" s="53">
         <v>527</v>
       </c>
-      <c r="P4" s="57">
+      <c r="P4" s="53">
         <v>211</v>
       </c>
-      <c r="Q4" s="57">
+      <c r="Q4" s="53">
         <v>105</v>
       </c>
-      <c r="R4" s="57">
+      <c r="R4" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="53">
         <v>204</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53">
         <v>0.9</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="53">
         <v>44.5</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="53">
         <v>0</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="53">
         <v>0</v>
       </c>
-      <c r="L5" s="57">
+      <c r="L5" s="53">
         <v>0</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="53">
         <v>0</v>
       </c>
-      <c r="N5" s="57">
+      <c r="N5" s="53">
         <v>0</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="53">
         <v>527</v>
       </c>
-      <c r="P5" s="57">
+      <c r="P5" s="53">
         <v>211</v>
       </c>
-      <c r="Q5" s="57">
+      <c r="Q5" s="53">
         <v>105</v>
       </c>
-      <c r="R5" s="57">
+      <c r="R5" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="53">
         <v>575</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="53">
         <v>0.376</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="53">
         <v>1.9</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="53">
         <v>0.88</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57">
+      <c r="I6" s="53"/>
+      <c r="J6" s="53">
         <v>22.7</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="53">
         <v>44.61</v>
       </c>
-      <c r="L6" s="57">
+      <c r="L6" s="53">
         <v>22.8</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="53">
         <v>16.5</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="53">
         <v>2385.29</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="53">
         <v>527</v>
       </c>
-      <c r="P6" s="57">
+      <c r="P6" s="53">
         <v>211</v>
       </c>
-      <c r="Q6" s="57">
+      <c r="Q6" s="53">
         <v>105</v>
       </c>
-      <c r="R6" s="57">
+      <c r="R6" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="53">
         <v>812</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="53">
         <v>0.35</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="53">
         <v>3.1</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="53">
         <v>0.88</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
+      <c r="I7" s="53"/>
+      <c r="J7" s="53">
         <v>24.4</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="53">
         <v>44.61</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="53">
         <v>22.8</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="53">
         <v>16.5</v>
       </c>
-      <c r="N7" s="57">
+      <c r="N7" s="53">
         <v>2385.29</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="53">
         <v>3161</v>
       </c>
-      <c r="P7" s="57">
+      <c r="P7" s="53">
         <v>1581</v>
       </c>
-      <c r="Q7" s="57">
+      <c r="Q7" s="53">
         <v>2107</v>
       </c>
-      <c r="R7" s="57">
+      <c r="R7" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="53">
         <v>806</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="53">
         <v>0.38</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="53">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="53">
         <v>0.87</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57">
+      <c r="I8" s="53"/>
+      <c r="J8" s="53">
         <v>22.4</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="53">
         <v>44.61</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="53">
         <v>22.8</v>
       </c>
-      <c r="M8" s="57">
+      <c r="M8" s="53">
         <v>16.5</v>
       </c>
-      <c r="N8" s="57">
+      <c r="N8" s="53">
         <v>2385.29</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="53">
         <v>3161</v>
       </c>
-      <c r="P8" s="57">
+      <c r="P8" s="53">
         <v>1581</v>
       </c>
-      <c r="Q8" s="57">
+      <c r="Q8" s="53">
         <v>2107</v>
       </c>
-      <c r="R8" s="57">
+      <c r="R8" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="53">
         <v>731</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="53">
         <v>0.45400000000000001</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="53">
         <v>3.4</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="53">
         <v>0.93</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57">
+      <c r="I9" s="53"/>
+      <c r="J9" s="53">
         <v>60.1</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="53">
         <v>0.18099999999999999</v>
       </c>
-      <c r="L9" s="57">
+      <c r="L9" s="53">
         <v>1.4E-2</v>
       </c>
-      <c r="M9" s="57">
+      <c r="M9" s="53">
         <v>5.59</v>
       </c>
-      <c r="N9" s="57">
+      <c r="N9" s="53">
         <v>2856</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="53">
         <v>3161</v>
       </c>
-      <c r="P9" s="57">
+      <c r="P9" s="53">
         <v>1581</v>
       </c>
-      <c r="Q9" s="57">
+      <c r="Q9" s="53">
         <v>2107</v>
       </c>
-      <c r="R9" s="57">
+      <c r="R9" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="53">
         <v>439</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="53">
         <v>11.5</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="53">
         <v>0.9</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57">
+      <c r="I10" s="53"/>
+      <c r="J10" s="53">
         <v>158.4</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L10" s="57">
+      <c r="L10" s="53">
         <v>23.08</v>
       </c>
-      <c r="M10" s="57">
+      <c r="M10" s="53">
         <v>1.42</v>
       </c>
-      <c r="N10" s="57">
+      <c r="N10" s="53">
         <v>3163.16</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="53">
         <v>527</v>
       </c>
-      <c r="P10" s="57">
+      <c r="P10" s="53">
         <v>211</v>
       </c>
-      <c r="Q10" s="57">
+      <c r="Q10" s="53">
         <v>105</v>
       </c>
-      <c r="R10" s="57">
+      <c r="R10" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="53">
         <v>169</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="53">
         <v>0.33500000000000002</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="53">
         <v>16.5</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="53">
         <v>0.9</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57">
+      <c r="I11" s="53"/>
+      <c r="J11" s="53">
         <v>132.4</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="53">
         <v>23.08</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="53">
         <v>1.42</v>
       </c>
-      <c r="N11" s="57">
+      <c r="N11" s="53">
         <v>3163.16</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="53">
         <v>527</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="53">
         <v>211</v>
       </c>
-      <c r="Q11" s="57">
+      <c r="Q11" s="53">
         <v>105</v>
       </c>
-      <c r="R11" s="57">
+      <c r="R11" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="53">
         <v>203</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="53">
         <v>0.35799999999999998</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="53">
         <v>12.5</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="53">
         <v>0.44</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57">
+      <c r="I12" s="53"/>
+      <c r="J12" s="53">
         <v>123.9</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="53">
         <v>23.08</v>
       </c>
-      <c r="M12" s="57">
+      <c r="M12" s="53">
         <v>1.42</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="53">
         <v>3163.16</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="53">
         <v>3161</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="53">
         <v>1581</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="Q12" s="53">
         <v>2107</v>
       </c>
-      <c r="R12" s="57">
+      <c r="R12" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="53">
         <v>58</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="53">
         <v>0.221</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="53">
         <v>11.6</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="53">
         <v>0.61</v>
       </c>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57">
+      <c r="I13" s="53"/>
+      <c r="J13" s="53">
         <v>200.7</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="53">
         <v>23.08</v>
       </c>
-      <c r="M13" s="57">
+      <c r="M13" s="53">
         <v>1.42</v>
       </c>
-      <c r="N13" s="57">
+      <c r="N13" s="53">
         <v>3163.16</v>
       </c>
-      <c r="O13" s="57">
+      <c r="O13" s="53">
         <v>527</v>
       </c>
-      <c r="P13" s="57">
+      <c r="P13" s="53">
         <v>211</v>
       </c>
-      <c r="Q13" s="57">
+      <c r="Q13" s="53">
         <v>105</v>
       </c>
-      <c r="R13" s="57">
+      <c r="R13" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="53">
         <v>97</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="53">
         <v>0.30599999999999999</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="53">
         <v>24</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="53">
         <v>0.9</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57">
+      <c r="I14" s="53"/>
+      <c r="J14" s="53">
         <v>145</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="53">
         <v>23.08</v>
       </c>
-      <c r="M14" s="57">
+      <c r="M14" s="53">
         <v>1.42</v>
       </c>
-      <c r="N14" s="57">
+      <c r="N14" s="53">
         <v>3163.16</v>
       </c>
-      <c r="O14" s="57">
+      <c r="O14" s="53">
         <v>527</v>
       </c>
-      <c r="P14" s="57">
+      <c r="P14" s="53">
         <v>211</v>
       </c>
-      <c r="Q14" s="57">
+      <c r="Q14" s="53">
         <v>105</v>
       </c>
-      <c r="R14" s="57">
+      <c r="R14" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="53">
         <v>700</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="53">
         <v>0.40699999999999997</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="53">
         <v>5.9</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="53">
         <v>0.92</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57">
+      <c r="I15" s="53"/>
+      <c r="J15" s="53">
         <v>109</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L15" s="57">
+      <c r="L15" s="53">
         <v>23.08</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="53">
         <v>1.42</v>
       </c>
-      <c r="N15" s="57">
+      <c r="N15" s="53">
         <v>3163.16</v>
       </c>
-      <c r="O15" s="57">
+      <c r="O15" s="53">
         <v>3161</v>
       </c>
-      <c r="P15" s="57">
+      <c r="P15" s="53">
         <v>1581</v>
       </c>
-      <c r="Q15" s="57">
+      <c r="Q15" s="53">
         <v>2107</v>
       </c>
-      <c r="R15" s="57">
+      <c r="R15" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="53">
         <v>71</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="53">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="53">
         <v>6.1</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="53">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57">
+      <c r="I16" s="53"/>
+      <c r="J16" s="53">
         <v>217.4</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L16" s="57">
+      <c r="L16" s="53">
         <v>23.08</v>
       </c>
-      <c r="M16" s="57">
+      <c r="M16" s="53">
         <v>1.42</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N16" s="53">
         <v>3163.16</v>
       </c>
-      <c r="O16" s="57">
+      <c r="O16" s="53">
         <v>3161</v>
       </c>
-      <c r="P16" s="57">
+      <c r="P16" s="53">
         <v>1581</v>
       </c>
-      <c r="Q16" s="57">
+      <c r="Q16" s="53">
         <v>2107</v>
       </c>
-      <c r="R16" s="57">
+      <c r="R16" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="53">
         <v>368</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="53">
         <v>3.7</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="53">
         <v>0.91</v>
       </c>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57">
+      <c r="I17" s="53"/>
+      <c r="J17" s="53">
         <v>158.4</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L17" s="57">
+      <c r="L17" s="53">
         <v>23.08</v>
       </c>
-      <c r="M17" s="57">
+      <c r="M17" s="53">
         <v>1.42</v>
       </c>
-      <c r="N17" s="57">
+      <c r="N17" s="53">
         <v>3163.16</v>
       </c>
-      <c r="O17" s="57">
+      <c r="O17" s="53">
         <v>3161</v>
       </c>
-      <c r="P17" s="57">
+      <c r="P17" s="53">
         <v>1581</v>
       </c>
-      <c r="Q17" s="57">
+      <c r="Q17" s="53">
         <v>2107</v>
       </c>
-      <c r="R17" s="57">
+      <c r="R17" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="53">
         <v>134</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="53">
         <v>0.27800000000000002</v>
       </c>
-      <c r="G18" s="57">
+      <c r="G18" s="53">
         <v>14.6</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="53">
         <v>0.9</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57">
+      <c r="I18" s="53"/>
+      <c r="J18" s="53">
         <v>159.6</v>
       </c>
-      <c r="K18" s="57">
+      <c r="K18" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L18" s="57">
+      <c r="L18" s="53">
         <v>23.08</v>
       </c>
-      <c r="M18" s="57">
+      <c r="M18" s="53">
         <v>1.42</v>
       </c>
-      <c r="N18" s="57">
+      <c r="N18" s="53">
         <v>3163.16</v>
       </c>
-      <c r="O18" s="57">
+      <c r="O18" s="53">
         <v>527</v>
       </c>
-      <c r="P18" s="57">
+      <c r="P18" s="53">
         <v>211</v>
       </c>
-      <c r="Q18" s="57">
+      <c r="Q18" s="53">
         <v>105</v>
       </c>
-      <c r="R18" s="57">
+      <c r="R18" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="53">
         <v>1043</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="53">
         <v>0.35899999999999999</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="53">
         <v>8.6</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="53">
         <v>0.92</v>
       </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57">
+      <c r="I19" s="53"/>
+      <c r="J19" s="53">
         <v>123.6</v>
       </c>
-      <c r="K19" s="57">
+      <c r="K19" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="53">
         <v>23.08</v>
       </c>
-      <c r="M19" s="57">
+      <c r="M19" s="53">
         <v>1.42</v>
       </c>
-      <c r="N19" s="57">
+      <c r="N19" s="53">
         <v>3163.16</v>
       </c>
-      <c r="O19" s="57">
+      <c r="O19" s="53">
         <v>527</v>
       </c>
-      <c r="P19" s="57">
+      <c r="P19" s="53">
         <v>211</v>
       </c>
-      <c r="Q19" s="57">
+      <c r="Q19" s="53">
         <v>105</v>
       </c>
-      <c r="R19" s="57">
+      <c r="R19" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="53">
         <v>135</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="53">
         <v>0.29599999999999999</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="53">
         <v>3.6</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="53">
         <v>0.9</v>
       </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57">
+      <c r="I20" s="53"/>
+      <c r="J20" s="53">
         <v>149.9</v>
       </c>
-      <c r="K20" s="57">
+      <c r="K20" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L20" s="57">
+      <c r="L20" s="53">
         <v>23.08</v>
       </c>
-      <c r="M20" s="57">
+      <c r="M20" s="53">
         <v>1.42</v>
       </c>
-      <c r="N20" s="57">
+      <c r="N20" s="53">
         <v>3163.16</v>
       </c>
-      <c r="O20" s="57">
+      <c r="O20" s="53">
         <v>527</v>
       </c>
-      <c r="P20" s="57">
+      <c r="P20" s="53">
         <v>211</v>
       </c>
-      <c r="Q20" s="57">
+      <c r="Q20" s="53">
         <v>105</v>
       </c>
-      <c r="R20" s="57">
+      <c r="R20" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="53">
         <v>139</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="53">
         <v>0.36099999999999999</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="53">
         <v>21</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="53">
         <v>0.9</v>
       </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57">
+      <c r="I21" s="53"/>
+      <c r="J21" s="53">
         <v>122.9</v>
       </c>
-      <c r="K21" s="57">
+      <c r="K21" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L21" s="57">
+      <c r="L21" s="53">
         <v>23.08</v>
       </c>
-      <c r="M21" s="57">
+      <c r="M21" s="53">
         <v>1.42</v>
       </c>
-      <c r="N21" s="57">
+      <c r="N21" s="53">
         <v>3163.16</v>
       </c>
-      <c r="O21" s="57">
+      <c r="O21" s="53">
         <v>527</v>
       </c>
-      <c r="P21" s="57">
+      <c r="P21" s="53">
         <v>211</v>
       </c>
-      <c r="Q21" s="57">
+      <c r="Q21" s="53">
         <v>105</v>
       </c>
-      <c r="R21" s="57">
+      <c r="R21" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="53">
         <v>5571</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57">
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53">
         <v>0.6</v>
       </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57">
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53">
         <v>0</v>
       </c>
-      <c r="L22" s="57">
+      <c r="L22" s="53">
         <v>0</v>
       </c>
-      <c r="M22" s="57">
+      <c r="M22" s="53">
         <v>0</v>
       </c>
-      <c r="N22" s="57">
+      <c r="N22" s="53">
         <v>0</v>
       </c>
-      <c r="O22" s="57">
+      <c r="O22" s="53">
         <v>527</v>
       </c>
-      <c r="P22" s="57">
+      <c r="P22" s="53">
         <v>211</v>
       </c>
-      <c r="Q22" s="57">
+      <c r="Q22" s="53">
         <v>105</v>
       </c>
-      <c r="R22" s="57">
+      <c r="R22" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="53">
         <v>192</v>
       </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57">
+      <c r="F23" s="53"/>
+      <c r="G23" s="53">
         <v>10</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="53">
         <v>0.25</v>
       </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57">
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53">
         <v>0</v>
       </c>
-      <c r="L23" s="57">
+      <c r="L23" s="53">
         <v>0</v>
       </c>
-      <c r="M23" s="57">
+      <c r="M23" s="53">
         <v>0</v>
       </c>
-      <c r="N23" s="57">
+      <c r="N23" s="53">
         <v>0</v>
       </c>
-      <c r="O23" s="57">
+      <c r="O23" s="53">
         <v>3161</v>
       </c>
-      <c r="P23" s="57">
+      <c r="P23" s="53">
         <v>1581</v>
       </c>
-      <c r="Q23" s="57">
+      <c r="Q23" s="53">
         <v>2107</v>
       </c>
-      <c r="R23" s="57">
+      <c r="R23" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="53">
         <v>200</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57">
+      <c r="F24" s="53"/>
+      <c r="G24" s="53">
         <v>10</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="53">
         <v>0.25</v>
       </c>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57">
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53">
         <v>0</v>
       </c>
-      <c r="L24" s="57">
+      <c r="L24" s="53">
         <v>0</v>
       </c>
-      <c r="M24" s="57">
+      <c r="M24" s="53">
         <v>0</v>
       </c>
-      <c r="N24" s="57">
+      <c r="N24" s="53">
         <v>0</v>
       </c>
-      <c r="O24" s="57">
+      <c r="O24" s="53">
         <v>527</v>
       </c>
-      <c r="P24" s="57">
+      <c r="P24" s="53">
         <v>211</v>
       </c>
-      <c r="Q24" s="57">
+      <c r="Q24" s="53">
         <v>105</v>
       </c>
-      <c r="R24" s="57">
+      <c r="R24" s="53">
         <v>50</v>
       </c>
     </row>
@@ -6021,71 +6497,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA9779-DDC7-491D-BAB4-82C721E83E69}">
   <dimension ref="B3:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="R3" s="56" t="s">
+      <c r="R3" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="S3" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="T3" s="56" t="s">
+      <c r="T3" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="U3" s="56" t="s">
+      <c r="U3" s="52" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7245,4 +7721,745 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B925208-1D33-4732-A33C-612E12AE3C80}">
+  <dimension ref="I3:K69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:K69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="9:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="9:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I5" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I8" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I9" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I10" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I11" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I12" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I13" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I14" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I15" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I16" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I17" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I18" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I19" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K19" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I20" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K20" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I21" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K21" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I22" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I23" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I24" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I25" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I26" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I27" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I28" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I29" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I30" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I31" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I32" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J32" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I33" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K33" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I34" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J34" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I35" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K35" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I36" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J36" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K36" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I37" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="J37" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K37" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I38" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J38" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K38" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I39" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J39" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K39" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I40" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J40" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K40" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I41" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J41" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K41" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I42" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J42" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I43" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J43" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K43" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I44" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J44" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K44" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I45" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J45" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K45" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I46" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J46" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K46" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I47" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J47" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K47" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I48" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J48" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K48" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I49" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J49" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K49" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I50" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J50" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K50" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I51" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J51" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K51" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I52" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J52" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K52" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I53" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="J53" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K53" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I54" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J54" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K54" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I55" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J55" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K55" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I56" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J56" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K56" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I57" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J57" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K57" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I58" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J58" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K58" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I59" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J59" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K59" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I60" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J60" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K60" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I61" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J61" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K61" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I62" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J62" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K62" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I63" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J63" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K63" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I64" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J64" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K64" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I65" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J65" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K65" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I66" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J66" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K66" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I67" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K67" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I68" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J68" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K68" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I69" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J69" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K69" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/T1/Datos.xlsx
+++ b/T1/Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Econo_Med\Tareas_Economed\T1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Eco&amp;Med\Tareas_Economed\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C99AF2E-4529-496A-9DC2-E49BF42E53F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DFB902-5729-427F-8EB7-1C4C0B83C1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="733" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="733" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centrales" sheetId="1" r:id="rId1"/>
@@ -1263,25 +1263,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1296,6 +1281,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1607,28 +1607,28 @@
   </sheetPr>
   <dimension ref="A2:O65540"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G23"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="K4" s="34"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
         <v>100</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
@@ -1717,30 +1717,30 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="61">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="58">
         <v>60</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64">
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59">
         <v>0.9</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="59">
         <v>48.7</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="64">
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="59">
         <f>J8+H8+F8</f>
         <v>48.7</v>
       </c>
@@ -1751,31 +1751,31 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="61">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
         <v>2</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="58">
         <v>204</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64">
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59">
         <v>0.9</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="59">
         <v>44.5</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="64">
-        <f t="shared" ref="K9:K29" si="0">J9+H9+F9</f>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="59">
+        <f t="shared" ref="K9:K28" si="0">J9+H9+F9</f>
         <v>44.5</v>
       </c>
       <c r="N9" s="24" t="s">
@@ -1785,38 +1785,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="61">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="56">
         <v>3</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="58">
         <v>575</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="60">
         <v>0.376</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="59">
         <v>1.9</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="61">
         <v>0.88</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="64">
+      <c r="H10" s="57"/>
+      <c r="I10" s="59">
         <f>$K$3/(E10*1000)</f>
         <v>9.0744680851063837</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="59">
         <f>I10*$O$8</f>
         <v>22.686170212765958</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="59">
         <f t="shared" si="0"/>
         <v>24.586170212765957</v>
       </c>
@@ -1827,672 +1827,672 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="61">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
         <v>4</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="58">
         <v>812</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="60">
         <v>0.35</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="59">
         <v>3.1</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="61">
         <v>0.88</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="64">
+      <c r="H11" s="57"/>
+      <c r="I11" s="59">
         <f t="shared" ref="I11:I25" si="1">$K$3/(E11*1000)</f>
         <v>9.7485714285714291</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="59">
         <f t="shared" ref="J11:J12" si="2">I11*$O$8</f>
         <v>24.371428571428574</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="59">
         <f t="shared" si="0"/>
         <v>27.471428571428575</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="61">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
         <v>5</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="58">
         <v>806</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="60">
         <v>0.38</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="59">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="61">
         <v>0.87</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="64">
+      <c r="H12" s="57"/>
+      <c r="I12" s="59">
         <f t="shared" si="1"/>
         <v>8.9789473684210535</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="59">
         <f t="shared" si="2"/>
         <v>22.447368421052634</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="59">
         <f t="shared" si="0"/>
         <v>26.547368421052632</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="61">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="56">
         <v>6</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="58">
         <v>731</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="60">
         <v>0.45400000000000001</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="59">
         <v>3.4</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="61">
         <v>0.93</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="64">
+      <c r="H13" s="57"/>
+      <c r="I13" s="59">
         <f t="shared" si="1"/>
         <v>7.5154185022026434</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="59">
         <f>I13*O10</f>
         <v>60.123348017621147</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="59">
         <f t="shared" si="0"/>
         <v>63.523348017621146</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="61">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="56">
         <v>7</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="58">
         <v>439</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="60">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="59">
         <v>11.5</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="61">
         <v>0.9</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="64">
+      <c r="H14" s="57"/>
+      <c r="I14" s="59">
         <f t="shared" si="1"/>
         <v>12.185714285714285</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="59">
         <f>$O$9*I14</f>
         <v>158.41428571428571</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="59">
         <f t="shared" si="0"/>
         <v>169.91428571428571</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="61">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="56">
         <v>8</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="58">
         <v>169</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="60">
         <v>0.33500000000000002</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="59">
         <v>16.5</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="61">
         <v>0.9</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="64">
+      <c r="H15" s="57"/>
+      <c r="I15" s="59">
         <f t="shared" si="1"/>
         <v>10.185074626865672</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="59">
         <f t="shared" ref="J15:J25" si="3">$O$9*I15</f>
         <v>132.40597014925373</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="59">
         <f t="shared" si="0"/>
         <v>148.90597014925373</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="61">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="56">
         <v>9</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="58">
         <v>203</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="60">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="59">
         <v>12.5</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="61">
         <v>0.44</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="64">
+      <c r="H16" s="57"/>
+      <c r="I16" s="59">
         <f t="shared" si="1"/>
         <v>9.5307262569832396</v>
       </c>
-      <c r="J16" s="64">
+      <c r="J16" s="59">
         <f t="shared" si="3"/>
         <v>123.89944134078212</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="59">
         <f t="shared" si="0"/>
         <v>136.39944134078212</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="61">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="56">
         <v>10</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="58">
         <v>58</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="60">
         <v>0.221</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="59">
         <v>11.6</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="61">
         <v>0.61</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="64">
+      <c r="H17" s="57"/>
+      <c r="I17" s="59">
         <f t="shared" si="1"/>
         <v>15.438914027149321</v>
       </c>
-      <c r="J17" s="64">
+      <c r="J17" s="59">
         <f t="shared" si="3"/>
         <v>200.70588235294119</v>
       </c>
-      <c r="K17" s="64">
+      <c r="K17" s="59">
         <f t="shared" si="0"/>
         <v>212.30588235294118</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="61">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="56">
         <v>11</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="58">
         <v>97</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="60">
         <v>0.30599999999999999</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="59">
         <v>24</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="61">
         <v>0.9</v>
       </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="64">
+      <c r="H18" s="57"/>
+      <c r="I18" s="59">
         <f t="shared" si="1"/>
         <v>11.15032679738562</v>
       </c>
-      <c r="J18" s="64">
+      <c r="J18" s="59">
         <f t="shared" si="3"/>
         <v>144.95424836601308</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="59">
         <f t="shared" si="0"/>
         <v>168.95424836601308</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="61">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="56">
         <v>12</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="58">
         <v>700</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="60">
         <v>0.40699999999999997</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="59">
         <v>5.9</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="61">
         <v>0.92</v>
       </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="64">
+      <c r="H19" s="57"/>
+      <c r="I19" s="59">
         <f t="shared" si="1"/>
         <v>8.3832923832923836</v>
       </c>
-      <c r="J19" s="64">
+      <c r="J19" s="59">
         <f t="shared" si="3"/>
         <v>108.98280098280098</v>
       </c>
-      <c r="K19" s="64">
+      <c r="K19" s="59">
         <f t="shared" si="0"/>
         <v>114.88280098280099</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="61">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="56">
         <v>13</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="58">
         <v>71</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="60">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="59">
         <v>6.1</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G20" s="61">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="64">
+      <c r="H20" s="57"/>
+      <c r="I20" s="59">
         <f t="shared" si="1"/>
         <v>16.725490196078432</v>
       </c>
-      <c r="J20" s="64">
+      <c r="J20" s="59">
         <f t="shared" si="3"/>
         <v>217.43137254901961</v>
       </c>
-      <c r="K20" s="64">
+      <c r="K20" s="59">
         <f t="shared" si="0"/>
         <v>223.53137254901961</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="61">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="56">
         <v>14</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="58">
         <v>368</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="60">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="59">
         <v>3.7</v>
       </c>
-      <c r="G21" s="66">
+      <c r="G21" s="61">
         <v>0.91</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="64">
+      <c r="H21" s="57"/>
+      <c r="I21" s="59">
         <f t="shared" si="1"/>
         <v>12.185714285714285</v>
       </c>
-      <c r="J21" s="64">
+      <c r="J21" s="59">
         <f t="shared" si="3"/>
         <v>158.41428571428571</v>
       </c>
-      <c r="K21" s="64">
+      <c r="K21" s="59">
         <f t="shared" si="0"/>
         <v>162.1142857142857</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="61">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="56">
         <v>15</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="58">
         <v>134</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="60">
         <v>0.27800000000000002</v>
       </c>
-      <c r="F22" s="64">
+      <c r="F22" s="59">
         <v>14.6</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="61">
         <v>0.9</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="64">
+      <c r="H22" s="57"/>
+      <c r="I22" s="59">
         <f t="shared" si="1"/>
         <v>12.273381294964029</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="59">
         <f t="shared" si="3"/>
         <v>159.55395683453239</v>
       </c>
-      <c r="K22" s="64">
+      <c r="K22" s="59">
         <f t="shared" si="0"/>
         <v>174.15395683453238</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="61">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="56">
         <v>16</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="58">
         <v>1043</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="60">
         <v>0.35899999999999999</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="59">
         <v>8.6</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="61">
         <v>0.92</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="64">
+      <c r="H23" s="57"/>
+      <c r="I23" s="59">
         <f t="shared" si="1"/>
         <v>9.5041782729805018</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="59">
         <f t="shared" si="3"/>
         <v>123.55431754874652</v>
       </c>
-      <c r="K23" s="64">
+      <c r="K23" s="59">
         <f t="shared" si="0"/>
         <v>132.15431754874652</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="61">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="56">
         <v>17</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="58">
         <v>135</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="60">
         <v>0.29599999999999999</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="59">
         <v>3.6</v>
       </c>
-      <c r="G24" s="66">
+      <c r="G24" s="61">
         <v>0.9</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="64">
+      <c r="H24" s="57"/>
+      <c r="I24" s="59">
         <f t="shared" si="1"/>
         <v>11.527027027027026</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="59">
         <f t="shared" si="3"/>
         <v>149.85135135135135</v>
       </c>
-      <c r="K24" s="64">
+      <c r="K24" s="59">
         <f t="shared" si="0"/>
         <v>153.45135135135135</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="61">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="56">
         <v>18</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="58">
         <v>139</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="60">
         <v>0.36099999999999999</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="59">
         <v>21</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="61">
         <v>0.9</v>
       </c>
-      <c r="H25" s="62"/>
-      <c r="I25" s="64">
+      <c r="H25" s="57"/>
+      <c r="I25" s="59">
         <f t="shared" si="1"/>
         <v>9.4515235457063707</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="59">
         <f t="shared" si="3"/>
         <v>122.86980609418282</v>
       </c>
-      <c r="K25" s="64">
+      <c r="K25" s="59">
         <f t="shared" si="0"/>
         <v>143.86980609418282</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="53">
         <v>19</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="58">
         <v>5571</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="66">
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="61">
         <v>0.6</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="64">
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="53">
         <v>20</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="58">
         <v>192</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="64">
+      <c r="E27" s="57"/>
+      <c r="F27" s="59">
         <v>10</v>
       </c>
-      <c r="G27" s="62">
+      <c r="G27" s="57">
         <v>0.25</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="64">
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="59">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="53">
         <v>21</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="63">
+      <c r="D28" s="58">
         <v>200</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="64">
+      <c r="E28" s="60"/>
+      <c r="F28" s="59">
         <v>10</v>
       </c>
-      <c r="G28" s="62">
+      <c r="G28" s="57">
         <v>0.25</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="64">
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="59">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="53">
         <v>22</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="68" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="64" t="s">
+      <c r="F29" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="61">
         <v>1</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H29" s="61">
         <v>500</v>
       </c>
-      <c r="I29" s="62"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="64">
+      <c r="I29" s="57"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="59">
         <f>H29</f>
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>12</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>15</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>29</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="24" t="s">
         <v>39</v>
       </c>
@@ -2555,11 +2555,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="24"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>6</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>12707</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
         <v>34</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="26" t="s">
         <v>100</v>
       </c>
@@ -2655,277 +2655,277 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <v>1</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="62">
+      <c r="D47" s="57">
         <v>2300</v>
       </c>
-      <c r="E47" s="62">
+      <c r="E47" s="57">
         <v>30</v>
       </c>
-      <c r="F47" s="69">
+      <c r="F47" s="64">
         <v>0.1</v>
       </c>
-      <c r="G47" s="64">
+      <c r="G47" s="59">
         <v>10</v>
       </c>
-      <c r="H47" s="69">
+      <c r="H47" s="64">
         <v>0.38</v>
       </c>
-      <c r="I47" s="64">
+      <c r="I47" s="59">
         <v>2</v>
       </c>
-      <c r="J47" s="66">
+      <c r="J47" s="61">
         <v>0.88</v>
       </c>
-      <c r="K47" s="70"/>
-      <c r="L47" s="62">
+      <c r="K47" s="65"/>
+      <c r="L47" s="57">
         <f>$K$3/(H47*1000)</f>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M47" s="62">
+      <c r="M47" s="57">
         <f>L47*$O$8</f>
         <v>22.447368421052634</v>
       </c>
-      <c r="N47" s="64">
+      <c r="N47" s="59">
         <f>M47+I47+G47</f>
         <v>34.44736842105263</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>2</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="62">
+      <c r="D48" s="57">
         <v>2300</v>
       </c>
-      <c r="E48" s="62">
+      <c r="E48" s="57">
         <v>30</v>
       </c>
-      <c r="F48" s="69">
+      <c r="F48" s="64">
         <v>0.1</v>
       </c>
-      <c r="G48" s="64">
+      <c r="G48" s="59">
         <v>5</v>
       </c>
-      <c r="H48" s="69">
+      <c r="H48" s="64">
         <v>0.38</v>
       </c>
-      <c r="I48" s="64">
+      <c r="I48" s="59">
         <v>2</v>
       </c>
-      <c r="J48" s="66">
+      <c r="J48" s="61">
         <v>0.88</v>
       </c>
-      <c r="K48" s="70"/>
-      <c r="L48" s="62">
+      <c r="K48" s="65"/>
+      <c r="L48" s="57">
         <f t="shared" ref="L48:L54" si="4">$K$3/(H48*1000)</f>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M48" s="62">
+      <c r="M48" s="57">
         <f t="shared" ref="M48:M52" si="5">L48*$O$8</f>
         <v>22.447368421052634</v>
       </c>
-      <c r="N48" s="64">
+      <c r="N48" s="59">
         <f t="shared" ref="N48:N52" si="6">M48+I48+G48</f>
         <v>29.447368421052634</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>3</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="62">
+      <c r="D49" s="57">
         <v>2300</v>
       </c>
-      <c r="E49" s="62">
+      <c r="E49" s="57">
         <v>30</v>
       </c>
-      <c r="F49" s="69">
+      <c r="F49" s="64">
         <v>0.1</v>
       </c>
-      <c r="G49" s="64">
+      <c r="G49" s="59">
         <v>0.3</v>
       </c>
-      <c r="H49" s="69">
+      <c r="H49" s="64">
         <v>0.38</v>
       </c>
-      <c r="I49" s="64">
+      <c r="I49" s="59">
         <v>2</v>
       </c>
-      <c r="J49" s="66">
+      <c r="J49" s="61">
         <v>0.88</v>
       </c>
-      <c r="K49" s="70"/>
-      <c r="L49" s="62">
+      <c r="K49" s="65"/>
+      <c r="L49" s="57">
         <f t="shared" si="4"/>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M49" s="62">
+      <c r="M49" s="57">
         <f t="shared" si="5"/>
         <v>22.447368421052634</v>
       </c>
-      <c r="N49" s="64">
+      <c r="N49" s="59">
         <f t="shared" si="6"/>
         <v>24.747368421052634</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>4</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="62">
+      <c r="D50" s="57">
         <v>2300</v>
       </c>
-      <c r="E50" s="62">
+      <c r="E50" s="57">
         <v>30</v>
       </c>
-      <c r="F50" s="69">
+      <c r="F50" s="64">
         <v>0.1</v>
       </c>
-      <c r="G50" s="64">
+      <c r="G50" s="59">
         <v>0.3</v>
       </c>
-      <c r="H50" s="69">
+      <c r="H50" s="64">
         <v>0.38</v>
       </c>
-      <c r="I50" s="64">
+      <c r="I50" s="59">
         <v>2</v>
       </c>
-      <c r="J50" s="66">
+      <c r="J50" s="61">
         <v>0.88</v>
       </c>
-      <c r="K50" s="70"/>
-      <c r="L50" s="62">
+      <c r="K50" s="65"/>
+      <c r="L50" s="57">
         <f t="shared" si="4"/>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M50" s="62">
+      <c r="M50" s="57">
         <f t="shared" si="5"/>
         <v>22.447368421052634</v>
       </c>
-      <c r="N50" s="64">
+      <c r="N50" s="59">
         <f t="shared" si="6"/>
         <v>24.747368421052634</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>5</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="62">
+      <c r="D51" s="57">
         <v>2300</v>
       </c>
-      <c r="E51" s="62">
+      <c r="E51" s="57">
         <v>30</v>
       </c>
-      <c r="F51" s="69">
+      <c r="F51" s="64">
         <v>0.1</v>
       </c>
-      <c r="G51" s="64">
+      <c r="G51" s="59">
         <v>3</v>
       </c>
-      <c r="H51" s="69">
+      <c r="H51" s="64">
         <v>0.38</v>
       </c>
-      <c r="I51" s="64">
+      <c r="I51" s="59">
         <v>2</v>
       </c>
-      <c r="J51" s="66">
+      <c r="J51" s="61">
         <v>0.88</v>
       </c>
-      <c r="K51" s="70"/>
-      <c r="L51" s="62">
+      <c r="K51" s="65"/>
+      <c r="L51" s="57">
         <f t="shared" si="4"/>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M51" s="62">
+      <c r="M51" s="57">
         <f t="shared" si="5"/>
         <v>22.447368421052634</v>
       </c>
-      <c r="N51" s="64">
+      <c r="N51" s="59">
         <f t="shared" si="6"/>
         <v>27.447368421052634</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <v>6</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="62">
+      <c r="D52" s="57">
         <v>2300</v>
       </c>
-      <c r="E52" s="62">
+      <c r="E52" s="57">
         <v>30</v>
       </c>
-      <c r="F52" s="69">
+      <c r="F52" s="64">
         <v>0.1</v>
       </c>
-      <c r="G52" s="64">
+      <c r="G52" s="59">
         <v>5</v>
       </c>
-      <c r="H52" s="69">
+      <c r="H52" s="64">
         <v>0.38</v>
       </c>
-      <c r="I52" s="64">
+      <c r="I52" s="59">
         <v>2</v>
       </c>
-      <c r="J52" s="66">
+      <c r="J52" s="61">
         <v>0.88</v>
       </c>
-      <c r="K52" s="70"/>
-      <c r="L52" s="62">
+      <c r="K52" s="65"/>
+      <c r="L52" s="57">
         <f t="shared" si="4"/>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M52" s="62">
+      <c r="M52" s="57">
         <f t="shared" si="5"/>
         <v>22.447368421052634</v>
       </c>
-      <c r="N52" s="64">
+      <c r="N52" s="59">
         <f t="shared" si="6"/>
         <v>29.447368421052634</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
@@ -2938,52 +2938,52 @@
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <v>7</v>
       </c>
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="62">
+      <c r="D54" s="57">
         <v>1000</v>
       </c>
-      <c r="E54" s="62">
+      <c r="E54" s="57">
         <v>25</v>
       </c>
-      <c r="F54" s="69">
+      <c r="F54" s="64">
         <v>0.1</v>
       </c>
-      <c r="G54" s="64">
+      <c r="G54" s="59">
         <v>0.3</v>
       </c>
-      <c r="H54" s="69">
+      <c r="H54" s="64">
         <v>0.45</v>
       </c>
-      <c r="I54" s="64">
+      <c r="I54" s="59">
         <v>3.4</v>
       </c>
-      <c r="J54" s="66">
+      <c r="J54" s="61">
         <v>0.93</v>
       </c>
-      <c r="K54" s="70"/>
-      <c r="L54" s="62">
+      <c r="K54" s="65"/>
+      <c r="L54" s="57">
         <f t="shared" si="4"/>
         <v>7.5822222222222226</v>
       </c>
-      <c r="M54" s="62">
+      <c r="M54" s="57">
         <f>L54*O10</f>
         <v>60.657777777777781</v>
       </c>
-      <c r="N54" s="64">
+      <c r="N54" s="59">
         <f>M54+I54+G54</f>
         <v>64.357777777777784</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B55" s="36" t="s">
         <v>37</v>
       </c>
@@ -3000,44 +3000,44 @@
       <c r="K55" s="36"/>
       <c r="L55" s="36"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>8</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="62">
+      <c r="D56" s="57">
         <v>3000</v>
       </c>
-      <c r="E56" s="62">
+      <c r="E56" s="57">
         <v>40</v>
       </c>
-      <c r="F56" s="69">
+      <c r="F56" s="64">
         <v>0.1</v>
       </c>
-      <c r="G56" s="64">
+      <c r="G56" s="59">
         <v>10</v>
       </c>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="66">
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="61">
         <v>0.6</v>
       </c>
-      <c r="K56" s="71" t="s">
+      <c r="K56" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="64">
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="59">
         <f>G56</f>
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
@@ -3047,340 +3047,340 @@
       <c r="H57" s="36"/>
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
-      <c r="K57" s="56"/>
+      <c r="K57" s="54"/>
       <c r="L57" s="36"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
         <v>9</v>
       </c>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="62">
+      <c r="D58" s="57">
         <v>1800</v>
       </c>
-      <c r="E58" s="62">
+      <c r="E58" s="57">
         <v>20</v>
       </c>
-      <c r="F58" s="69">
+      <c r="F58" s="64">
         <v>0.1</v>
       </c>
-      <c r="G58" s="64">
+      <c r="G58" s="59">
         <v>5</v>
       </c>
-      <c r="H58" s="62"/>
-      <c r="I58" s="64">
+      <c r="H58" s="57"/>
+      <c r="I58" s="59">
         <v>8</v>
       </c>
-      <c r="J58" s="66">
+      <c r="J58" s="61">
         <v>0.35</v>
       </c>
-      <c r="K58" s="71" t="s">
+      <c r="K58" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="L58" s="62"/>
-      <c r="M58" s="62"/>
-      <c r="N58" s="64">
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="59">
         <f>I58+G58+M58</f>
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
         <v>10</v>
       </c>
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="62">
+      <c r="D59" s="57">
         <v>1800</v>
       </c>
-      <c r="E59" s="62">
+      <c r="E59" s="57">
         <v>20</v>
       </c>
-      <c r="F59" s="69">
+      <c r="F59" s="64">
         <v>0.1</v>
       </c>
-      <c r="G59" s="64">
+      <c r="G59" s="59">
         <v>5</v>
       </c>
-      <c r="H59" s="62"/>
-      <c r="I59" s="64">
+      <c r="H59" s="57"/>
+      <c r="I59" s="59">
         <v>8</v>
       </c>
-      <c r="J59" s="66">
+      <c r="J59" s="61">
         <v>0.3</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="L59" s="62"/>
-      <c r="M59" s="62"/>
-      <c r="N59" s="64">
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="59">
         <f t="shared" ref="N59:N70" si="7">I59+G59+M59</f>
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="36">
         <v>11</v>
       </c>
-      <c r="B60" s="67" t="s">
+      <c r="B60" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="C60" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="62">
+      <c r="D60" s="57">
         <v>1500</v>
       </c>
-      <c r="E60" s="62">
+      <c r="E60" s="57">
         <v>20</v>
       </c>
-      <c r="F60" s="69">
+      <c r="F60" s="64">
         <v>0.1</v>
       </c>
-      <c r="G60" s="64">
+      <c r="G60" s="59">
         <v>5</v>
       </c>
-      <c r="H60" s="62"/>
-      <c r="I60" s="64">
+      <c r="H60" s="57"/>
+      <c r="I60" s="59">
         <v>10</v>
       </c>
-      <c r="J60" s="66">
+      <c r="J60" s="61">
         <v>0.35</v>
       </c>
-      <c r="K60" s="71" t="s">
+      <c r="K60" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="64">
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="59">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="36">
         <v>12</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C61" s="62" t="s">
+      <c r="C61" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="62">
+      <c r="D61" s="57">
         <v>1500</v>
       </c>
-      <c r="E61" s="62">
+      <c r="E61" s="57">
         <v>20</v>
       </c>
-      <c r="F61" s="69">
+      <c r="F61" s="64">
         <v>0.1</v>
       </c>
-      <c r="G61" s="64">
+      <c r="G61" s="59">
         <v>5</v>
       </c>
-      <c r="H61" s="62"/>
-      <c r="I61" s="64">
+      <c r="H61" s="57"/>
+      <c r="I61" s="59">
         <v>10</v>
       </c>
-      <c r="J61" s="66">
+      <c r="J61" s="61">
         <v>0.3</v>
       </c>
-      <c r="K61" s="71" t="s">
+      <c r="K61" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="64">
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="59">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="36">
         <v>13</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="62" t="s">
+      <c r="C62" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="62">
+      <c r="D62" s="57">
         <v>4000</v>
       </c>
-      <c r="E62" s="62">
+      <c r="E62" s="57">
         <v>20</v>
       </c>
-      <c r="F62" s="69">
+      <c r="F62" s="64">
         <v>0.1</v>
       </c>
-      <c r="G62" s="64">
+      <c r="G62" s="59">
         <v>20</v>
       </c>
-      <c r="H62" s="62"/>
-      <c r="I62" s="62">
+      <c r="H62" s="57"/>
+      <c r="I62" s="57">
         <v>20</v>
       </c>
-      <c r="J62" s="66">
+      <c r="J62" s="61">
         <v>0.8</v>
       </c>
-      <c r="K62" s="71" t="s">
+      <c r="K62" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="64">
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="59">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="36">
         <v>14</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="62">
+      <c r="D63" s="57">
         <v>3000</v>
       </c>
-      <c r="E63" s="62">
+      <c r="E63" s="57">
         <v>40</v>
       </c>
-      <c r="F63" s="69">
+      <c r="F63" s="64">
         <v>0.1</v>
       </c>
-      <c r="G63" s="64">
+      <c r="G63" s="59">
         <v>20</v>
       </c>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62">
+      <c r="H63" s="57"/>
+      <c r="I63" s="57">
         <v>0</v>
       </c>
-      <c r="J63" s="66">
+      <c r="J63" s="61">
         <v>0.6</v>
       </c>
-      <c r="K63" s="71" t="s">
+      <c r="K63" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="64">
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="59">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J64" s="9"/>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="62">
+      <c r="D65" s="57">
         <v>700</v>
       </c>
-      <c r="E65" s="62">
+      <c r="E65" s="57">
         <v>20</v>
       </c>
-      <c r="F65" s="69">
+      <c r="F65" s="64">
         <v>0.1</v>
       </c>
-      <c r="G65" s="64">
+      <c r="G65" s="59">
         <f t="shared" ref="G65:G70" si="8">+G47</f>
         <v>10</v>
       </c>
-      <c r="H65" s="69">
+      <c r="H65" s="64">
         <v>0.3</v>
       </c>
-      <c r="I65" s="62">
+      <c r="I65" s="57">
         <v>12</v>
       </c>
-      <c r="J65" s="66">
+      <c r="J65" s="61">
         <v>0.8</v>
       </c>
-      <c r="K65" s="62"/>
-      <c r="L65" s="62">
+      <c r="K65" s="57"/>
+      <c r="L65" s="57">
         <f t="shared" ref="L65:L70" si="9">$K$3/(H65*1000)</f>
         <v>11.373333333333333</v>
       </c>
-      <c r="M65" s="62">
+      <c r="M65" s="57">
         <f>L65*$O$9</f>
         <v>147.85333333333332</v>
       </c>
-      <c r="N65" s="64">
+      <c r="N65" s="59">
         <f t="shared" si="7"/>
         <v>169.85333333333332</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16</v>
       </c>
-      <c r="B66" s="62" t="s">
+      <c r="B66" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="62">
+      <c r="D66" s="57">
         <v>700</v>
       </c>
-      <c r="E66" s="62">
+      <c r="E66" s="57">
         <v>20</v>
       </c>
-      <c r="F66" s="69">
+      <c r="F66" s="64">
         <v>0.1</v>
       </c>
-      <c r="G66" s="64">
+      <c r="G66" s="59">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="H66" s="69">
+      <c r="H66" s="64">
         <v>0.3</v>
       </c>
-      <c r="I66" s="62">
+      <c r="I66" s="57">
         <v>12</v>
       </c>
-      <c r="J66" s="66">
+      <c r="J66" s="61">
         <v>0.8</v>
       </c>
-      <c r="K66" s="62"/>
-      <c r="L66" s="62">
+      <c r="K66" s="57"/>
+      <c r="L66" s="57">
         <f t="shared" si="9"/>
         <v>11.373333333333333</v>
       </c>
-      <c r="M66" s="62">
+      <c r="M66" s="57">
         <f t="shared" ref="M66:M70" si="10">L66*$O$9</f>
         <v>147.85333333333332</v>
       </c>
-      <c r="N66" s="64">
+      <c r="N66" s="59">
         <f t="shared" si="7"/>
         <v>164.85333333333332</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>17</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>160.15333333333334</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>18</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>160.15333333333334</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>19</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>162.85333333333332</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20</v>
       </c>
@@ -3560,17 +3560,17 @@
         <v>164.85333333333332</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E71" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B73" s="24" t="s">
         <v>101</v>
       </c>
@@ -3579,12 +3579,12 @@
       </c>
       <c r="E73" s="37"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65540" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="65540" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K65540" s="11" t="s">
         <v>37</v>
       </c>
@@ -3608,19 +3608,19 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>135</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
         <v>101</v>
       </c>
@@ -3667,9 +3667,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
         <v>48</v>
@@ -3692,7 +3692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>44</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>9307.2000000000007</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>24770.831999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -3737,10 +3737,10 @@
         <v>16266.384</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>+SUM(C4:C6)</f>
         <v>8760</v>
@@ -3750,7 +3750,7 @@
         <v>50344.415999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>86</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="20">
         <v>2017</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>9493.344000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="20">
         <v>2018</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="20">
         <v>2019</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="20">
         <v>2020</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="20">
         <v>2021</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="20">
         <v>2022</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>2023</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="20">
         <v>2024</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="20">
         <v>2025</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="20">
         <v>2026</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="20">
         <v>2027</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="20">
         <v>2028</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="20">
         <v>2029</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="20">
         <v>2030</v>
       </c>
@@ -3904,24 +3904,24 @@
   </sheetPr>
   <dimension ref="A2:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>59</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
         <v>52</v>
@@ -3953,7 +3953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>57</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -4076,22 +4076,22 @@
       <c r="I12" s="12"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="I14" s="55"/>
-    </row>
-    <row r="15" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="68"/>
+    </row>
+    <row r="15" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>70</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -4119,7 +4119,7 @@
         <v>79.680815196650229</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
       <c r="C17" s="19" t="s">
         <v>72</v>
@@ -4141,7 +4141,7 @@
         <v>61.960311166384507</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>71</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>132.3056958750023</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>73</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
@@ -4179,29 +4179,29 @@
       </c>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="19" t="s">
         <v>77</v>
@@ -4210,7 +4210,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>71</v>
       </c>
@@ -4221,7 +4221,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -4231,12 +4231,12 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>75</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>75</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>84</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>85</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>79</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>89</v>
       </c>
@@ -4320,43 +4320,43 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
     </row>
   </sheetData>
@@ -4374,23 +4374,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:K90"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>50</v>
@@ -4405,7 +4405,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="28" t="s">
         <v>106</v>
@@ -4420,7 +4420,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -4460,7 +4460,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -4480,7 +4480,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -4540,7 +4540,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -4580,7 +4580,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -4600,7 +4600,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -4680,226 +4680,226 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="12"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="12"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="12"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="12"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="12"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="12"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="12"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="12"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="12"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="12"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="12"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="12"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="12"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="12"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="12"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="12"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="12"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="12"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="12"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="12"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="12"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="12"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="12"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="12"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="12"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="12"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="12"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="12"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="12"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="12"/>
     </row>
   </sheetData>
@@ -4911,18 +4911,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q44"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="B27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>110</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -4950,7 +4950,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>111</v>
       </c>
@@ -4976,7 +4976,7 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>112</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>113</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D8" s="7"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5022,7 +5022,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>114</v>
       </c>
@@ -5033,7 +5033,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>110</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
@@ -5063,7 +5063,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>115</v>
       </c>
@@ -5081,7 +5081,7 @@
       <c r="H12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>116</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="H13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>117</v>
       </c>
@@ -5117,14 +5117,14 @@
       <c r="H14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>118</v>
       </c>
@@ -5134,7 +5134,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>110</v>
       </c>
@@ -5147,7 +5147,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="6" t="s">
         <v>11</v>
@@ -5164,7 +5164,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>119</v>
       </c>
@@ -5183,7 +5183,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>120</v>
       </c>
@@ -5202,7 +5202,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>121</v>
       </c>
@@ -5221,7 +5221,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -5229,7 +5229,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -5237,7 +5237,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>122</v>
       </c>
@@ -5248,32 +5248,32 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="6" t="s">
         <v>50</v>
@@ -5285,7 +5285,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>73</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>126</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>71</v>
       </c>
@@ -5327,33 +5327,33 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F44" s="3"/>
     </row>
   </sheetData>
@@ -5370,19 +5370,19 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>155</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="53" t="s">
         <v>172</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
         <v>175</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
         <v>177</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
         <v>179</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="53" t="s">
         <v>181</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="53" t="s">
         <v>183</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="53" t="s">
         <v>184</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>187</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
         <v>189</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="53" t="s">
         <v>191</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="53" t="s">
         <v>192</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
         <v>194</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="53" t="s">
         <v>195</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
         <v>197</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="53" t="s">
         <v>198</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
         <v>199</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="53" t="s">
         <v>200</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="53" t="s">
         <v>202</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="53" t="s">
         <v>204</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
         <v>206</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="53" t="s">
         <v>208</v>
       </c>
@@ -6501,9 +6501,9 @@
       <selection activeCell="B4" sqref="B4:R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>155</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>172</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>175</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>177</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>181</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>183</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>184</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>187</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>189</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>191</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>192</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>194</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>195</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>197</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>198</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>199</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>200</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>202</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>204</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>206</v>
       </c>
@@ -7731,28 +7731,28 @@
       <selection activeCell="I4" sqref="I4:K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="9:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="9:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="58" t="s">
+    <row r="3" spans="9:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="9:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I5" s="57" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+    </row>
+    <row r="5" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="55" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I6" s="53" t="s">
         <v>218</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I7" s="53" t="s">
         <v>218</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I8" s="53" t="s">
         <v>218</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I9" s="53" t="s">
         <v>218</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I10" s="53" t="s">
         <v>218</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I11" s="53" t="s">
         <v>218</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I12" s="53" t="s">
         <v>218</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I13" s="53" t="s">
         <v>218</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I14" s="53" t="s">
         <v>218</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I15" s="53" t="s">
         <v>218</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I16" s="53" t="s">
         <v>218</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I17" s="53" t="s">
         <v>218</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I18" s="53" t="s">
         <v>218</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I19" s="53" t="s">
         <v>218</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I20" s="53" t="s">
         <v>218</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I21" s="53" t="s">
         <v>218</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I22" s="53" t="s">
         <v>227</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I23" s="53" t="s">
         <v>227</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I24" s="53" t="s">
         <v>227</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I25" s="53" t="s">
         <v>227</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I26" s="53" t="s">
         <v>227</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I27" s="53" t="s">
         <v>227</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I28" s="53" t="s">
         <v>227</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I29" s="53" t="s">
         <v>227</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I30" s="53" t="s">
         <v>227</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I31" s="53" t="s">
         <v>227</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I32" s="53" t="s">
         <v>227</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I33" s="53" t="s">
         <v>227</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I34" s="53" t="s">
         <v>227</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I35" s="53" t="s">
         <v>227</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I36" s="53" t="s">
         <v>227</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I37" s="53" t="s">
         <v>227</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I38" s="53" t="s">
         <v>228</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I39" s="53" t="s">
         <v>228</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I40" s="53" t="s">
         <v>228</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I41" s="53" t="s">
         <v>228</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I42" s="53" t="s">
         <v>228</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I43" s="53" t="s">
         <v>228</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I44" s="53" t="s">
         <v>228</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I45" s="53" t="s">
         <v>228</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I46" s="53" t="s">
         <v>228</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I47" s="53" t="s">
         <v>228</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I48" s="53" t="s">
         <v>228</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I49" s="53" t="s">
         <v>228</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I50" s="53" t="s">
         <v>228</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I51" s="53" t="s">
         <v>228</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I52" s="53" t="s">
         <v>228</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I53" s="53" t="s">
         <v>228</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I54" s="53" t="s">
         <v>229</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I55" s="53" t="s">
         <v>229</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I56" s="53" t="s">
         <v>229</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I57" s="53" t="s">
         <v>229</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I58" s="53" t="s">
         <v>229</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I59" s="53" t="s">
         <v>229</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I60" s="53" t="s">
         <v>229</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I61" s="53" t="s">
         <v>229</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I62" s="53" t="s">
         <v>229</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I63" s="53" t="s">
         <v>229</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I64" s="53" t="s">
         <v>229</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I65" s="53" t="s">
         <v>229</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I66" s="53" t="s">
         <v>229</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I67" s="53" t="s">
         <v>229</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I68" s="53" t="s">
         <v>229</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I69" s="53" t="s">
         <v>229</v>
       </c>

--- a/T1/Datos.xlsx
+++ b/T1/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Eco&amp;Med\Tareas_Economed\T1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Econo_Med\Tareas_Economed\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DFB902-5729-427F-8EB7-1C4C0B83C1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B9935F-72DB-4546-9167-C2D8BA942641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="733" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" tabRatio="733" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centrales" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="centrales_n_ED_CS" sheetId="8" r:id="rId8"/>
     <sheet name="Combinaciones" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="234">
   <si>
     <t>Potencia</t>
   </si>
@@ -781,6 +781,12 @@
   </si>
   <si>
     <t>costos vasriables totales</t>
+  </si>
+  <si>
+    <t>Energía (GWh)</t>
+  </si>
+  <si>
+    <t>Potencia (MW)</t>
   </si>
 </sst>
 </file>
@@ -843,7 +849,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,7 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1203,9 +1215,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1268,19 +1277,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1607,28 +1633,30 @@
   </sheetPr>
   <dimension ref="A2:O65540"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="B52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70:N70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1636,7 +1664,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1652,12 +1680,12 @@
       <c r="H4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1670,15 +1698,15 @@
       <c r="I5" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1702,48 +1730,50 @@
       <c r="I6" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="24" t="s">
         <v>142</v>
       </c>
       <c r="K6" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="O7" s="25" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="O7" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="56">
         <v>60</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59">
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57">
         <v>0.9</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="57">
         <v>48.7</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="59">
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="57">
         <f>J8+H8+F8</f>
         <v>48.7</v>
       </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
       <c r="N8" t="s">
         <v>15</v>
       </c>
@@ -1751,72 +1781,74 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="55">
         <v>2</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="56">
         <v>204</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59">
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57">
         <v>0.9</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="57">
         <v>44.5</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="59">
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="57">
         <f t="shared" ref="K9:K28" si="0">J9+H9+F9</f>
         <v>44.5</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="23" t="s">
         <v>135</v>
       </c>
       <c r="O9" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="56">
         <v>575</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="59">
         <v>0.376</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="57">
         <v>1.9</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="60">
         <v>0.88</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="59">
+      <c r="H10" s="35"/>
+      <c r="I10" s="57">
         <f>$K$3/(E10*1000)</f>
         <v>9.0744680851063837</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="57">
         <f>I10*$O$8</f>
         <v>22.686170212765958</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K10" s="57">
         <f t="shared" si="0"/>
         <v>24.586170212765957</v>
       </c>
@@ -1827,672 +1859,672 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="55">
         <v>4</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="56">
         <v>812</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="59">
         <v>0.35</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="57">
         <v>3.1</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="60">
         <v>0.88</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="59">
+      <c r="H11" s="35"/>
+      <c r="I11" s="57">
         <f t="shared" ref="I11:I25" si="1">$K$3/(E11*1000)</f>
         <v>9.7485714285714291</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="57">
         <f t="shared" ref="J11:J12" si="2">I11*$O$8</f>
         <v>24.371428571428574</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="57">
         <f t="shared" si="0"/>
         <v>27.471428571428575</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="55">
         <v>5</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="56">
         <v>806</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="59">
         <v>0.38</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="57">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="60">
         <v>0.87</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="59">
+      <c r="H12" s="35"/>
+      <c r="I12" s="57">
         <f t="shared" si="1"/>
         <v>8.9789473684210535</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="57">
         <f t="shared" si="2"/>
         <v>22.447368421052634</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="57">
         <f t="shared" si="0"/>
         <v>26.547368421052632</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="56">
         <v>731</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="59">
         <v>0.45400000000000001</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="57">
         <v>3.4</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="60">
         <v>0.93</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="59">
+      <c r="H13" s="35"/>
+      <c r="I13" s="57">
         <f t="shared" si="1"/>
         <v>7.5154185022026434</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="57">
         <f>I13*O10</f>
         <v>60.123348017621147</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="57">
         <f t="shared" si="0"/>
         <v>63.523348017621146</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="55">
         <v>7</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="56">
         <v>439</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="57">
         <v>11.5</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="60">
         <v>0.9</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="59">
+      <c r="H14" s="35"/>
+      <c r="I14" s="57">
         <f t="shared" si="1"/>
         <v>12.185714285714285</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="57">
         <f>$O$9*I14</f>
         <v>158.41428571428571</v>
       </c>
-      <c r="K14" s="59">
+      <c r="K14" s="57">
         <f t="shared" si="0"/>
         <v>169.91428571428571</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="55">
         <v>8</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="56">
         <v>169</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="59">
         <v>0.33500000000000002</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="57">
         <v>16.5</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="60">
         <v>0.9</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="59">
+      <c r="H15" s="35"/>
+      <c r="I15" s="57">
         <f t="shared" si="1"/>
         <v>10.185074626865672</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="57">
         <f t="shared" ref="J15:J25" si="3">$O$9*I15</f>
         <v>132.40597014925373</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="57">
         <f t="shared" si="0"/>
         <v>148.90597014925373</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="55">
         <v>9</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="56">
         <v>203</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="59">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="57">
         <v>12.5</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="60">
         <v>0.44</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="59">
+      <c r="H16" s="35"/>
+      <c r="I16" s="57">
         <f t="shared" si="1"/>
         <v>9.5307262569832396</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="57">
         <f t="shared" si="3"/>
         <v>123.89944134078212</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="57">
         <f t="shared" si="0"/>
         <v>136.39944134078212</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="55">
         <v>10</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="56">
         <v>58</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="59">
         <v>0.221</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="57">
         <v>11.6</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="60">
         <v>0.61</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="59">
+      <c r="H17" s="35"/>
+      <c r="I17" s="57">
         <f t="shared" si="1"/>
         <v>15.438914027149321</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="57">
         <f t="shared" si="3"/>
         <v>200.70588235294119</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="57">
         <f t="shared" si="0"/>
         <v>212.30588235294118</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="55">
         <v>11</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="56">
         <v>97</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="59">
         <v>0.30599999999999999</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="57">
         <v>24</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="60">
         <v>0.9</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="59">
+      <c r="H18" s="35"/>
+      <c r="I18" s="57">
         <f t="shared" si="1"/>
         <v>11.15032679738562</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="57">
         <f t="shared" si="3"/>
         <v>144.95424836601308</v>
       </c>
-      <c r="K18" s="59">
+      <c r="K18" s="57">
         <f t="shared" si="0"/>
         <v>168.95424836601308</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="55">
         <v>12</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="56">
         <v>700</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="59">
         <v>0.40699999999999997</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="57">
         <v>5.9</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="60">
         <v>0.92</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="59">
+      <c r="H19" s="35"/>
+      <c r="I19" s="57">
         <f t="shared" si="1"/>
         <v>8.3832923832923836</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="57">
         <f t="shared" si="3"/>
         <v>108.98280098280098</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="57">
         <f t="shared" si="0"/>
         <v>114.88280098280099</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="55">
         <v>13</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="56">
         <v>71</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="59">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="57">
         <v>6.1</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="60">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="59">
+      <c r="H20" s="35"/>
+      <c r="I20" s="57">
         <f t="shared" si="1"/>
         <v>16.725490196078432</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="57">
         <f t="shared" si="3"/>
         <v>217.43137254901961</v>
       </c>
-      <c r="K20" s="59">
+      <c r="K20" s="57">
         <f t="shared" si="0"/>
         <v>223.53137254901961</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="55">
         <v>14</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="56">
         <v>368</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="57">
         <v>3.7</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="60">
         <v>0.91</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="59">
+      <c r="H21" s="35"/>
+      <c r="I21" s="57">
         <f t="shared" si="1"/>
         <v>12.185714285714285</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="57">
         <f t="shared" si="3"/>
         <v>158.41428571428571</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="57">
         <f t="shared" si="0"/>
         <v>162.1142857142857</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="55">
         <v>15</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="56">
         <v>134</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="59">
         <v>0.27800000000000002</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="57">
         <v>14.6</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="60">
         <v>0.9</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="59">
+      <c r="H22" s="35"/>
+      <c r="I22" s="57">
         <f t="shared" si="1"/>
         <v>12.273381294964029</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="57">
         <f t="shared" si="3"/>
         <v>159.55395683453239</v>
       </c>
-      <c r="K22" s="59">
+      <c r="K22" s="57">
         <f t="shared" si="0"/>
         <v>174.15395683453238</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="56">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="55">
         <v>16</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="56">
         <v>1043</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="59">
         <v>0.35899999999999999</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="57">
         <v>8.6</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="60">
         <v>0.92</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="59">
+      <c r="H23" s="35"/>
+      <c r="I23" s="57">
         <f t="shared" si="1"/>
         <v>9.5041782729805018</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="57">
         <f t="shared" si="3"/>
         <v>123.55431754874652</v>
       </c>
-      <c r="K23" s="59">
+      <c r="K23" s="57">
         <f t="shared" si="0"/>
         <v>132.15431754874652</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="56">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="55">
         <v>17</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="56">
         <v>135</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="59">
         <v>0.29599999999999999</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="57">
         <v>3.6</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24" s="60">
         <v>0.9</v>
       </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59">
+      <c r="H24" s="35"/>
+      <c r="I24" s="57">
         <f t="shared" si="1"/>
         <v>11.527027027027026</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="57">
         <f t="shared" si="3"/>
         <v>149.85135135135135</v>
       </c>
-      <c r="K24" s="59">
+      <c r="K24" s="57">
         <f t="shared" si="0"/>
         <v>153.45135135135135</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="56">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="55">
         <v>18</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="56">
         <v>139</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="59">
         <v>0.36099999999999999</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="57">
         <v>21</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="60">
         <v>0.9</v>
       </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="59">
+      <c r="H25" s="35"/>
+      <c r="I25" s="57">
         <f t="shared" si="1"/>
         <v>9.4515235457063707</v>
       </c>
-      <c r="J25" s="59">
+      <c r="J25" s="57">
         <f t="shared" si="3"/>
         <v>122.86980609418282</v>
       </c>
-      <c r="K25" s="59">
+      <c r="K25" s="57">
         <f t="shared" si="0"/>
         <v>143.86980609418282</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="53">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="55">
         <v>19</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="56">
         <v>5571</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="61">
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="60">
         <v>0.6</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="59">
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="53">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="55">
         <v>20</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="56">
         <v>192</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="59">
+      <c r="E27" s="35"/>
+      <c r="F27" s="57">
         <v>10</v>
       </c>
-      <c r="G27" s="57">
+      <c r="G27" s="35">
         <v>0.25</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="59">
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="57">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="53">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="55">
         <v>21</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="56">
         <v>200</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="59">
+      <c r="E28" s="59"/>
+      <c r="F28" s="57">
         <v>10</v>
       </c>
-      <c r="G28" s="57">
+      <c r="G28" s="35">
         <v>0.25</v>
       </c>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="59">
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="57">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="53">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="55">
         <v>22</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="63" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G29" s="60">
         <v>1</v>
       </c>
-      <c r="H29" s="61">
+      <c r="H29" s="60">
         <v>500</v>
       </c>
-      <c r="I29" s="57"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="59">
+      <c r="I29" s="35"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="57">
         <f>H29</f>
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>12</v>
       </c>
@@ -2501,7 +2533,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>15</v>
       </c>
@@ -2510,7 +2542,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -2519,7 +2551,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -2528,7 +2560,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>29</v>
       </c>
@@ -2537,7 +2569,7 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -2546,8 +2578,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="24" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="23" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="7">
@@ -2555,11 +2587,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="24"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="23"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>6</v>
       </c>
@@ -2568,18 +2600,18 @@
         <v>12707</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="25" t="s">
+      <c r="K44" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="M44" s="34" t="s">
+      <c r="M44" s="33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D45" s="3" t="s">
         <v>34</v>
       </c>
@@ -2601,21 +2633,21 @@
       <c r="J45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K45" s="27" t="s">
+      <c r="K45" s="26" t="s">
         <v>103</v>
       </c>
       <c r="L45" t="s">
         <v>137</v>
       </c>
-      <c r="M45" s="34" t="s">
+      <c r="M45" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="N45" s="24" t="s">
+      <c r="N45" s="23" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="26" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -2648,943 +2680,915 @@
       <c r="L46" t="s">
         <v>138</v>
       </c>
-      <c r="M46" s="25" t="s">
+      <c r="M46" s="24" t="s">
         <v>142</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="36">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>1</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="57">
+      <c r="D47" s="35">
         <v>2300</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E47" s="35">
         <v>30</v>
       </c>
-      <c r="F47" s="64">
+      <c r="F47" s="68">
         <v>0.1</v>
       </c>
-      <c r="G47" s="59">
+      <c r="G47" s="57">
         <v>10</v>
       </c>
-      <c r="H47" s="64">
+      <c r="H47" s="68">
         <v>0.38</v>
       </c>
-      <c r="I47" s="59">
+      <c r="I47" s="57">
         <v>2</v>
       </c>
-      <c r="J47" s="61">
+      <c r="J47" s="60">
         <v>0.88</v>
       </c>
-      <c r="K47" s="65"/>
-      <c r="L47" s="57">
+      <c r="K47" s="69"/>
+      <c r="L47" s="35">
         <f>$K$3/(H47*1000)</f>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M47" s="57">
+      <c r="M47" s="35">
         <f>L47*$O$8</f>
         <v>22.447368421052634</v>
       </c>
-      <c r="N47" s="59">
+      <c r="N47" s="57">
         <f>M47+I47+G47</f>
         <v>34.44736842105263</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="36">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>2</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="57">
+      <c r="D48" s="35">
         <v>2300</v>
       </c>
-      <c r="E48" s="57">
+      <c r="E48" s="35">
         <v>30</v>
       </c>
-      <c r="F48" s="64">
+      <c r="F48" s="68">
         <v>0.1</v>
       </c>
-      <c r="G48" s="59">
+      <c r="G48" s="57">
         <v>5</v>
       </c>
-      <c r="H48" s="64">
+      <c r="H48" s="68">
         <v>0.38</v>
       </c>
-      <c r="I48" s="59">
+      <c r="I48" s="57">
         <v>2</v>
       </c>
-      <c r="J48" s="61">
+      <c r="J48" s="60">
         <v>0.88</v>
       </c>
-      <c r="K48" s="65"/>
-      <c r="L48" s="57">
+      <c r="K48" s="69"/>
+      <c r="L48" s="35">
         <f t="shared" ref="L48:L54" si="4">$K$3/(H48*1000)</f>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M48" s="57">
+      <c r="M48" s="35">
         <f t="shared" ref="M48:M52" si="5">L48*$O$8</f>
         <v>22.447368421052634</v>
       </c>
-      <c r="N48" s="59">
+      <c r="N48" s="57">
         <f t="shared" ref="N48:N52" si="6">M48+I48+G48</f>
         <v>29.447368421052634</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="36">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>3</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="57">
+      <c r="D49" s="35">
         <v>2300</v>
       </c>
-      <c r="E49" s="57">
+      <c r="E49" s="35">
         <v>30</v>
       </c>
-      <c r="F49" s="64">
+      <c r="F49" s="68">
         <v>0.1</v>
       </c>
-      <c r="G49" s="59">
+      <c r="G49" s="57">
         <v>0.3</v>
       </c>
-      <c r="H49" s="64">
+      <c r="H49" s="68">
         <v>0.38</v>
       </c>
-      <c r="I49" s="59">
+      <c r="I49" s="57">
         <v>2</v>
       </c>
-      <c r="J49" s="61">
+      <c r="J49" s="60">
         <v>0.88</v>
       </c>
-      <c r="K49" s="65"/>
-      <c r="L49" s="57">
+      <c r="K49" s="69"/>
+      <c r="L49" s="35">
         <f t="shared" si="4"/>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M49" s="57">
+      <c r="M49" s="35">
         <f t="shared" si="5"/>
         <v>22.447368421052634</v>
       </c>
-      <c r="N49" s="59">
+      <c r="N49" s="57">
         <f t="shared" si="6"/>
         <v>24.747368421052634</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="36">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>4</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="57">
+      <c r="D50" s="35">
         <v>2300</v>
       </c>
-      <c r="E50" s="57">
+      <c r="E50" s="35">
         <v>30</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F50" s="68">
         <v>0.1</v>
       </c>
-      <c r="G50" s="59">
+      <c r="G50" s="57">
         <v>0.3</v>
       </c>
-      <c r="H50" s="64">
+      <c r="H50" s="68">
         <v>0.38</v>
       </c>
-      <c r="I50" s="59">
+      <c r="I50" s="57">
         <v>2</v>
       </c>
-      <c r="J50" s="61">
+      <c r="J50" s="60">
         <v>0.88</v>
       </c>
-      <c r="K50" s="65"/>
-      <c r="L50" s="57">
+      <c r="K50" s="69"/>
+      <c r="L50" s="35">
         <f t="shared" si="4"/>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M50" s="57">
+      <c r="M50" s="35">
         <f t="shared" si="5"/>
         <v>22.447368421052634</v>
       </c>
-      <c r="N50" s="59">
+      <c r="N50" s="57">
         <f t="shared" si="6"/>
         <v>24.747368421052634</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="57">
+      <c r="D51" s="35">
         <v>2300</v>
       </c>
-      <c r="E51" s="57">
+      <c r="E51" s="35">
         <v>30</v>
       </c>
-      <c r="F51" s="64">
+      <c r="F51" s="68">
         <v>0.1</v>
       </c>
-      <c r="G51" s="59">
+      <c r="G51" s="57">
         <v>3</v>
       </c>
-      <c r="H51" s="64">
+      <c r="H51" s="68">
         <v>0.38</v>
       </c>
-      <c r="I51" s="59">
+      <c r="I51" s="57">
         <v>2</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="60">
         <v>0.88</v>
       </c>
-      <c r="K51" s="65"/>
-      <c r="L51" s="57">
+      <c r="K51" s="69"/>
+      <c r="L51" s="35">
         <f t="shared" si="4"/>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M51" s="57">
+      <c r="M51" s="35">
         <f t="shared" si="5"/>
         <v>22.447368421052634</v>
       </c>
-      <c r="N51" s="59">
+      <c r="N51" s="57">
         <f t="shared" si="6"/>
         <v>27.447368421052634</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="36">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>6</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="57" t="s">
+      <c r="C52" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="57">
+      <c r="D52" s="35">
         <v>2300</v>
       </c>
-      <c r="E52" s="57">
+      <c r="E52" s="35">
         <v>30</v>
       </c>
-      <c r="F52" s="64">
+      <c r="F52" s="68">
         <v>0.1</v>
       </c>
-      <c r="G52" s="59">
+      <c r="G52" s="57">
         <v>5</v>
       </c>
-      <c r="H52" s="64">
+      <c r="H52" s="68">
         <v>0.38</v>
       </c>
-      <c r="I52" s="59">
+      <c r="I52" s="57">
         <v>2</v>
       </c>
-      <c r="J52" s="61">
+      <c r="J52" s="60">
         <v>0.88</v>
       </c>
-      <c r="K52" s="65"/>
-      <c r="L52" s="57">
+      <c r="K52" s="69"/>
+      <c r="L52" s="35">
         <f t="shared" si="4"/>
         <v>8.9789473684210535</v>
       </c>
-      <c r="M52" s="57">
+      <c r="M52" s="35">
         <f t="shared" si="5"/>
         <v>22.447368421052634</v>
       </c>
-      <c r="N52" s="59">
+      <c r="N52" s="57">
         <f t="shared" si="6"/>
         <v>29.447368421052634</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="36">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>7</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="57" t="s">
+      <c r="C54" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="57">
+      <c r="D54" s="35">
         <v>1000</v>
       </c>
-      <c r="E54" s="57">
+      <c r="E54" s="35">
         <v>25</v>
       </c>
-      <c r="F54" s="64">
+      <c r="F54" s="68">
         <v>0.1</v>
       </c>
-      <c r="G54" s="59">
+      <c r="G54" s="57">
         <v>0.3</v>
       </c>
-      <c r="H54" s="64">
+      <c r="H54" s="68">
         <v>0.45</v>
       </c>
-      <c r="I54" s="59">
+      <c r="I54" s="57">
         <v>3.4</v>
       </c>
-      <c r="J54" s="61">
+      <c r="J54" s="60">
         <v>0.93</v>
       </c>
-      <c r="K54" s="65"/>
-      <c r="L54" s="57">
+      <c r="K54" s="69"/>
+      <c r="L54" s="35">
         <f t="shared" si="4"/>
         <v>7.5822222222222226</v>
       </c>
-      <c r="M54" s="57">
+      <c r="M54" s="35">
         <f>L54*O10</f>
         <v>60.657777777777781</v>
       </c>
-      <c r="N54" s="59">
+      <c r="N54" s="57">
         <f>M54+I54+G54</f>
         <v>64.357777777777784</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="36" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="36">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>8</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="57">
+      <c r="D56" s="35">
         <v>3000</v>
       </c>
-      <c r="E56" s="57">
+      <c r="E56" s="35">
         <v>40</v>
       </c>
-      <c r="F56" s="64">
+      <c r="F56" s="68">
         <v>0.1</v>
       </c>
-      <c r="G56" s="59">
+      <c r="G56" s="57">
         <v>10</v>
       </c>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="61">
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="60">
         <v>0.6</v>
       </c>
-      <c r="K56" s="66" t="s">
+      <c r="K56" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="59">
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="57">
         <f>G56</f>
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="36"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="36">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>9</v>
       </c>
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="57">
+      <c r="D58" s="35">
         <v>1800</v>
       </c>
-      <c r="E58" s="57">
+      <c r="E58" s="35">
         <v>20</v>
       </c>
-      <c r="F58" s="64">
+      <c r="F58" s="68">
         <v>0.1</v>
       </c>
-      <c r="G58" s="59">
+      <c r="G58" s="57">
         <v>5</v>
       </c>
-      <c r="H58" s="57"/>
-      <c r="I58" s="59">
+      <c r="H58" s="35"/>
+      <c r="I58" s="57">
         <v>8</v>
       </c>
-      <c r="J58" s="61">
+      <c r="J58" s="60">
         <v>0.35</v>
       </c>
-      <c r="K58" s="66" t="s">
+      <c r="K58" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="59">
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="57">
         <f>I58+G58+M58</f>
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="36">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>10</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="57" t="s">
+      <c r="C59" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="57">
+      <c r="D59" s="35">
         <v>1800</v>
       </c>
-      <c r="E59" s="57">
+      <c r="E59" s="35">
         <v>20</v>
       </c>
-      <c r="F59" s="64">
+      <c r="F59" s="68">
         <v>0.1</v>
       </c>
-      <c r="G59" s="59">
+      <c r="G59" s="57">
         <v>5</v>
       </c>
-      <c r="H59" s="57"/>
-      <c r="I59" s="59">
+      <c r="H59" s="35"/>
+      <c r="I59" s="57">
         <v>8</v>
       </c>
-      <c r="J59" s="61">
+      <c r="J59" s="60">
         <v>0.3</v>
       </c>
-      <c r="K59" s="66" t="s">
+      <c r="K59" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="59">
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="57">
         <f t="shared" ref="N59:N70" si="7">I59+G59+M59</f>
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="36">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>11</v>
       </c>
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="57">
+      <c r="D60" s="35">
         <v>1500</v>
       </c>
-      <c r="E60" s="57">
+      <c r="E60" s="35">
         <v>20</v>
       </c>
-      <c r="F60" s="64">
+      <c r="F60" s="68">
         <v>0.1</v>
       </c>
-      <c r="G60" s="59">
+      <c r="G60" s="57">
         <v>5</v>
       </c>
-      <c r="H60" s="57"/>
-      <c r="I60" s="59">
+      <c r="H60" s="35"/>
+      <c r="I60" s="57">
         <v>10</v>
       </c>
-      <c r="J60" s="61">
+      <c r="J60" s="60">
         <v>0.35</v>
       </c>
-      <c r="K60" s="66" t="s">
+      <c r="K60" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="59">
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="57">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="36">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>12</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="57">
+      <c r="D61" s="35">
         <v>1500</v>
       </c>
-      <c r="E61" s="57">
+      <c r="E61" s="35">
         <v>20</v>
       </c>
-      <c r="F61" s="64">
+      <c r="F61" s="68">
         <v>0.1</v>
       </c>
-      <c r="G61" s="59">
+      <c r="G61" s="57">
         <v>5</v>
       </c>
-      <c r="H61" s="57"/>
-      <c r="I61" s="59">
+      <c r="H61" s="35"/>
+      <c r="I61" s="57">
         <v>10</v>
       </c>
-      <c r="J61" s="61">
+      <c r="J61" s="60">
         <v>0.3</v>
       </c>
-      <c r="K61" s="66" t="s">
+      <c r="K61" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="59">
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="57">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="36">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>13</v>
       </c>
-      <c r="B62" s="57" t="s">
+      <c r="B62" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="57" t="s">
+      <c r="C62" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="57">
+      <c r="D62" s="35">
         <v>4000</v>
       </c>
-      <c r="E62" s="57">
+      <c r="E62" s="35">
         <v>20</v>
       </c>
-      <c r="F62" s="64">
+      <c r="F62" s="68">
         <v>0.1</v>
       </c>
-      <c r="G62" s="59">
+      <c r="G62" s="57">
         <v>20</v>
       </c>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57">
+      <c r="H62" s="35"/>
+      <c r="I62" s="35">
         <v>20</v>
       </c>
-      <c r="J62" s="61">
+      <c r="J62" s="60">
         <v>0.8</v>
       </c>
-      <c r="K62" s="66" t="s">
+      <c r="K62" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="59">
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="57">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="36">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>14</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="57">
+      <c r="D63" s="35">
         <v>3000</v>
       </c>
-      <c r="E63" s="57">
+      <c r="E63" s="35">
         <v>40</v>
       </c>
-      <c r="F63" s="64">
+      <c r="F63" s="68">
         <v>0.1</v>
       </c>
-      <c r="G63" s="59">
+      <c r="G63" s="57">
         <v>20</v>
       </c>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57">
+      <c r="H63" s="35"/>
+      <c r="I63" s="35">
         <v>0</v>
       </c>
-      <c r="J63" s="61">
+      <c r="J63" s="60">
         <v>0.6</v>
       </c>
-      <c r="K63" s="66" t="s">
+      <c r="K63" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="59">
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="57">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J64" s="9"/>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>15</v>
       </c>
-      <c r="B65" s="57" t="s">
+      <c r="B65" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="57">
+      <c r="D65" s="35">
         <v>700</v>
       </c>
-      <c r="E65" s="57">
+      <c r="E65" s="35">
         <v>20</v>
       </c>
-      <c r="F65" s="64">
+      <c r="F65" s="68">
         <v>0.1</v>
       </c>
-      <c r="G65" s="59">
+      <c r="G65" s="57">
         <f t="shared" ref="G65:G70" si="8">+G47</f>
         <v>10</v>
       </c>
-      <c r="H65" s="64">
+      <c r="H65" s="68">
         <v>0.3</v>
       </c>
-      <c r="I65" s="57">
+      <c r="I65" s="35">
         <v>12</v>
       </c>
-      <c r="J65" s="61">
+      <c r="J65" s="60">
         <v>0.8</v>
       </c>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57">
+      <c r="K65" s="35"/>
+      <c r="L65" s="35">
         <f t="shared" ref="L65:L70" si="9">$K$3/(H65*1000)</f>
         <v>11.373333333333333</v>
       </c>
-      <c r="M65" s="57">
+      <c r="M65" s="35">
         <f>L65*$O$9</f>
         <v>147.85333333333332</v>
       </c>
-      <c r="N65" s="59">
+      <c r="N65" s="57">
         <f t="shared" si="7"/>
         <v>169.85333333333332</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>16</v>
       </c>
-      <c r="B66" s="57" t="s">
+      <c r="B66" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="57">
+      <c r="D66" s="35">
         <v>700</v>
       </c>
-      <c r="E66" s="57">
+      <c r="E66" s="35">
         <v>20</v>
       </c>
-      <c r="F66" s="64">
+      <c r="F66" s="68">
         <v>0.1</v>
       </c>
-      <c r="G66" s="59">
+      <c r="G66" s="57">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="H66" s="64">
+      <c r="H66" s="68">
         <v>0.3</v>
       </c>
-      <c r="I66" s="57">
+      <c r="I66" s="35">
         <v>12</v>
       </c>
-      <c r="J66" s="61">
+      <c r="J66" s="60">
         <v>0.8</v>
       </c>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57">
+      <c r="K66" s="35"/>
+      <c r="L66" s="35">
         <f t="shared" si="9"/>
         <v>11.373333333333333</v>
       </c>
-      <c r="M66" s="57">
+      <c r="M66" s="35">
         <f t="shared" ref="M66:M70" si="10">L66*$O$9</f>
         <v>147.85333333333332</v>
       </c>
-      <c r="N66" s="59">
+      <c r="N66" s="57">
         <f t="shared" si="7"/>
         <v>164.85333333333332</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>17</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="35">
         <v>700</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="35">
         <v>20</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="68">
         <v>0.1</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="57">
         <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="68">
         <v>0.3</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="35">
         <v>12</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J67" s="60">
         <v>0.8</v>
       </c>
-      <c r="L67">
+      <c r="K67" s="35"/>
+      <c r="L67" s="35">
         <f t="shared" si="9"/>
         <v>11.373333333333333</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="35">
         <f t="shared" si="10"/>
         <v>147.85333333333332</v>
       </c>
-      <c r="N67" s="8">
+      <c r="N67" s="57">
         <f t="shared" si="7"/>
         <v>160.15333333333334</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>18</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="35">
         <v>700</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="35">
         <v>20</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="68">
         <v>0.1</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="57">
         <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="68">
         <v>0.3</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="35">
         <v>12</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J68" s="60">
         <v>0.8</v>
       </c>
-      <c r="L68">
+      <c r="K68" s="35"/>
+      <c r="L68" s="35">
         <f t="shared" si="9"/>
         <v>11.373333333333333</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="35">
         <f t="shared" si="10"/>
         <v>147.85333333333332</v>
       </c>
-      <c r="N68" s="8">
+      <c r="N68" s="57">
         <f t="shared" si="7"/>
         <v>160.15333333333334</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>19</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="35">
         <v>700</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="35">
         <v>20</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="68">
         <v>0.1</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="57">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="68">
         <v>0.3</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="35">
         <v>12</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J69" s="60">
         <v>0.8</v>
       </c>
-      <c r="L69">
+      <c r="K69" s="35"/>
+      <c r="L69" s="35">
         <f t="shared" si="9"/>
         <v>11.373333333333333</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="35">
         <f t="shared" si="10"/>
         <v>147.85333333333332</v>
       </c>
-      <c r="N69" s="8">
+      <c r="N69" s="57">
         <f t="shared" si="7"/>
         <v>162.85333333333332</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>20</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="35">
         <v>700</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="35">
         <v>20</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="68">
         <v>0.1</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="57">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="68">
         <v>0.3</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="35">
         <v>12</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J70" s="60">
         <v>0.8</v>
       </c>
-      <c r="L70">
+      <c r="K70" s="35"/>
+      <c r="L70" s="35">
         <f t="shared" si="9"/>
         <v>11.373333333333333</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="35">
         <f t="shared" si="10"/>
         <v>147.85333333333332</v>
       </c>
-      <c r="N70" s="8">
+      <c r="N70" s="57">
         <f t="shared" si="7"/>
         <v>164.85333333333332</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E71" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="24" t="s">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B73" s="23" t="s">
         <v>101</v>
       </c>
       <c r="D73" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="37"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E73" s="36"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65540" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="65540" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K65540" s="11" t="s">
         <v>37</v>
       </c>
@@ -3608,19 +3612,19 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="25" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -3628,15 +3632,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="23" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -3644,8 +3648,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3661,15 +3665,15 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:N27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
         <v>48</v>
@@ -3692,7 +3696,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>44</v>
       </c>
@@ -3707,7 +3711,7 @@
         <v>9307.2000000000007</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -3722,7 +3726,7 @@
         <v>24770.831999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -3737,10 +3741,10 @@
         <v>16266.384</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C8">
         <f>+SUM(C4:C6)</f>
         <v>8760</v>
@@ -3750,7 +3754,23 @@
         <v>50344.415999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="I11" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>86</v>
       </c>
@@ -3763,8 +3783,20 @@
       <c r="F12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="20">
         <v>2017</v>
       </c>
@@ -3775,8 +3807,34 @@
         <f>E4*(1+C13)</f>
         <v>9493.344000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>E5*(C13+1)</f>
+        <v>25266.248639999998</v>
+      </c>
+      <c r="F13">
+        <f>E6*(C13+1)</f>
+        <v>16591.71168</v>
+      </c>
+      <c r="I13" s="20">
+        <v>2017</v>
+      </c>
+      <c r="J13">
+        <v>0.02</v>
+      </c>
+      <c r="K13">
+        <f>D4*(1+C13)</f>
+        <v>7911.12</v>
+      </c>
+      <c r="L13">
+        <f>D5*(1+C13)</f>
+        <v>6085.32</v>
+      </c>
+      <c r="M13">
+        <f>D6*(C13+1)</f>
+        <v>4868.46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="20">
         <v>2018</v>
       </c>
@@ -3784,8 +3842,39 @@
         <f>+C13</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>D13*(C13+1)</f>
+        <v>9683.2108800000005</v>
+      </c>
+      <c r="E14">
+        <f>E13*(C13+1)</f>
+        <v>25771.573612799999</v>
+      </c>
+      <c r="F14">
+        <f>F13*(C14+1)</f>
+        <v>16923.545913599999</v>
+      </c>
+      <c r="I14" s="20">
+        <v>2018</v>
+      </c>
+      <c r="J14">
+        <f>+J13</f>
+        <v>0.02</v>
+      </c>
+      <c r="K14">
+        <f>K13*(J13+1)</f>
+        <v>8069.3424000000005</v>
+      </c>
+      <c r="L14">
+        <f>L13*(J13+1)</f>
+        <v>6207.0263999999997</v>
+      </c>
+      <c r="M14">
+        <f>M13*(J13+1)</f>
+        <v>4965.8292000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="20">
         <v>2019</v>
       </c>
@@ -3793,8 +3882,39 @@
         <f t="shared" ref="C15:C25" si="0">+C14</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" ref="D15:D26" si="1">D14*(C14+1)</f>
+        <v>9876.875097600001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E26" si="2">E14*(C14+1)</f>
+        <v>26287.005085056</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F26" si="3">F14*(C15+1)</f>
+        <v>17262.016831871999</v>
+      </c>
+      <c r="I15" s="20">
+        <v>2019</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J25" si="4">+J14</f>
+        <v>0.02</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:K26" si="5">K14*(J14+1)</f>
+        <v>8230.7292480000015</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15:L26" si="6">L14*(J14+1)</f>
+        <v>6331.1669279999996</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:M26" si="7">M14*(J14+1)</f>
+        <v>5065.1457840000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="20">
         <v>2020</v>
       </c>
@@ -3802,8 +3922,39 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>10074.412599552001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>26812.745186757122</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>17607.257168509441</v>
+      </c>
+      <c r="I16" s="20">
+        <v>2020</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>8395.3438329600012</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>6457.7902665599995</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="7"/>
+        <v>5166.4486996800006</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="20">
         <v>2021</v>
       </c>
@@ -3811,8 +3962,39 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>10275.900851543041</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>27349.000090492264</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>17959.402311879629</v>
+      </c>
+      <c r="I17" s="20">
+        <v>2021</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>8563.2507096192021</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>6586.9460718911996</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="7"/>
+        <v>5269.7776736736005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="20">
         <v>2022</v>
       </c>
@@ -3820,8 +4002,39 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>10481.418868573903</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>27895.98009230211</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>18318.590358117221</v>
+      </c>
+      <c r="I18" s="20">
+        <v>2022</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>8734.5157238115862</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>6718.6849933290241</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="7"/>
+        <v>5375.1732271470728</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="20">
         <v>2023</v>
       </c>
@@ -3829,8 +4042,39 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>10691.047245945381</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>28453.899694148153</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>18684.962165279565</v>
+      </c>
+      <c r="I19" s="20">
+        <v>2023</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>8909.206038287819</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>6853.058693195605</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="7"/>
+        <v>5482.6766916900142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="20">
         <v>2024</v>
       </c>
@@ -3838,8 +4082,39 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>10904.868190864288</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>29022.977688031115</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>19058.661408585158</v>
+      </c>
+      <c r="I20" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>9087.3901590535752</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>6990.1198670595168</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="7"/>
+        <v>5592.330225523815</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="20">
         <v>2025</v>
       </c>
@@ -3847,8 +4122,39 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>11122.965554681574</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>29603.437241791737</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>19439.834636756863</v>
+      </c>
+      <c r="I21" s="20">
+        <v>2025</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>9269.1379622346467</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>7129.9222644007068</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>5704.176830034291</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="20">
         <v>2026</v>
       </c>
@@ -3856,8 +4162,39 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>11345.424865775205</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>30195.505986627573</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>19828.631329492</v>
+      </c>
+      <c r="I22" s="20">
+        <v>2026</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>9454.520721479339</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>7272.5207096887207</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>5818.2603666349769</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="20">
         <v>2027</v>
       </c>
@@ -3865,8 +4202,39 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>11572.333363090709</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>30799.416106360124</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>20225.203956081841</v>
+      </c>
+      <c r="I23" s="20">
+        <v>2027</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>9643.6111359089264</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>7417.9711238824948</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>5934.6255739676762</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="20">
         <v>2028</v>
       </c>
@@ -3874,8 +4242,39 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>11803.780030352524</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>31415.404428487327</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>20629.708035203479</v>
+      </c>
+      <c r="I24" s="20">
+        <v>2028</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>9836.4833586271052</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>7566.3305463601446</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>6053.3180854470302</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="20">
         <v>2029</v>
       </c>
@@ -3883,13 +4282,101 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>12039.855630959575</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>32043.712517057073</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>21042.302195907549</v>
+      </c>
+      <c r="I25" s="20">
+        <v>2029</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>10033.213025799647</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>7717.6571572873472</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>6174.3844471559705</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="20">
         <v>2030</v>
       </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>12280.652743578767</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>32684.586767398214</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>21042.302195907549</v>
+      </c>
+      <c r="G26">
+        <f>SUM(D26:F26)</f>
+        <v>66007.541706884527</v>
+      </c>
+      <c r="I26" s="20">
+        <v>2030</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>10233.877286315639</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>7872.010300433094</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>6297.8721360990903</v>
+      </c>
+      <c r="N26">
+        <f>SUM(K26:M26)</f>
+        <v>24403.759722847823</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <f>K26*C4</f>
+        <v>12280652.743578767</v>
+      </c>
+      <c r="L27">
+        <f>L26*C5</f>
+        <v>32684586.767398205</v>
+      </c>
+      <c r="M27">
+        <f>M26*C6</f>
+        <v>21463148.239825699</v>
+      </c>
+      <c r="N27">
+        <f>SUM(K27:M27)</f>
+        <v>66428387.750802666</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="I11:M11"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3905,23 +4392,23 @@
   <dimension ref="A2:J57"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F6"/>
+      <selection activeCell="C12" sqref="C12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>59</v>
       </c>
@@ -3938,7 +4425,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
         <v>52</v>
@@ -3953,7 +4440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
@@ -3972,7 +4459,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
@@ -3992,134 +4479,134 @@
         <v>143</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="48" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="66">
         <v>0.28369156485987873</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="66">
         <v>23.078308801351135</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="66">
         <v>1.4184578242993937</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="66">
         <v>3163.160948187648</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="50">
+      <c r="J9" s="49">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="66">
         <v>0.28369156485987873</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="66">
         <v>23.078308801351135</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="66">
         <v>1.4184578242993937</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="66">
         <v>3163.160948187648</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="50" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="64">
         <v>0.18087999999999999</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="64">
         <v>1.4280000000000001E-2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="65">
         <v>5.593</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="65">
         <v>2856</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="64">
         <v>0.18087999999999999</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="64">
         <v>1.4280000000000001E-2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="65">
         <v>5.593</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="65">
         <v>2856</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="I14" s="68"/>
-    </row>
-    <row r="15" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="72"/>
+    </row>
+    <row r="15" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="38" t="s">
+      <c r="G15" s="38"/>
+      <c r="H15" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="40" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="44">
         <v>1</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="45">
         <f>H16*J9*D35*(1/C18)*C26*(1/1000)</f>
         <v>79.680815196650229</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="19" t="s">
         <v>72</v>
@@ -4130,18 +4617,18 @@
       <c r="E17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="39">
         <v>1</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="40">
         <f>H17*J9*D35*(1/C20)*C27*(1/1000)</f>
         <v>61.960311166384507</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>71</v>
       </c>
@@ -4150,18 +4637,18 @@
         <v>9120000</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="41">
         <v>1</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="42">
         <f>H18*J9*D35*(1/D19)*(1/1000)</f>
         <v>132.3056958750023</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
         <v>73</v>
       </c>
@@ -4170,7 +4657,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
@@ -4179,29 +4666,29 @@
       </c>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="19" t="s">
         <v>77</v>
@@ -4210,7 +4697,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
         <v>71</v>
       </c>
@@ -4221,7 +4708,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -4231,12 +4718,12 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>75</v>
       </c>
@@ -4250,7 +4737,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>75</v>
       </c>
@@ -4265,7 +4752,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>84</v>
       </c>
@@ -4280,7 +4767,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>85</v>
       </c>
@@ -4295,7 +4782,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>79</v>
       </c>
@@ -4309,7 +4796,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="22" t="s">
         <v>89</v>
       </c>
@@ -4320,43 +4807,43 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
     </row>
   </sheetData>
@@ -4374,23 +4861,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>50</v>
@@ -4401,505 +4891,505 @@
       <c r="E4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="62">
         <v>526.84727859553038</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="62">
         <v>210.73891143821214</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="62">
         <v>105.36945571910607</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="62">
         <v>50</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="62">
         <v>526.84727859553038</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="62">
         <v>210.73891143821214</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="62">
         <v>105.36945571910607</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="62">
         <v>50</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="62">
         <v>526.84727859553038</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="62">
         <v>210.73891143821214</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="62">
         <v>105.36945571910607</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="62">
         <v>50</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="62">
         <v>526.84727859553038</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="62">
         <v>210.73891143821214</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="62">
         <v>105.36945571910607</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="62">
         <v>50</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="56">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="61">
         <v>1580.541835786591</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="61">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="61">
         <v>50</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="56">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="61">
         <v>1580.541835786591</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="61">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="61">
         <v>50</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="56">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="61">
         <v>1580.541835786591</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="61">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="61">
         <v>50</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="56">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="61">
         <v>1580.541835786591</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="61">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="61">
         <v>50</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>526.84727859553038</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>210.73891143821214</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>105.36945571910607</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <v>50</v>
       </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="56">
         <v>3161.0836715731821</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="61">
         <v>1580.541835786591</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="61">
         <v>2107.3891143821215</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="61">
         <v>50</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="63">
         <v>526.84727859553038</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="63">
         <v>210.73891143821214</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="63">
         <v>105.36945571910607</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="63">
         <v>50</v>
       </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="63">
         <v>526.84727859553038</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="63">
         <v>210.73891143821214</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="63">
         <v>105.36945571910607</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="63">
         <v>50</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="63">
         <v>526.84727859553038</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="63">
         <v>210.73891143821214</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="63">
         <v>105.36945571910607</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="63">
         <v>50</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="12"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="24" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="12"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="12"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" s="12"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" s="12"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" s="12"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" s="12"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" s="12"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" s="12"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" s="12"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" s="12"/>
     </row>
   </sheetData>
@@ -4911,37 +5401,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3"/>
@@ -4950,14 +5440,14 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="9">
         <v>0.7</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>41.094087730451371</v>
       </c>
       <c r="E5" s="2">
@@ -4966,8 +5456,8 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -4976,14 +5466,14 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="9">
         <v>0.9</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>42.147782287642428</v>
       </c>
       <c r="E6" s="2">
@@ -4995,14 +5485,14 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="9">
         <v>0.95</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>63.221673431463643</v>
       </c>
       <c r="E7" s="2">
@@ -5014,7 +5504,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D8" s="7"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5022,7 +5512,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>114</v>
       </c>
@@ -5033,29 +5523,29 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>131</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="3"/>
@@ -5063,14 +5553,14 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="9">
         <v>0.9</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>115.90640129101668</v>
       </c>
       <c r="E12" s="2">
@@ -5081,14 +5571,14 @@
       <c r="H12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>116</v>
       </c>
       <c r="C13" s="9">
         <v>0.98</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <v>158.05418357865912</v>
       </c>
       <c r="E13" s="2">
@@ -5099,14 +5589,14 @@
       <c r="H13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>117</v>
       </c>
       <c r="C14" s="9">
         <v>0.99</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>273.96058486967581</v>
       </c>
       <c r="E14" s="2">
@@ -5117,14 +5607,14 @@
       <c r="H14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D15" s="7"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>118</v>
       </c>
@@ -5134,28 +5624,28 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>131</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="27" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="3"/>
@@ -5164,14 +5654,14 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>119</v>
       </c>
       <c r="C19" s="9">
         <v>0.6</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <v>210.73891143821214</v>
       </c>
       <c r="E19" s="2">
@@ -5183,14 +5673,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>120</v>
       </c>
       <c r="C20" s="9">
         <v>0.9</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <v>263.42363929776519</v>
       </c>
       <c r="E20" s="2">
@@ -5202,14 +5692,14 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="9">
         <v>0.95</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <v>316.10836715731824</v>
       </c>
       <c r="E21" s="2">
@@ -5221,7 +5711,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -5229,7 +5719,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -5237,7 +5727,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>122</v>
       </c>
@@ -5248,32 +5738,32 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="36" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="24" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="C33" s="6" t="s">
         <v>50</v>
@@ -5285,7 +5775,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>73</v>
       </c>
@@ -5295,65 +5785,65 @@
       <c r="D34" s="3">
         <v>0.95</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>126</v>
       </c>
       <c r="C35">
         <v>0.95</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="30" t="s">
         <v>125</v>
       </c>
       <c r="E35" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>71</v>
       </c>
       <c r="C36">
         <v>0.95</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F44" s="3"/>
     </row>
   </sheetData>
@@ -5370,1121 +5860,1121 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+    <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="52">
         <v>60</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53">
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52">
         <v>0.9</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="52">
         <v>48.7</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="52">
         <v>0</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="52">
         <v>0</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="52">
         <v>0</v>
       </c>
-      <c r="M4" s="53">
+      <c r="M4" s="52">
         <v>0</v>
       </c>
-      <c r="N4" s="53">
+      <c r="N4" s="52">
         <v>0</v>
       </c>
-      <c r="O4" s="53">
+      <c r="O4" s="52">
         <v>527</v>
       </c>
-      <c r="P4" s="53">
+      <c r="P4" s="52">
         <v>211</v>
       </c>
-      <c r="Q4" s="53">
+      <c r="Q4" s="52">
         <v>105</v>
       </c>
-      <c r="R4" s="53">
+      <c r="R4" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="52">
         <v>204</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53">
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52">
         <v>0.9</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="52">
         <v>44.5</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="52">
         <v>0</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="52">
         <v>0</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="52">
         <v>0</v>
       </c>
-      <c r="M5" s="53">
+      <c r="M5" s="52">
         <v>0</v>
       </c>
-      <c r="N5" s="53">
+      <c r="N5" s="52">
         <v>0</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="52">
         <v>527</v>
       </c>
-      <c r="P5" s="53">
+      <c r="P5" s="52">
         <v>211</v>
       </c>
-      <c r="Q5" s="53">
+      <c r="Q5" s="52">
         <v>105</v>
       </c>
-      <c r="R5" s="53">
+      <c r="R5" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="52">
         <v>575</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="52">
         <v>0.376</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="52">
         <v>1.9</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="52">
         <v>0.88</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53">
+      <c r="I6" s="52"/>
+      <c r="J6" s="52">
         <v>22.7</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="52">
         <v>44.61</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="52">
         <v>22.8</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="52">
         <v>16.5</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="52">
         <v>2385.29</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="52">
         <v>527</v>
       </c>
-      <c r="P6" s="53">
+      <c r="P6" s="52">
         <v>211</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="52">
         <v>105</v>
       </c>
-      <c r="R6" s="53">
+      <c r="R6" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="52">
         <v>812</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="52">
         <v>0.35</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="52">
         <v>3.1</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="52">
         <v>0.88</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53">
+      <c r="I7" s="52"/>
+      <c r="J7" s="52">
         <v>24.4</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="52">
         <v>44.61</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="52">
         <v>22.8</v>
       </c>
-      <c r="M7" s="53">
+      <c r="M7" s="52">
         <v>16.5</v>
       </c>
-      <c r="N7" s="53">
+      <c r="N7" s="52">
         <v>2385.29</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="52">
         <v>3161</v>
       </c>
-      <c r="P7" s="53">
+      <c r="P7" s="52">
         <v>1581</v>
       </c>
-      <c r="Q7" s="53">
+      <c r="Q7" s="52">
         <v>2107</v>
       </c>
-      <c r="R7" s="53">
+      <c r="R7" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="52">
         <v>806</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="52">
         <v>0.38</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="52">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="52">
         <v>0.87</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53">
+      <c r="I8" s="52"/>
+      <c r="J8" s="52">
         <v>22.4</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="52">
         <v>44.61</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="52">
         <v>22.8</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="52">
         <v>16.5</v>
       </c>
-      <c r="N8" s="53">
+      <c r="N8" s="52">
         <v>2385.29</v>
       </c>
-      <c r="O8" s="53">
+      <c r="O8" s="52">
         <v>3161</v>
       </c>
-      <c r="P8" s="53">
+      <c r="P8" s="52">
         <v>1581</v>
       </c>
-      <c r="Q8" s="53">
+      <c r="Q8" s="52">
         <v>2107</v>
       </c>
-      <c r="R8" s="53">
+      <c r="R8" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="52">
         <v>731</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="52">
         <v>0.45400000000000001</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <v>3.4</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="52">
         <v>0.93</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53">
+      <c r="I9" s="52"/>
+      <c r="J9" s="52">
         <v>60.1</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="52">
         <v>0.18099999999999999</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="52">
         <v>1.4E-2</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="52">
         <v>5.59</v>
       </c>
-      <c r="N9" s="53">
+      <c r="N9" s="52">
         <v>2856</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="52">
         <v>3161</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="52">
         <v>1581</v>
       </c>
-      <c r="Q9" s="53">
+      <c r="Q9" s="52">
         <v>2107</v>
       </c>
-      <c r="R9" s="53">
+      <c r="R9" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="52">
         <v>439</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="52">
         <v>11.5</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="52">
         <v>0.9</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53">
+      <c r="I10" s="52"/>
+      <c r="J10" s="52">
         <v>158.4</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="52">
         <v>23.08</v>
       </c>
-      <c r="M10" s="53">
+      <c r="M10" s="52">
         <v>1.42</v>
       </c>
-      <c r="N10" s="53">
+      <c r="N10" s="52">
         <v>3163.16</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="52">
         <v>527</v>
       </c>
-      <c r="P10" s="53">
+      <c r="P10" s="52">
         <v>211</v>
       </c>
-      <c r="Q10" s="53">
+      <c r="Q10" s="52">
         <v>105</v>
       </c>
-      <c r="R10" s="53">
+      <c r="R10" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="52">
         <v>169</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="52">
         <v>0.33500000000000002</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="52">
         <v>16.5</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="52">
         <v>0.9</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53">
+      <c r="I11" s="52"/>
+      <c r="J11" s="52">
         <v>132.4</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="52">
         <v>23.08</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="52">
         <v>1.42</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="52">
         <v>3163.16</v>
       </c>
-      <c r="O11" s="53">
+      <c r="O11" s="52">
         <v>527</v>
       </c>
-      <c r="P11" s="53">
+      <c r="P11" s="52">
         <v>211</v>
       </c>
-      <c r="Q11" s="53">
+      <c r="Q11" s="52">
         <v>105</v>
       </c>
-      <c r="R11" s="53">
+      <c r="R11" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="52">
         <v>203</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="52">
         <v>0.35799999999999998</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="52">
         <v>12.5</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="52">
         <v>0.44</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53">
+      <c r="I12" s="52"/>
+      <c r="J12" s="52">
         <v>123.9</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="52">
         <v>23.08</v>
       </c>
-      <c r="M12" s="53">
+      <c r="M12" s="52">
         <v>1.42</v>
       </c>
-      <c r="N12" s="53">
+      <c r="N12" s="52">
         <v>3163.16</v>
       </c>
-      <c r="O12" s="53">
+      <c r="O12" s="52">
         <v>3161</v>
       </c>
-      <c r="P12" s="53">
+      <c r="P12" s="52">
         <v>1581</v>
       </c>
-      <c r="Q12" s="53">
+      <c r="Q12" s="52">
         <v>2107</v>
       </c>
-      <c r="R12" s="53">
+      <c r="R12" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="52">
         <v>58</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="52">
         <v>0.221</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="52">
         <v>11.6</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="52">
         <v>0.61</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53">
+      <c r="I13" s="52"/>
+      <c r="J13" s="52">
         <v>200.7</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="52">
         <v>23.08</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="52">
         <v>1.42</v>
       </c>
-      <c r="N13" s="53">
+      <c r="N13" s="52">
         <v>3163.16</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="52">
         <v>527</v>
       </c>
-      <c r="P13" s="53">
+      <c r="P13" s="52">
         <v>211</v>
       </c>
-      <c r="Q13" s="53">
+      <c r="Q13" s="52">
         <v>105</v>
       </c>
-      <c r="R13" s="53">
+      <c r="R13" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="s">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="52">
         <v>97</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="52">
         <v>0.30599999999999999</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="52">
         <v>24</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="52">
         <v>0.9</v>
       </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53">
+      <c r="I14" s="52"/>
+      <c r="J14" s="52">
         <v>145</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L14" s="53">
+      <c r="L14" s="52">
         <v>23.08</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="52">
         <v>1.42</v>
       </c>
-      <c r="N14" s="53">
+      <c r="N14" s="52">
         <v>3163.16</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="52">
         <v>527</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="52">
         <v>211</v>
       </c>
-      <c r="Q14" s="53">
+      <c r="Q14" s="52">
         <v>105</v>
       </c>
-      <c r="R14" s="53">
+      <c r="R14" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="52">
         <v>700</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="52">
         <v>0.40699999999999997</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="52">
         <v>5.9</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="52">
         <v>0.92</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53">
+      <c r="I15" s="52"/>
+      <c r="J15" s="52">
         <v>109</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L15" s="53">
+      <c r="L15" s="52">
         <v>23.08</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="52">
         <v>1.42</v>
       </c>
-      <c r="N15" s="53">
+      <c r="N15" s="52">
         <v>3163.16</v>
       </c>
-      <c r="O15" s="53">
+      <c r="O15" s="52">
         <v>3161</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="52">
         <v>1581</v>
       </c>
-      <c r="Q15" s="53">
+      <c r="Q15" s="52">
         <v>2107</v>
       </c>
-      <c r="R15" s="53">
+      <c r="R15" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="53" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="52">
         <v>71</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="52">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="52">
         <v>6.1</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="52">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53">
+      <c r="I16" s="52"/>
+      <c r="J16" s="52">
         <v>217.4</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L16" s="53">
+      <c r="L16" s="52">
         <v>23.08</v>
       </c>
-      <c r="M16" s="53">
+      <c r="M16" s="52">
         <v>1.42</v>
       </c>
-      <c r="N16" s="53">
+      <c r="N16" s="52">
         <v>3163.16</v>
       </c>
-      <c r="O16" s="53">
+      <c r="O16" s="52">
         <v>3161</v>
       </c>
-      <c r="P16" s="53">
+      <c r="P16" s="52">
         <v>1581</v>
       </c>
-      <c r="Q16" s="53">
+      <c r="Q16" s="52">
         <v>2107</v>
       </c>
-      <c r="R16" s="53">
+      <c r="R16" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="53" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="52">
         <v>368</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="52">
         <v>3.7</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="52">
         <v>0.91</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53">
+      <c r="I17" s="52"/>
+      <c r="J17" s="52">
         <v>158.4</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L17" s="53">
+      <c r="L17" s="52">
         <v>23.08</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="52">
         <v>1.42</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N17" s="52">
         <v>3163.16</v>
       </c>
-      <c r="O17" s="53">
+      <c r="O17" s="52">
         <v>3161</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="52">
         <v>1581</v>
       </c>
-      <c r="Q17" s="53">
+      <c r="Q17" s="52">
         <v>2107</v>
       </c>
-      <c r="R17" s="53">
+      <c r="R17" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="53" t="s">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="52">
         <v>134</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="52">
         <v>0.27800000000000002</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="52">
         <v>14.6</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="52">
         <v>0.9</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53">
+      <c r="I18" s="52"/>
+      <c r="J18" s="52">
         <v>159.6</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L18" s="53">
+      <c r="L18" s="52">
         <v>23.08</v>
       </c>
-      <c r="M18" s="53">
+      <c r="M18" s="52">
         <v>1.42</v>
       </c>
-      <c r="N18" s="53">
+      <c r="N18" s="52">
         <v>3163.16</v>
       </c>
-      <c r="O18" s="53">
+      <c r="O18" s="52">
         <v>527</v>
       </c>
-      <c r="P18" s="53">
+      <c r="P18" s="52">
         <v>211</v>
       </c>
-      <c r="Q18" s="53">
+      <c r="Q18" s="52">
         <v>105</v>
       </c>
-      <c r="R18" s="53">
+      <c r="R18" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="52">
         <v>1043</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="52">
         <v>0.35899999999999999</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="52">
         <v>8.6</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="52">
         <v>0.92</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53">
+      <c r="I19" s="52"/>
+      <c r="J19" s="52">
         <v>123.6</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="52">
         <v>23.08</v>
       </c>
-      <c r="M19" s="53">
+      <c r="M19" s="52">
         <v>1.42</v>
       </c>
-      <c r="N19" s="53">
+      <c r="N19" s="52">
         <v>3163.16</v>
       </c>
-      <c r="O19" s="53">
+      <c r="O19" s="52">
         <v>527</v>
       </c>
-      <c r="P19" s="53">
+      <c r="P19" s="52">
         <v>211</v>
       </c>
-      <c r="Q19" s="53">
+      <c r="Q19" s="52">
         <v>105</v>
       </c>
-      <c r="R19" s="53">
+      <c r="R19" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="53" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="52">
         <v>135</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="52">
         <v>0.29599999999999999</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="52">
         <v>3.6</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="52">
         <v>0.9</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53">
+      <c r="I20" s="52"/>
+      <c r="J20" s="52">
         <v>149.9</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="52">
         <v>23.08</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="52">
         <v>1.42</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N20" s="52">
         <v>3163.16</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="52">
         <v>527</v>
       </c>
-      <c r="P20" s="53">
+      <c r="P20" s="52">
         <v>211</v>
       </c>
-      <c r="Q20" s="53">
+      <c r="Q20" s="52">
         <v>105</v>
       </c>
-      <c r="R20" s="53">
+      <c r="R20" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="53" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="52">
         <v>139</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="52">
         <v>0.36099999999999999</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="52">
         <v>21</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="52">
         <v>0.9</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53">
+      <c r="I21" s="52"/>
+      <c r="J21" s="52">
         <v>122.9</v>
       </c>
-      <c r="K21" s="53">
+      <c r="K21" s="52">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L21" s="53">
+      <c r="L21" s="52">
         <v>23.08</v>
       </c>
-      <c r="M21" s="53">
+      <c r="M21" s="52">
         <v>1.42</v>
       </c>
-      <c r="N21" s="53">
+      <c r="N21" s="52">
         <v>3163.16</v>
       </c>
-      <c r="O21" s="53">
+      <c r="O21" s="52">
         <v>527</v>
       </c>
-      <c r="P21" s="53">
+      <c r="P21" s="52">
         <v>211</v>
       </c>
-      <c r="Q21" s="53">
+      <c r="Q21" s="52">
         <v>105</v>
       </c>
-      <c r="R21" s="53">
+      <c r="R21" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="52">
         <v>5571</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53">
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52">
         <v>0.6</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53">
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52">
         <v>0</v>
       </c>
-      <c r="L22" s="53">
+      <c r="L22" s="52">
         <v>0</v>
       </c>
-      <c r="M22" s="53">
+      <c r="M22" s="52">
         <v>0</v>
       </c>
-      <c r="N22" s="53">
+      <c r="N22" s="52">
         <v>0</v>
       </c>
-      <c r="O22" s="53">
+      <c r="O22" s="52">
         <v>527</v>
       </c>
-      <c r="P22" s="53">
+      <c r="P22" s="52">
         <v>211</v>
       </c>
-      <c r="Q22" s="53">
+      <c r="Q22" s="52">
         <v>105</v>
       </c>
-      <c r="R22" s="53">
+      <c r="R22" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="s">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="52">
         <v>192</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53">
+      <c r="F23" s="52"/>
+      <c r="G23" s="52">
         <v>10</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="52">
         <v>0.25</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53">
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52">
         <v>0</v>
       </c>
-      <c r="L23" s="53">
+      <c r="L23" s="52">
         <v>0</v>
       </c>
-      <c r="M23" s="53">
+      <c r="M23" s="52">
         <v>0</v>
       </c>
-      <c r="N23" s="53">
+      <c r="N23" s="52">
         <v>0</v>
       </c>
-      <c r="O23" s="53">
+      <c r="O23" s="52">
         <v>3161</v>
       </c>
-      <c r="P23" s="53">
+      <c r="P23" s="52">
         <v>1581</v>
       </c>
-      <c r="Q23" s="53">
+      <c r="Q23" s="52">
         <v>2107</v>
       </c>
-      <c r="R23" s="53">
+      <c r="R23" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="53" t="s">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="52">
         <v>200</v>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53">
+      <c r="F24" s="52"/>
+      <c r="G24" s="52">
         <v>10</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="52">
         <v>0.25</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53">
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52">
         <v>0</v>
       </c>
-      <c r="L24" s="53">
+      <c r="L24" s="52">
         <v>0</v>
       </c>
-      <c r="M24" s="53">
+      <c r="M24" s="52">
         <v>0</v>
       </c>
-      <c r="N24" s="53">
+      <c r="N24" s="52">
         <v>0</v>
       </c>
-      <c r="O24" s="53">
+      <c r="O24" s="52">
         <v>527</v>
       </c>
-      <c r="P24" s="53">
+      <c r="P24" s="52">
         <v>211</v>
       </c>
-      <c r="Q24" s="53">
+      <c r="Q24" s="52">
         <v>105</v>
       </c>
-      <c r="R24" s="53">
+      <c r="R24" s="52">
         <v>50</v>
       </c>
     </row>
@@ -6501,71 +6991,71 @@
       <selection activeCell="B4" sqref="B4:R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:21" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+    <row r="3" spans="2:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>172</v>
       </c>
@@ -6624,7 +7114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>175</v>
       </c>
@@ -6683,7 +7173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>177</v>
       </c>
@@ -6742,7 +7232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -6801,7 +7291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>181</v>
       </c>
@@ -6860,7 +7350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>183</v>
       </c>
@@ -6919,7 +7409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>184</v>
       </c>
@@ -6978,7 +7468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>187</v>
       </c>
@@ -7034,7 +7524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>189</v>
       </c>
@@ -7090,7 +7580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>191</v>
       </c>
@@ -7143,7 +7633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>192</v>
       </c>
@@ -7199,7 +7689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>194</v>
       </c>
@@ -7252,7 +7742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>195</v>
       </c>
@@ -7308,7 +7798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>197</v>
       </c>
@@ -7364,7 +7854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>198</v>
       </c>
@@ -7423,7 +7913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>199</v>
       </c>
@@ -7482,7 +7972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>200</v>
       </c>
@@ -7541,7 +8031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>202</v>
       </c>
@@ -7600,7 +8090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>204</v>
       </c>
@@ -7659,7 +8149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>206</v>
       </c>
@@ -7731,728 +8221,728 @@
       <selection activeCell="I4" sqref="I4:K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="9:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="9:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="69" t="s">
+    <row r="3" spans="9:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="9:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I5" s="55" t="s">
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
+    </row>
+    <row r="5" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I5" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="54" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I6" s="53" t="s">
+    <row r="6" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I7" s="53" t="s">
+    <row r="7" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I8" s="53" t="s">
+    <row r="8" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I8" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="K8" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I9" s="53" t="s">
+    <row r="9" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I9" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I10" s="53" t="s">
+    <row r="10" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I10" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="J10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K10" s="53" t="s">
+      <c r="K10" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="53" t="s">
+    <row r="11" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I11" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K11" s="53" t="s">
+      <c r="K11" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I12" s="53" t="s">
+    <row r="12" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I12" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K12" s="53" t="s">
+      <c r="K12" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I13" s="53" t="s">
+    <row r="13" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I13" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I14" s="53" t="s">
+    <row r="14" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I14" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J14" s="53" t="s">
+      <c r="J14" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I15" s="53" t="s">
+    <row r="15" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I15" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K15" s="53" t="s">
+      <c r="K15" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I16" s="53" t="s">
+    <row r="16" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I16" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J16" s="53" t="s">
+      <c r="J16" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K16" s="53" t="s">
+      <c r="K16" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I17" s="53" t="s">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I17" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I18" s="53" t="s">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I18" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J18" s="53" t="s">
+      <c r="J18" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K18" s="53" t="s">
+      <c r="K18" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I19" s="53" t="s">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I19" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K19" s="53" t="s">
+      <c r="K19" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I20" s="53" t="s">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I20" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K20" s="53" t="s">
+      <c r="K20" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I21" s="53" t="s">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I21" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="J21" s="53" t="s">
+      <c r="J21" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K21" s="53" t="s">
+      <c r="K21" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I22" s="53" t="s">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I22" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J22" s="53" t="s">
+      <c r="J22" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K22" s="53" t="s">
+      <c r="K22" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I23" s="53" t="s">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I23" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K23" s="53" t="s">
+      <c r="K23" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I24" s="53" t="s">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I24" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J24" s="53" t="s">
+      <c r="J24" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K24" s="53" t="s">
+      <c r="K24" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I25" s="53" t="s">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I25" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K25" s="53" t="s">
+      <c r="K25" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I26" s="53" t="s">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I26" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J26" s="53" t="s">
+      <c r="J26" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K26" s="53" t="s">
+      <c r="K26" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I27" s="53" t="s">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I27" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K27" s="53" t="s">
+      <c r="K27" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I28" s="53" t="s">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I28" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J28" s="53" t="s">
+      <c r="J28" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K28" s="53" t="s">
+      <c r="K28" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I29" s="53" t="s">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I29" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J29" s="53" t="s">
+      <c r="J29" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I30" s="53" t="s">
+    <row r="30" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I30" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J30" s="53" t="s">
+      <c r="J30" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K30" s="53" t="s">
+      <c r="K30" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I31" s="53" t="s">
+    <row r="31" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I31" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J31" s="53" t="s">
+      <c r="J31" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="53" t="s">
+      <c r="K31" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I32" s="53" t="s">
+    <row r="32" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I32" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J32" s="53" t="s">
+      <c r="J32" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K32" s="53" t="s">
+      <c r="K32" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I33" s="53" t="s">
+    <row r="33" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I33" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J33" s="53" t="s">
+      <c r="J33" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K33" s="53" t="s">
+      <c r="K33" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I34" s="53" t="s">
+    <row r="34" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I34" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J34" s="53" t="s">
+      <c r="J34" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K34" s="53" t="s">
+      <c r="K34" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I35" s="53" t="s">
+    <row r="35" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I35" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J35" s="53" t="s">
+      <c r="J35" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K35" s="53" t="s">
+      <c r="K35" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I36" s="53" t="s">
+    <row r="36" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I36" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J36" s="53" t="s">
+      <c r="J36" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K36" s="53" t="s">
+      <c r="K36" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I37" s="53" t="s">
+    <row r="37" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I37" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="J37" s="53" t="s">
+      <c r="J37" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K37" s="53" t="s">
+      <c r="K37" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I38" s="53" t="s">
+    <row r="38" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I38" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J38" s="53" t="s">
+      <c r="J38" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K38" s="53" t="s">
+      <c r="K38" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I39" s="53" t="s">
+    <row r="39" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I39" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J39" s="53" t="s">
+      <c r="J39" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K39" s="53" t="s">
+      <c r="K39" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I40" s="53" t="s">
+    <row r="40" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I40" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J40" s="53" t="s">
+      <c r="J40" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K40" s="53" t="s">
+      <c r="K40" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I41" s="53" t="s">
+    <row r="41" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I41" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="53" t="s">
+      <c r="J41" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K41" s="53" t="s">
+      <c r="K41" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I42" s="53" t="s">
+    <row r="42" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I42" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J42" s="53" t="s">
+      <c r="J42" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K42" s="53" t="s">
+      <c r="K42" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I43" s="53" t="s">
+    <row r="43" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I43" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J43" s="53" t="s">
+      <c r="J43" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K43" s="53" t="s">
+      <c r="K43" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I44" s="53" t="s">
+    <row r="44" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I44" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J44" s="53" t="s">
+      <c r="J44" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K44" s="53" t="s">
+      <c r="K44" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I45" s="53" t="s">
+    <row r="45" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I45" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J45" s="53" t="s">
+      <c r="J45" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K45" s="53" t="s">
+      <c r="K45" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I46" s="53" t="s">
+    <row r="46" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I46" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J46" s="53" t="s">
+      <c r="J46" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K46" s="53" t="s">
+      <c r="K46" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I47" s="53" t="s">
+    <row r="47" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I47" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J47" s="53" t="s">
+      <c r="J47" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K47" s="53" t="s">
+      <c r="K47" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I48" s="53" t="s">
+    <row r="48" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I48" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J48" s="53" t="s">
+      <c r="J48" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K48" s="53" t="s">
+      <c r="K48" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I49" s="53" t="s">
+    <row r="49" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I49" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J49" s="53" t="s">
+      <c r="J49" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K49" s="53" t="s">
+      <c r="K49" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I50" s="53" t="s">
+    <row r="50" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I50" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J50" s="53" t="s">
+      <c r="J50" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K50" s="53" t="s">
+      <c r="K50" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I51" s="53" t="s">
+    <row r="51" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I51" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J51" s="53" t="s">
+      <c r="J51" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K51" s="53" t="s">
+      <c r="K51" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I52" s="53" t="s">
+    <row r="52" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I52" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J52" s="53" t="s">
+      <c r="J52" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K52" s="53" t="s">
+      <c r="K52" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I53" s="53" t="s">
+    <row r="53" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I53" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="J53" s="53" t="s">
+      <c r="J53" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K53" s="53" t="s">
+      <c r="K53" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I54" s="53" t="s">
+    <row r="54" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I54" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J54" s="53" t="s">
+      <c r="J54" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K54" s="53" t="s">
+      <c r="K54" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I55" s="53" t="s">
+    <row r="55" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I55" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J55" s="53" t="s">
+      <c r="J55" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K55" s="53" t="s">
+      <c r="K55" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I56" s="53" t="s">
+    <row r="56" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I56" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J56" s="53" t="s">
+      <c r="J56" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K56" s="53" t="s">
+      <c r="K56" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I57" s="53" t="s">
+    <row r="57" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I57" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J57" s="53" t="s">
+      <c r="J57" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K57" s="53" t="s">
+      <c r="K57" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I58" s="53" t="s">
+    <row r="58" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I58" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J58" s="53" t="s">
+      <c r="J58" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K58" s="53" t="s">
+      <c r="K58" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I59" s="53" t="s">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I59" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J59" s="53" t="s">
+      <c r="J59" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K59" s="53" t="s">
+      <c r="K59" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I60" s="53" t="s">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I60" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J60" s="53" t="s">
+      <c r="J60" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K60" s="53" t="s">
+      <c r="K60" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I61" s="53" t="s">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I61" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J61" s="53" t="s">
+      <c r="J61" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K61" s="53" t="s">
+      <c r="K61" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I62" s="53" t="s">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I62" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J62" s="53" t="s">
+      <c r="J62" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K62" s="53" t="s">
+      <c r="K62" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I63" s="53" t="s">
+    <row r="63" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I63" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J63" s="53" t="s">
+      <c r="J63" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K63" s="53" t="s">
+      <c r="K63" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I64" s="53" t="s">
+    <row r="64" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I64" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J64" s="53" t="s">
+      <c r="J64" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K64" s="53" t="s">
+      <c r="K64" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I65" s="53" t="s">
+    <row r="65" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I65" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J65" s="53" t="s">
+      <c r="J65" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="K65" s="53" t="s">
+      <c r="K65" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I66" s="53" t="s">
+    <row r="66" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I66" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J66" s="53" t="s">
+      <c r="J66" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K66" s="53" t="s">
+      <c r="K66" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I67" s="53" t="s">
+    <row r="67" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I67" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J67" s="53" t="s">
+      <c r="J67" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K67" s="53" t="s">
+      <c r="K67" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I68" s="53" t="s">
+    <row r="68" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I68" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J68" s="53" t="s">
+      <c r="J68" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K68" s="53" t="s">
+      <c r="K68" s="52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I69" s="53" t="s">
+    <row r="69" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I69" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="J69" s="53" t="s">
+      <c r="J69" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K69" s="53" t="s">
+      <c r="K69" s="52" t="s">
         <v>223</v>
       </c>
     </row>

--- a/T1/Datos.xlsx
+++ b/T1/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Econo_Med\Tareas_Economed\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B9935F-72DB-4546-9167-C2D8BA942641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C539582-D5FD-4525-AD28-06D0AB457153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" tabRatio="733" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="733" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centrales" sheetId="1" r:id="rId1"/>
@@ -1168,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1323,6 +1323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1633,8 +1634,8 @@
   </sheetPr>
   <dimension ref="A2:O65540"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70:N70"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1772,8 +1773,8 @@
         <f>J8+H8+F8</f>
         <v>48.7</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
       <c r="N8" t="s">
         <v>15</v>
       </c>
@@ -1808,8 +1809,8 @@
         <f t="shared" ref="K9:K28" si="0">J9+H9+F9</f>
         <v>44.5</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="23" t="s">
         <v>135</v>
       </c>
@@ -2677,10 +2678,10 @@
       <c r="K46" s="6">
         <v>2030</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="M46" s="24" t="s">
+      <c r="M46" s="27" t="s">
         <v>142</v>
       </c>
       <c r="N46" s="6" t="s">
@@ -4392,7 +4393,7 @@
   <dimension ref="A2:J57"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:F12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5401,8 +5402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/T1/Datos.xlsx
+++ b/T1/Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Econo_Med\Tareas_Economed\T1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/dpgarces_uc_cl/Documents/Universidad/2025-2/Econo&amp;Med/Tareas_Economed/T1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C539582-D5FD-4525-AD28-06D0AB457153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1C539582-D5FD-4525-AD28-06D0AB457153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A30C3D20-7D50-4704-AD38-58453FF8ABB4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="733" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" tabRatio="733" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centrales" sheetId="1" r:id="rId1"/>
@@ -1168,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1323,7 +1323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1634,30 +1633,30 @@
   </sheetPr>
   <dimension ref="A2:O65540"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="F1" zoomScale="127" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1685,7 @@
       </c>
       <c r="K4" s="33"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>100</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
@@ -1746,7 +1745,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>1</v>
       </c>
@@ -1773,8 +1772,6 @@
         <f>J8+H8+F8</f>
         <v>48.7</v>
       </c>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
       <c r="N8" t="s">
         <v>15</v>
       </c>
@@ -1782,7 +1779,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>2</v>
       </c>
@@ -1809,8 +1806,6 @@
         <f t="shared" ref="K9:K28" si="0">J9+H9+F9</f>
         <v>44.5</v>
       </c>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
       <c r="N9" s="23" t="s">
         <v>135</v>
       </c>
@@ -1818,7 +1813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>3</v>
       </c>
@@ -1860,7 +1855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>4</v>
       </c>
@@ -1896,7 +1891,7 @@
         <v>27.471428571428575</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>5</v>
       </c>
@@ -1932,7 +1927,7 @@
         <v>26.547368421052632</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>6</v>
       </c>
@@ -1968,7 +1963,7 @@
         <v>63.523348017621146</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>7</v>
       </c>
@@ -2004,7 +1999,7 @@
         <v>169.91428571428571</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>8</v>
       </c>
@@ -2040,7 +2035,7 @@
         <v>148.90597014925373</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>9</v>
       </c>
@@ -2076,7 +2071,7 @@
         <v>136.39944134078212</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>10</v>
       </c>
@@ -2112,7 +2107,7 @@
         <v>212.30588235294118</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>11</v>
       </c>
@@ -2148,7 +2143,7 @@
         <v>168.95424836601308</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>12</v>
       </c>
@@ -2184,7 +2179,7 @@
         <v>114.88280098280099</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>13</v>
       </c>
@@ -2220,7 +2215,7 @@
         <v>223.53137254901961</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>14</v>
       </c>
@@ -2256,7 +2251,7 @@
         <v>162.1142857142857</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>15</v>
       </c>
@@ -2292,7 +2287,7 @@
         <v>174.15395683453238</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>16</v>
       </c>
@@ -2328,7 +2323,7 @@
         <v>132.15431754874652</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>17</v>
       </c>
@@ -2364,7 +2359,7 @@
         <v>153.45135135135135</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>18</v>
       </c>
@@ -2400,7 +2395,7 @@
         <v>143.86980609418282</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>19</v>
       </c>
@@ -2426,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>20</v>
       </c>
@@ -2454,7 +2449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>21</v>
       </c>
@@ -2482,7 +2477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>22</v>
       </c>
@@ -2510,22 +2505,22 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>12</v>
       </c>
@@ -2534,7 +2529,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>15</v>
       </c>
@@ -2543,7 +2538,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -2552,7 +2547,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -2561,7 +2556,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>29</v>
       </c>
@@ -2570,7 +2565,7 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -2579,7 +2574,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="23" t="s">
         <v>39</v>
       </c>
@@ -2588,11 +2583,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="23"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>6</v>
       </c>
@@ -2601,7 +2596,7 @@
         <v>12707</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
@@ -2612,7 +2607,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
         <v>34</v>
       </c>
@@ -2647,7 +2642,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="25" t="s">
         <v>100</v>
       </c>
@@ -2688,7 +2683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2733,7 +2728,7 @@
         <v>34.44736842105263</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2778,7 +2773,7 @@
         <v>29.447368421052634</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2823,7 +2818,7 @@
         <v>24.747368421052634</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -2868,7 +2863,7 @@
         <v>24.747368421052634</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2913,7 +2908,7 @@
         <v>27.447368421052634</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -2958,7 +2953,7 @@
         <v>29.447368421052634</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>7</v>
       </c>
@@ -3003,7 +2998,7 @@
         <v>64.357777777777784</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>37</v>
       </c>
@@ -3011,7 +3006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>8</v>
       </c>
@@ -3048,10 +3043,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>9</v>
       </c>
@@ -3090,7 +3085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10</v>
       </c>
@@ -3129,7 +3124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11</v>
       </c>
@@ -3168,7 +3163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12</v>
       </c>
@@ -3207,7 +3202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>13</v>
       </c>
@@ -3246,7 +3241,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>14</v>
       </c>
@@ -3285,11 +3280,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J64" s="9"/>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15</v>
       </c>
@@ -3335,7 +3330,7 @@
         <v>169.85333333333332</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16</v>
       </c>
@@ -3381,7 +3376,7 @@
         <v>164.85333333333332</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>17</v>
       </c>
@@ -3427,7 +3422,7 @@
         <v>160.15333333333334</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>18</v>
       </c>
@@ -3473,7 +3468,7 @@
         <v>160.15333333333334</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>19</v>
       </c>
@@ -3519,7 +3514,7 @@
         <v>162.85333333333332</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20</v>
       </c>
@@ -3565,17 +3560,17 @@
         <v>164.85333333333332</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E71" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B73" s="23" t="s">
         <v>101</v>
       </c>
@@ -3584,12 +3579,12 @@
       </c>
       <c r="E73" s="36"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65540" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="65540" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K65540" s="11" t="s">
         <v>37</v>
       </c>
@@ -3613,19 +3608,19 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -3633,7 +3628,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>135</v>
       </c>
@@ -3641,7 +3636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -3649,7 +3644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>101</v>
       </c>
@@ -3672,9 +3667,9 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
@@ -3685,7 +3680,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
         <v>48</v>
@@ -3697,7 +3692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>44</v>
       </c>
@@ -3712,7 +3707,7 @@
         <v>9307.2000000000007</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -3727,7 +3722,7 @@
         <v>24770.831999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -3742,10 +3737,10 @@
         <v>16266.384</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>+SUM(C4:C6)</f>
         <v>8760</v>
@@ -3755,7 +3750,7 @@
         <v>50344.415999999997</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="70" t="s">
         <v>232</v>
       </c>
@@ -3771,7 +3766,7 @@
       <c r="L11" s="70"/>
       <c r="M11" s="70"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>86</v>
       </c>
@@ -3797,7 +3792,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="20">
         <v>2017</v>
       </c>
@@ -3835,7 +3830,7 @@
         <v>4868.46</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="20">
         <v>2018</v>
       </c>
@@ -3875,7 +3870,7 @@
         <v>4965.8292000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="20">
         <v>2019</v>
       </c>
@@ -3915,7 +3910,7 @@
         <v>5065.1457840000003</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="20">
         <v>2020</v>
       </c>
@@ -3955,7 +3950,7 @@
         <v>5166.4486996800006</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="20">
         <v>2021</v>
       </c>
@@ -3995,7 +3990,7 @@
         <v>5269.7776736736005</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="20">
         <v>2022</v>
       </c>
@@ -4035,7 +4030,7 @@
         <v>5375.1732271470728</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>2023</v>
       </c>
@@ -4075,7 +4070,7 @@
         <v>5482.6766916900142</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="20">
         <v>2024</v>
       </c>
@@ -4115,7 +4110,7 @@
         <v>5592.330225523815</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="20">
         <v>2025</v>
       </c>
@@ -4155,7 +4150,7 @@
         <v>5704.176830034291</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="20">
         <v>2026</v>
       </c>
@@ -4195,7 +4190,7 @@
         <v>5818.2603666349769</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="20">
         <v>2027</v>
       </c>
@@ -4235,7 +4230,7 @@
         <v>5934.6255739676762</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="20">
         <v>2028</v>
       </c>
@@ -4275,7 +4270,7 @@
         <v>6053.3180854470302</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="20">
         <v>2029</v>
       </c>
@@ -4315,7 +4310,7 @@
         <v>6174.3844471559705</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="20">
         <v>2030</v>
       </c>
@@ -4355,7 +4350,7 @@
         <v>24403.759722847823</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K27">
         <f>K26*C4</f>
         <v>12280652.743578767</v>
@@ -4393,23 +4388,23 @@
   <dimension ref="A2:J57"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>59</v>
       </c>
@@ -4426,7 +4421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
         <v>52</v>
@@ -4441,7 +4436,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
@@ -4460,7 +4455,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
@@ -4484,7 +4479,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
@@ -4505,7 +4500,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
@@ -4526,7 +4521,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>57</v>
       </c>
@@ -4545,7 +4540,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -4564,13 +4559,13 @@
       <c r="I12" s="12"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4579,7 +4574,7 @@
       </c>
       <c r="I14" s="72"/>
     </row>
-    <row r="15" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>70</v>
       </c>
@@ -4591,7 +4586,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -4607,7 +4602,7 @@
         <v>79.680815196650229</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
       <c r="C17" s="19" t="s">
         <v>72</v>
@@ -4629,7 +4624,7 @@
         <v>61.960311166384507</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>71</v>
       </c>
@@ -4649,7 +4644,7 @@
         <v>132.3056958750023</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>73</v>
       </c>
@@ -4658,7 +4653,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
@@ -4667,29 +4662,29 @@
       </c>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="19" t="s">
         <v>77</v>
@@ -4698,7 +4693,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>71</v>
       </c>
@@ -4709,7 +4704,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -4719,12 +4714,12 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>75</v>
       </c>
@@ -4738,7 +4733,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>75</v>
       </c>
@@ -4753,7 +4748,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>84</v>
       </c>
@@ -4768,7 +4763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>85</v>
       </c>
@@ -4783,7 +4778,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>79</v>
       </c>
@@ -4797,7 +4792,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>89</v>
       </c>
@@ -4808,43 +4803,43 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
     </row>
   </sheetData>
@@ -4862,26 +4857,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:K90"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>50</v>
@@ -4896,7 +4891,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="27" t="s">
         <v>106</v>
@@ -4911,7 +4906,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -4931,7 +4926,7 @@
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -4951,7 +4946,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -4971,7 +4966,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -4991,7 +4986,7 @@
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -5011,7 +5006,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -5031,7 +5026,7 @@
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -5051,7 +5046,7 @@
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -5071,7 +5066,7 @@
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -5091,7 +5086,7 @@
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -5111,7 +5106,7 @@
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -5131,7 +5126,7 @@
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -5151,7 +5146,7 @@
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -5171,226 +5166,226 @@
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="12"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="12"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="12"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="12"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="12"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="12"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="12"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="12"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="12"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="12"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="12"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="12"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="12"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="12"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="12"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="12"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="12"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="12"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="12"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="12"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="12"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="12"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="12"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="12"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="12"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="12"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="12"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="12"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="12"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="12"/>
     </row>
   </sheetData>
@@ -5402,18 +5397,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>110</v>
       </c>
@@ -5424,7 +5419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -5441,7 +5436,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>111</v>
       </c>
@@ -5467,7 +5462,7 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>112</v>
       </c>
@@ -5486,7 +5481,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>113</v>
       </c>
@@ -5505,7 +5500,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D8" s="7"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5513,7 +5508,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>114</v>
       </c>
@@ -5524,7 +5519,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>110</v>
       </c>
@@ -5538,7 +5533,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
@@ -5554,7 +5549,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>115</v>
       </c>
@@ -5572,7 +5567,7 @@
       <c r="H12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>116</v>
       </c>
@@ -5590,7 +5585,7 @@
       <c r="H13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>117</v>
       </c>
@@ -5608,14 +5603,14 @@
       <c r="H14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>118</v>
       </c>
@@ -5625,7 +5620,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>110</v>
       </c>
@@ -5638,7 +5633,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="6" t="s">
         <v>11</v>
@@ -5655,7 +5650,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>119</v>
       </c>
@@ -5674,7 +5669,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>120</v>
       </c>
@@ -5693,7 +5688,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>121</v>
       </c>
@@ -5712,7 +5707,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -5720,7 +5715,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -5728,7 +5723,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>122</v>
       </c>
@@ -5739,32 +5734,32 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="36" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="6" t="s">
         <v>50</v>
@@ -5776,7 +5771,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>73</v>
       </c>
@@ -5790,7 +5785,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>126</v>
       </c>
@@ -5804,7 +5799,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>71</v>
       </c>
@@ -5818,33 +5813,33 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F44" s="3"/>
     </row>
   </sheetData>
@@ -5861,19 +5856,19 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="51" t="s">
         <v>155</v>
       </c>
@@ -5926,7 +5921,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
         <v>172</v>
       </c>
@@ -5975,7 +5970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>175</v>
       </c>
@@ -6024,7 +6019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>177</v>
       </c>
@@ -6075,7 +6070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>179</v>
       </c>
@@ -6126,7 +6121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>181</v>
       </c>
@@ -6177,7 +6172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>183</v>
       </c>
@@ -6228,7 +6223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>184</v>
       </c>
@@ -6279,7 +6274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>187</v>
       </c>
@@ -6330,7 +6325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>189</v>
       </c>
@@ -6381,7 +6376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>191</v>
       </c>
@@ -6432,7 +6427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>192</v>
       </c>
@@ -6483,7 +6478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>194</v>
       </c>
@@ -6534,7 +6529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="52" t="s">
         <v>195</v>
       </c>
@@ -6585,7 +6580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="52" t="s">
         <v>197</v>
       </c>
@@ -6636,7 +6631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="52" t="s">
         <v>198</v>
       </c>
@@ -6687,7 +6682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
         <v>199</v>
       </c>
@@ -6738,7 +6733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="52" t="s">
         <v>200</v>
       </c>
@@ -6789,7 +6784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="52" t="s">
         <v>202</v>
       </c>
@@ -6840,7 +6835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>204</v>
       </c>
@@ -6885,7 +6880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
         <v>206</v>
       </c>
@@ -6932,7 +6927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>208</v>
       </c>
@@ -6992,9 +6987,9 @@
       <selection activeCell="B4" sqref="B4:R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="51" t="s">
         <v>155</v>
       </c>
@@ -7056,7 +7051,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>172</v>
       </c>
@@ -7115,7 +7110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>175</v>
       </c>
@@ -7174,7 +7169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>177</v>
       </c>
@@ -7233,7 +7228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -7292,7 +7287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>181</v>
       </c>
@@ -7351,7 +7346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>183</v>
       </c>
@@ -7410,7 +7405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>184</v>
       </c>
@@ -7469,7 +7464,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>187</v>
       </c>
@@ -7525,7 +7520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>189</v>
       </c>
@@ -7581,7 +7576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>191</v>
       </c>
@@ -7634,7 +7629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>192</v>
       </c>
@@ -7690,7 +7685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>194</v>
       </c>
@@ -7743,7 +7738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>195</v>
       </c>
@@ -7799,7 +7794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>197</v>
       </c>
@@ -7855,7 +7850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>198</v>
       </c>
@@ -7914,7 +7909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>199</v>
       </c>
@@ -7973,7 +7968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>200</v>
       </c>
@@ -8032,7 +8027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>202</v>
       </c>
@@ -8091,7 +8086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>204</v>
       </c>
@@ -8150,7 +8145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>206</v>
       </c>
@@ -8222,17 +8217,17 @@
       <selection activeCell="I4" sqref="I4:K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="9:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="9:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="9:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I4" s="73" t="s">
         <v>217</v>
       </c>
       <c r="J4" s="74"/>
       <c r="K4" s="75"/>
     </row>
-    <row r="5" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I5" s="54" t="s">
         <v>50</v>
       </c>
@@ -8243,7 +8238,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I6" s="52" t="s">
         <v>218</v>
       </c>
@@ -8254,7 +8249,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I7" s="52" t="s">
         <v>218</v>
       </c>
@@ -8265,7 +8260,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I8" s="52" t="s">
         <v>218</v>
       </c>
@@ -8276,7 +8271,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I9" s="52" t="s">
         <v>218</v>
       </c>
@@ -8287,7 +8282,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I10" s="52" t="s">
         <v>218</v>
       </c>
@@ -8298,7 +8293,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I11" s="52" t="s">
         <v>218</v>
       </c>
@@ -8309,7 +8304,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I12" s="52" t="s">
         <v>218</v>
       </c>
@@ -8320,7 +8315,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I13" s="52" t="s">
         <v>218</v>
       </c>
@@ -8331,7 +8326,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I14" s="52" t="s">
         <v>218</v>
       </c>
@@ -8342,7 +8337,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I15" s="52" t="s">
         <v>218</v>
       </c>
@@ -8353,7 +8348,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I16" s="52" t="s">
         <v>218</v>
       </c>
@@ -8364,7 +8359,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I17" s="52" t="s">
         <v>218</v>
       </c>
@@ -8375,7 +8370,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I18" s="52" t="s">
         <v>218</v>
       </c>
@@ -8386,7 +8381,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I19" s="52" t="s">
         <v>218</v>
       </c>
@@ -8397,7 +8392,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I20" s="52" t="s">
         <v>218</v>
       </c>
@@ -8408,7 +8403,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I21" s="52" t="s">
         <v>218</v>
       </c>
@@ -8419,7 +8414,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I22" s="52" t="s">
         <v>227</v>
       </c>
@@ -8430,7 +8425,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I23" s="52" t="s">
         <v>227</v>
       </c>
@@ -8441,7 +8436,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I24" s="52" t="s">
         <v>227</v>
       </c>
@@ -8452,7 +8447,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I25" s="52" t="s">
         <v>227</v>
       </c>
@@ -8463,7 +8458,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I26" s="52" t="s">
         <v>227</v>
       </c>
@@ -8474,7 +8469,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I27" s="52" t="s">
         <v>227</v>
       </c>
@@ -8485,7 +8480,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I28" s="52" t="s">
         <v>227</v>
       </c>
@@ -8496,7 +8491,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I29" s="52" t="s">
         <v>227</v>
       </c>
@@ -8507,7 +8502,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I30" s="52" t="s">
         <v>227</v>
       </c>
@@ -8518,7 +8513,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I31" s="52" t="s">
         <v>227</v>
       </c>
@@ -8529,7 +8524,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I32" s="52" t="s">
         <v>227</v>
       </c>
@@ -8540,7 +8535,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I33" s="52" t="s">
         <v>227</v>
       </c>
@@ -8551,7 +8546,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I34" s="52" t="s">
         <v>227</v>
       </c>
@@ -8562,7 +8557,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I35" s="52" t="s">
         <v>227</v>
       </c>
@@ -8573,7 +8568,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I36" s="52" t="s">
         <v>227</v>
       </c>
@@ -8584,7 +8579,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I37" s="52" t="s">
         <v>227</v>
       </c>
@@ -8595,7 +8590,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I38" s="52" t="s">
         <v>228</v>
       </c>
@@ -8606,7 +8601,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I39" s="52" t="s">
         <v>228</v>
       </c>
@@ -8617,7 +8612,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I40" s="52" t="s">
         <v>228</v>
       </c>
@@ -8628,7 +8623,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I41" s="52" t="s">
         <v>228</v>
       </c>
@@ -8639,7 +8634,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I42" s="52" t="s">
         <v>228</v>
       </c>
@@ -8650,7 +8645,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I43" s="52" t="s">
         <v>228</v>
       </c>
@@ -8661,7 +8656,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I44" s="52" t="s">
         <v>228</v>
       </c>
@@ -8672,7 +8667,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I45" s="52" t="s">
         <v>228</v>
       </c>
@@ -8683,7 +8678,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I46" s="52" t="s">
         <v>228</v>
       </c>
@@ -8694,7 +8689,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I47" s="52" t="s">
         <v>228</v>
       </c>
@@ -8705,7 +8700,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I48" s="52" t="s">
         <v>228</v>
       </c>
@@ -8716,7 +8711,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I49" s="52" t="s">
         <v>228</v>
       </c>
@@ -8727,7 +8722,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I50" s="52" t="s">
         <v>228</v>
       </c>
@@ -8738,7 +8733,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I51" s="52" t="s">
         <v>228</v>
       </c>
@@ -8749,7 +8744,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I52" s="52" t="s">
         <v>228</v>
       </c>
@@ -8760,7 +8755,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I53" s="52" t="s">
         <v>228</v>
       </c>
@@ -8771,7 +8766,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I54" s="52" t="s">
         <v>229</v>
       </c>
@@ -8782,7 +8777,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I55" s="52" t="s">
         <v>229</v>
       </c>
@@ -8793,7 +8788,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I56" s="52" t="s">
         <v>229</v>
       </c>
@@ -8804,7 +8799,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I57" s="52" t="s">
         <v>229</v>
       </c>
@@ -8815,7 +8810,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I58" s="52" t="s">
         <v>229</v>
       </c>
@@ -8826,7 +8821,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I59" s="52" t="s">
         <v>229</v>
       </c>
@@ -8837,7 +8832,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I60" s="52" t="s">
         <v>229</v>
       </c>
@@ -8848,7 +8843,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I61" s="52" t="s">
         <v>229</v>
       </c>
@@ -8859,7 +8854,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I62" s="52" t="s">
         <v>229</v>
       </c>
@@ -8870,7 +8865,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I63" s="52" t="s">
         <v>229</v>
       </c>
@@ -8881,7 +8876,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I64" s="52" t="s">
         <v>229</v>
       </c>
@@ -8892,7 +8887,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I65" s="52" t="s">
         <v>229</v>
       </c>
@@ -8903,7 +8898,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I66" s="52" t="s">
         <v>229</v>
       </c>
@@ -8914,7 +8909,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I67" s="52" t="s">
         <v>229</v>
       </c>
@@ -8925,7 +8920,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I68" s="52" t="s">
         <v>229</v>
       </c>
@@ -8936,7 +8931,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I69" s="52" t="s">
         <v>229</v>
       </c>
